--- a/Results/Baseline/Lifetime/Results_world_base_life_Min.xlsx
+++ b/Results/Baseline/Lifetime/Results_world_base_life_Min.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.031773792716</v>
+        <v>262.0317682853503</v>
       </c>
       <c r="E2">
-        <v>302.6233737408875</v>
+        <v>302.6233642242591</v>
       </c>
       <c r="F2">
-        <v>500.2462757635802</v>
+        <v>500.2462576362724</v>
       </c>
       <c r="G2">
-        <v>370.6346942612861</v>
+        <v>370.6346607353748</v>
       </c>
       <c r="H2">
-        <v>949.0429298925563</v>
+        <v>949.0428764698527</v>
       </c>
       <c r="I2">
-        <v>545.3739906693614</v>
+        <v>545.3738810290037</v>
       </c>
       <c r="J2">
-        <v>608.7260805222717</v>
+        <v>608.7258221466811</v>
       </c>
       <c r="K2">
-        <v>700.5601839351044</v>
+        <v>700.5594861532037</v>
       </c>
       <c r="L2">
-        <v>559.6603596628599</v>
+        <v>559.6585462093728</v>
       </c>
       <c r="M2">
-        <v>689.6209234497742</v>
+        <v>689.6159144598863</v>
       </c>
       <c r="N2">
-        <v>360.4817465346806</v>
+        <v>360.4689752466271</v>
       </c>
       <c r="O2">
-        <v>409.3350333739135</v>
+        <v>409.3123037495649</v>
       </c>
       <c r="P2">
-        <v>806.7614193727405</v>
+        <v>806.7291727351248</v>
       </c>
       <c r="Q2">
-        <v>805.033490066633</v>
+        <v>805.0067933698866</v>
       </c>
       <c r="R2">
-        <v>797.0943442934656</v>
+        <v>797.0782523626012</v>
       </c>
       <c r="S2">
-        <v>1984.971697558995</v>
+        <v>1984.954496803699</v>
       </c>
       <c r="T2">
-        <v>2001.500727336183</v>
+        <v>2001.474251872817</v>
       </c>
       <c r="U2">
-        <v>2018.546650958159</v>
+        <v>2018.510496821031</v>
       </c>
       <c r="V2">
-        <v>2040.245732485529</v>
+        <v>2040.195966618516</v>
       </c>
       <c r="W2">
-        <v>2063.650655871916</v>
+        <v>2063.585808955826</v>
       </c>
       <c r="X2">
-        <v>1907.277975922882</v>
+        <v>1907.204150060828</v>
       </c>
       <c r="Y2">
-        <v>1935.499275299311</v>
+        <v>1935.406485556173</v>
       </c>
       <c r="Z2">
-        <v>2008.027388897786</v>
+        <v>2007.878495256367</v>
       </c>
       <c r="AA2">
-        <v>2109.598782631541</v>
+        <v>2109.369460464448</v>
       </c>
       <c r="AB2">
-        <v>2223.36314577532</v>
+        <v>2223.043041384461</v>
       </c>
       <c r="AC2">
-        <v>964.9641786028124</v>
+        <v>964.5745338728216</v>
       </c>
       <c r="AD2">
-        <v>928.9025572059817</v>
+        <v>928.5476723763883</v>
       </c>
       <c r="AE2">
-        <v>905.3306053525107</v>
+        <v>904.9999557678137</v>
       </c>
       <c r="AF2">
-        <v>899.8576881447141</v>
+        <v>899.5358203601705</v>
       </c>
       <c r="AG2">
-        <v>873.7928545467958</v>
+        <v>873.4963716426372</v>
       </c>
       <c r="AH2">
-        <v>658.6002471196391</v>
+        <v>658.3303213907947</v>
       </c>
       <c r="AI2">
-        <v>657.6952826108973</v>
+        <v>657.4280847917979</v>
       </c>
       <c r="AJ2">
-        <v>784.7141300582878</v>
+        <v>784.3415893567416</v>
       </c>
       <c r="AK2">
-        <v>985.5943665211495</v>
+        <v>985.0540931212321</v>
       </c>
       <c r="AL2">
-        <v>1204.558069454625</v>
+        <v>1203.834414385198</v>
       </c>
       <c r="AM2">
-        <v>1546.762227397381</v>
+        <v>1545.75009775926</v>
       </c>
       <c r="AN2">
-        <v>1932.40163576363</v>
+        <v>1931.064133879606</v>
       </c>
       <c r="AO2">
-        <v>2084.411121816076</v>
+        <v>2082.947535735543</v>
       </c>
       <c r="AP2">
-        <v>2105.311168743953</v>
+        <v>2103.833512196304</v>
       </c>
       <c r="AQ2">
-        <v>2106.495198171952</v>
+        <v>2105.020668861249</v>
       </c>
       <c r="AR2">
-        <v>2084.42149434638</v>
+        <v>2082.970629665102</v>
       </c>
       <c r="AS2">
-        <v>2058.932820943732</v>
+        <v>2057.509187721081</v>
       </c>
       <c r="AT2">
-        <v>2070.113867891312</v>
+        <v>2068.68700525895</v>
       </c>
       <c r="AU2">
-        <v>2071.927962098094</v>
+        <v>2070.506622142806</v>
       </c>
       <c r="AV2">
-        <v>1974.345804068713</v>
+        <v>1973.024062805558</v>
       </c>
       <c r="AW2">
-        <v>1666.995370841326</v>
+        <v>1665.946126305473</v>
       </c>
       <c r="AX2">
-        <v>1484.712463685958</v>
+        <v>1484.009875421282</v>
       </c>
       <c r="AY2">
-        <v>1314.239061593498</v>
+        <v>1313.688875386545</v>
       </c>
       <c r="AZ2">
-        <v>1273.729669168266</v>
+        <v>1273.220862163966</v>
       </c>
       <c r="BA2">
-        <v>1228.68950427131</v>
+        <v>1228.225539543991</v>
       </c>
       <c r="BB2">
-        <v>1141.18872558405</v>
+        <v>1140.782936851175</v>
       </c>
       <c r="BC2">
-        <v>1104.941987181619</v>
+        <v>1104.573043367027</v>
       </c>
       <c r="BD2">
-        <v>1167.430536152162</v>
+        <v>1167.014217810942</v>
       </c>
       <c r="BE2">
-        <v>1327.529535485113</v>
+        <v>1326.982859699422</v>
       </c>
       <c r="BF2">
-        <v>1550.505818366752</v>
+        <v>1549.775234384999</v>
       </c>
       <c r="BG2">
-        <v>1790.439141058399</v>
+        <v>1789.487901180234</v>
       </c>
       <c r="BH2">
-        <v>2070.123547215182</v>
+        <v>2068.940106647634</v>
       </c>
       <c r="BI2">
-        <v>2288.425666344861</v>
+        <v>2287.062267156094</v>
       </c>
       <c r="BJ2">
-        <v>2391.747189530242</v>
+        <v>2390.301832209359</v>
       </c>
       <c r="BK2">
-        <v>2415.157485646738</v>
+        <v>2413.698360848766</v>
       </c>
       <c r="BL2">
-        <v>2390.106132675168</v>
+        <v>2388.658064194568</v>
       </c>
       <c r="BM2">
-        <v>2375.901334020007</v>
+        <v>2374.472288290952</v>
       </c>
       <c r="BN2">
-        <v>2358.377652501283</v>
+        <v>2356.970820914613</v>
       </c>
       <c r="BO2">
-        <v>2324.625195809716</v>
+        <v>2323.254781130193</v>
       </c>
       <c r="BP2">
-        <v>2237.57215246232</v>
+        <v>2236.283829450473</v>
       </c>
       <c r="BQ2">
-        <v>2061.93349716666</v>
+        <v>2060.791383619346</v>
       </c>
       <c r="BR2">
-        <v>1866.664382576669</v>
+        <v>1865.696800094611</v>
       </c>
       <c r="BS2">
-        <v>1711.948072667774</v>
+        <v>1711.120141373088</v>
       </c>
       <c r="BT2">
-        <v>1612.926022959593</v>
+        <v>1612.190003308476</v>
       </c>
       <c r="BU2">
-        <v>1556.886330210147</v>
+        <v>1556.205401371724</v>
       </c>
       <c r="BV2">
-        <v>1504.515649688948</v>
+        <v>1503.875378467395</v>
       </c>
       <c r="BW2">
-        <v>1488.09048962107</v>
+        <v>1487.471650369939</v>
       </c>
       <c r="BX2">
-        <v>1530.916518138027</v>
+        <v>1530.26867180506</v>
       </c>
       <c r="BY2">
-        <v>1651.636380968327</v>
+        <v>1650.893368544089</v>
       </c>
       <c r="BZ2">
-        <v>1838.06817317019</v>
+        <v>1837.174227615971</v>
       </c>
       <c r="CA2">
-        <v>2048.165242082207</v>
+        <v>2047.088630685206</v>
       </c>
       <c r="CB2">
-        <v>2279.460039488671</v>
+        <v>2278.194751196612</v>
       </c>
       <c r="CC2">
-        <v>2484.254773509007</v>
+        <v>2482.823317415127</v>
       </c>
       <c r="CD2">
-        <v>2623.961962537277</v>
+        <v>2622.419760338889</v>
       </c>
       <c r="CE2">
-        <v>2687.431498677901</v>
+        <v>2685.843517162927</v>
       </c>
       <c r="CF2">
-        <v>2681.3137424793</v>
+        <v>2679.72621741736</v>
       </c>
       <c r="CG2">
-        <v>2665.340524839286</v>
+        <v>2663.775610963279</v>
       </c>
       <c r="CH2">
-        <v>2638.440609155986</v>
+        <v>2636.907786211984</v>
       </c>
       <c r="CI2">
-        <v>2593.443274343517</v>
+        <v>2591.958142079869</v>
       </c>
       <c r="CJ2">
-        <v>2513.658032767423</v>
+        <v>2512.250351355735</v>
       </c>
       <c r="CK2">
-        <v>2367.517624414522</v>
+        <v>2366.2258116765</v>
       </c>
       <c r="CL2">
-        <v>2211.963317394338</v>
+        <v>2210.813867141298</v>
       </c>
       <c r="CM2">
-        <v>2062.580276166804</v>
+        <v>2061.56765368963</v>
       </c>
       <c r="CN2">
-        <v>1948.706523323297</v>
+        <v>1947.800180144947</v>
       </c>
       <c r="CO2">
-        <v>1875.646076346251</v>
+        <v>1874.811003915537</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49093932838874</v>
+        <v>16.49093896605874</v>
       </c>
       <c r="E3">
-        <v>19.15979926881357</v>
+        <v>19.1597986449497</v>
       </c>
       <c r="F3">
-        <v>32.31390472826249</v>
+        <v>32.31390355406209</v>
       </c>
       <c r="G3">
-        <v>23.60961960504062</v>
+        <v>23.60961750650776</v>
       </c>
       <c r="H3">
-        <v>62.55675553490512</v>
+        <v>62.55675246090161</v>
       </c>
       <c r="I3">
-        <v>35.43323659609103</v>
+        <v>35.43323129430858</v>
       </c>
       <c r="J3">
-        <v>39.57573281171886</v>
+        <v>39.57572345756608</v>
       </c>
       <c r="K3">
-        <v>45.59062951900268</v>
+        <v>45.59061217934736</v>
       </c>
       <c r="L3">
-        <v>36.17269403534864</v>
+        <v>36.17266342020631</v>
       </c>
       <c r="M3">
-        <v>44.82971311444946</v>
+        <v>44.82965259398136</v>
       </c>
       <c r="N3">
-        <v>22.57855785682615</v>
+        <v>22.57844147794022</v>
       </c>
       <c r="O3">
-        <v>26.00850152922611</v>
+        <v>26.00834279362792</v>
       </c>
       <c r="P3">
-        <v>52.6208035880287</v>
+        <v>52.62061196484657</v>
       </c>
       <c r="Q3">
-        <v>52.464792839918</v>
+        <v>52.46458962640783</v>
       </c>
       <c r="R3">
-        <v>51.88838077026341</v>
+        <v>51.8881548568073</v>
       </c>
       <c r="S3">
-        <v>131.5996651201709</v>
+        <v>131.5994065961148</v>
       </c>
       <c r="T3">
-        <v>132.669293691289</v>
+        <v>132.6689977774535</v>
       </c>
       <c r="U3">
-        <v>133.773900750153</v>
+        <v>133.7735681091635</v>
       </c>
       <c r="V3">
-        <v>135.1933480354189</v>
+        <v>135.1929742220397</v>
       </c>
       <c r="W3">
-        <v>136.7281974104377</v>
+        <v>136.7277785592944</v>
       </c>
       <c r="X3">
-        <v>126.1891502523307</v>
+        <v>126.1886987478243</v>
       </c>
       <c r="Y3">
-        <v>128.0517128924234</v>
+        <v>128.0512222526706</v>
       </c>
       <c r="Z3">
-        <v>132.9123649847067</v>
+        <v>132.9118195505274</v>
       </c>
       <c r="AA3">
-        <v>139.7382447353172</v>
+        <v>139.7376319108468</v>
       </c>
       <c r="AB3">
-        <v>147.3890113451806</v>
+        <v>147.3883085567216</v>
       </c>
       <c r="AC3">
-        <v>62.89577158622541</v>
+        <v>62.89496617235413</v>
       </c>
       <c r="AD3">
-        <v>60.40654657869748</v>
+        <v>60.40564189384453</v>
       </c>
       <c r="AE3">
-        <v>58.76212705814704</v>
+        <v>58.7610879193839</v>
       </c>
       <c r="AF3">
-        <v>58.34189108083925</v>
+        <v>58.34065823754817</v>
       </c>
       <c r="AG3">
-        <v>56.52746419208309</v>
+        <v>56.52595735920106</v>
       </c>
       <c r="AH3">
-        <v>42.01219249274595</v>
+        <v>42.01031801346888</v>
       </c>
       <c r="AI3">
-        <v>41.89689635796822</v>
+        <v>41.89453478083136</v>
       </c>
       <c r="AJ3">
-        <v>50.43695769269591</v>
+        <v>50.43397224013532</v>
       </c>
       <c r="AK3">
-        <v>63.97438075211969</v>
+        <v>63.97068195721782</v>
       </c>
       <c r="AL3">
-        <v>78.73493137600509</v>
+        <v>78.73045507457327</v>
       </c>
       <c r="AM3">
-        <v>101.8333242091481</v>
+        <v>101.827896967152</v>
       </c>
       <c r="AN3">
-        <v>127.8706902635842</v>
+        <v>127.8642730785871</v>
       </c>
       <c r="AO3">
-        <v>138.1010699753029</v>
+        <v>138.0939984186267</v>
       </c>
       <c r="AP3">
-        <v>139.4612646543924</v>
+        <v>139.453771337081</v>
       </c>
       <c r="AQ3">
-        <v>139.488408810084</v>
+        <v>139.4806117784885</v>
       </c>
       <c r="AR3">
-        <v>137.941301735205</v>
+        <v>137.9333461731885</v>
       </c>
       <c r="AS3">
-        <v>136.1644618146409</v>
+        <v>136.1564861836549</v>
       </c>
       <c r="AT3">
-        <v>136.8701036110634</v>
+        <v>136.8622065282077</v>
       </c>
       <c r="AU3">
-        <v>136.9433133647838</v>
+        <v>136.935644402285</v>
       </c>
       <c r="AV3">
-        <v>130.2846027506682</v>
+        <v>130.2774043737195</v>
       </c>
       <c r="AW3">
-        <v>109.4343990562935</v>
+        <v>109.4279794633233</v>
       </c>
       <c r="AX3">
-        <v>96.94007631312728</v>
+        <v>96.9345472504551</v>
       </c>
       <c r="AY3">
-        <v>85.35313955877398</v>
+        <v>85.34818859562012</v>
       </c>
       <c r="AZ3">
-        <v>82.55927124198227</v>
+        <v>82.55470209382051</v>
       </c>
       <c r="BA3">
-        <v>79.4582667389548</v>
+        <v>79.45402347900495</v>
       </c>
       <c r="BB3">
-        <v>73.49220015611475</v>
+        <v>73.48820945242356</v>
       </c>
       <c r="BC3">
-        <v>70.97919185539178</v>
+        <v>70.9753277296945</v>
       </c>
       <c r="BD3">
-        <v>75.14582291403033</v>
+        <v>75.14188813164378</v>
       </c>
       <c r="BE3">
-        <v>85.91614442912622</v>
+        <v>85.91196363088345</v>
       </c>
       <c r="BF3">
-        <v>100.9400971246048</v>
+        <v>100.9355336994079</v>
       </c>
       <c r="BG3">
-        <v>117.120113057772</v>
+        <v>117.1150501205287</v>
       </c>
       <c r="BH3">
-        <v>135.9755381678246</v>
+        <v>135.9699112085776</v>
       </c>
       <c r="BI3">
-        <v>150.6775777321329</v>
+        <v>150.6714390134164</v>
       </c>
       <c r="BJ3">
-        <v>157.599969029233</v>
+        <v>157.593458032358</v>
       </c>
       <c r="BK3">
-        <v>159.1156794473099</v>
+        <v>159.1089089227765</v>
       </c>
       <c r="BL3">
-        <v>157.359528931878</v>
+        <v>157.3525637328649</v>
       </c>
       <c r="BM3">
-        <v>156.3273893230765</v>
+        <v>156.3202840136433</v>
       </c>
       <c r="BN3">
-        <v>155.0712082512844</v>
+        <v>155.0640215382212</v>
       </c>
       <c r="BO3">
-        <v>152.7175428746519</v>
+        <v>152.7103535741037</v>
       </c>
       <c r="BP3">
-        <v>146.7580618371221</v>
+        <v>146.7509879578394</v>
       </c>
       <c r="BQ3">
-        <v>134.8071424073597</v>
+        <v>134.8003119496664</v>
       </c>
       <c r="BR3">
-        <v>121.5210651071057</v>
+        <v>121.5145339507357</v>
       </c>
       <c r="BS3">
-        <v>110.9788862443592</v>
+        <v>110.9726047757674</v>
       </c>
       <c r="BT3">
-        <v>104.2050361811674</v>
+        <v>104.1989330671954</v>
       </c>
       <c r="BU3">
-        <v>100.3394015862985</v>
+        <v>100.3334210739373</v>
       </c>
       <c r="BV3">
-        <v>96.72436665715797</v>
+        <v>96.71848069453604</v>
       </c>
       <c r="BW3">
-        <v>95.53432721920801</v>
+        <v>95.52849737488374</v>
       </c>
       <c r="BX3">
-        <v>98.35315252137285</v>
+        <v>98.34729909827904</v>
       </c>
       <c r="BY3">
-        <v>106.4422270459618</v>
+        <v>106.4362527321076</v>
       </c>
       <c r="BZ3">
-        <v>118.9772797343884</v>
+        <v>118.9710988724026</v>
       </c>
       <c r="CA3">
-        <v>133.1158817340687</v>
+        <v>133.1094318510327</v>
       </c>
       <c r="CB3">
-        <v>148.6811083689387</v>
+        <v>148.6743552277369</v>
       </c>
       <c r="CC3">
-        <v>162.4530693107399</v>
+        <v>162.4460201109929</v>
       </c>
       <c r="CD3">
-        <v>171.8209872410341</v>
+        <v>171.8137030357403</v>
       </c>
       <c r="CE3">
-        <v>176.0305187062174</v>
+        <v>176.0230821141975</v>
       </c>
       <c r="CF3">
-        <v>175.5345677418624</v>
+        <v>175.5270425883962</v>
       </c>
       <c r="CG3">
-        <v>174.3635477981036</v>
+        <v>174.3559720655656</v>
       </c>
       <c r="CH3">
-        <v>172.4533443638078</v>
+        <v>172.4457461216514</v>
       </c>
       <c r="CI3">
-        <v>169.3188417617031</v>
+        <v>169.3112632952646</v>
       </c>
       <c r="CJ3">
-        <v>163.8307684474719</v>
+        <v>163.8232722398723</v>
       </c>
       <c r="CK3">
-        <v>153.8594882878162</v>
+        <v>153.8521429363464</v>
       </c>
       <c r="CL3">
-        <v>143.2400146959039</v>
+        <v>143.2328618053793</v>
       </c>
       <c r="CM3">
-        <v>133.0381016145613</v>
+        <v>133.0311283651705</v>
       </c>
       <c r="CN3">
-        <v>125.2387415168089</v>
+        <v>125.2318962695182</v>
       </c>
       <c r="CO3">
-        <v>120.2008158300041</v>
+        <v>120.1940426677566</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474578.56306585</v>
+        <v>26474515.04430017</v>
       </c>
       <c r="E4">
-        <v>26777561.01108609</v>
+        <v>26777451.63258485</v>
       </c>
       <c r="F4">
-        <v>29376832.30614666</v>
+        <v>29376626.37716623</v>
       </c>
       <c r="G4">
-        <v>29468752.080509</v>
+        <v>29468383.74498511</v>
       </c>
       <c r="H4">
-        <v>26834356.04452911</v>
+        <v>26833815.44544359</v>
       </c>
       <c r="I4">
-        <v>26322170.76398994</v>
+        <v>26321234.43343447</v>
       </c>
       <c r="J4">
-        <v>29032613.06414064</v>
+        <v>29030947.35363447</v>
       </c>
       <c r="K4">
-        <v>32857475.73230129</v>
+        <v>32854344.92780009</v>
       </c>
       <c r="L4">
-        <v>32642938.01035918</v>
+        <v>32637305.81751369</v>
       </c>
       <c r="M4">
-        <v>34742033.83246098</v>
+        <v>34730686.68437542</v>
       </c>
       <c r="N4">
-        <v>37630907.50681724</v>
+        <v>37608791.90053114</v>
       </c>
       <c r="O4">
-        <v>34940887.90483771</v>
+        <v>34910588.42242467</v>
       </c>
       <c r="P4">
-        <v>38802067.29387109</v>
+        <v>38765666.32506852</v>
       </c>
       <c r="Q4">
-        <v>40113190.11514165</v>
+        <v>40074936.3621005</v>
       </c>
       <c r="R4">
-        <v>41432010.79465631</v>
+        <v>41389771.27765422</v>
       </c>
       <c r="S4">
-        <v>47331656.43728409</v>
+        <v>47283540.20499502</v>
       </c>
       <c r="T4">
-        <v>48793869.60847966</v>
+        <v>48738988.99025533</v>
       </c>
       <c r="U4">
-        <v>50255335.1250389</v>
+        <v>50193861.36460369</v>
       </c>
       <c r="V4">
-        <v>51719660.68340641</v>
+        <v>51650742.95779382</v>
       </c>
       <c r="W4">
-        <v>53186572.21819422</v>
+        <v>53109465.66704775</v>
       </c>
       <c r="X4">
-        <v>54164429.42464597</v>
+        <v>54081606.49828595</v>
       </c>
       <c r="Y4">
-        <v>55530179.78862522</v>
+        <v>55440412.11002462</v>
       </c>
       <c r="Z4">
-        <v>56905077.02653434</v>
+        <v>56805388.18231934</v>
       </c>
       <c r="AA4">
-        <v>58286860.35881928</v>
+        <v>58174958.2263011</v>
       </c>
       <c r="AB4">
-        <v>59682403.0150554</v>
+        <v>59554135.68081435</v>
       </c>
       <c r="AC4">
-        <v>55934125.77702007</v>
+        <v>55787446.95025939</v>
       </c>
       <c r="AD4">
-        <v>57338182.72458486</v>
+        <v>57174359.37742429</v>
       </c>
       <c r="AE4">
-        <v>58761322.64451922</v>
+        <v>58574278.05817745</v>
       </c>
       <c r="AF4">
-        <v>60219248.64276472</v>
+        <v>59998351.99342726</v>
       </c>
       <c r="AG4">
-        <v>61727115.36873396</v>
+        <v>61457726.16208892</v>
       </c>
       <c r="AH4">
-        <v>62406697.00205822</v>
+        <v>62071651.5546722</v>
       </c>
       <c r="AI4">
-        <v>64071545.8451895</v>
+        <v>63648616.12501118</v>
       </c>
       <c r="AJ4">
-        <v>65821651.49305565</v>
+        <v>65285150.2902028</v>
       </c>
       <c r="AK4">
-        <v>67626214.52044652</v>
+        <v>66959585.6557754</v>
       </c>
       <c r="AL4">
-        <v>69471079.67805494</v>
+        <v>68662410.03368308</v>
       </c>
       <c r="AM4">
-        <v>71406948.8487362</v>
+        <v>70422287.72935116</v>
       </c>
       <c r="AN4">
-        <v>73370900.58874932</v>
+        <v>72202308.70779568</v>
       </c>
       <c r="AO4">
-        <v>75107724.93765156</v>
+        <v>73820650.44408455</v>
       </c>
       <c r="AP4">
-        <v>76691932.2285762</v>
+        <v>75330859.94164073</v>
       </c>
       <c r="AQ4">
-        <v>78205687.6822166</v>
+        <v>76791903.20309325</v>
       </c>
       <c r="AR4">
-        <v>79618218.49544601</v>
+        <v>78177926.47789477</v>
       </c>
       <c r="AS4">
-        <v>80949817.38700864</v>
+        <v>79507633.99261343</v>
       </c>
       <c r="AT4">
-        <v>82228024.30301021</v>
+        <v>80800651.76940049</v>
       </c>
       <c r="AU4">
-        <v>83416645.16331173</v>
+        <v>82031034.3431624</v>
       </c>
       <c r="AV4">
-        <v>84951795.64366373</v>
+        <v>83653632.32951356</v>
       </c>
       <c r="AW4">
-        <v>86012644.6490019</v>
+        <v>84861145.3287791</v>
       </c>
       <c r="AX4">
-        <v>87068824.13558842</v>
+        <v>86085049.65185905</v>
       </c>
       <c r="AY4">
-        <v>88135259.28756426</v>
+        <v>87257183.90317242</v>
       </c>
       <c r="AZ4">
-        <v>89335293.36883458</v>
+        <v>88524548.68988547</v>
       </c>
       <c r="BA4">
-        <v>90568589.84870347</v>
+        <v>89815170.37592995</v>
       </c>
       <c r="BB4">
-        <v>91835666.95480826</v>
+        <v>91126641.57909992</v>
       </c>
       <c r="BC4">
-        <v>93276773.61947134</v>
+        <v>92589173.76990959</v>
       </c>
       <c r="BD4">
-        <v>94842123.20859186</v>
+        <v>94139083.65498446</v>
       </c>
       <c r="BE4">
-        <v>96516283.95539939</v>
+        <v>95765240.69815038</v>
       </c>
       <c r="BF4">
-        <v>98273995.94666137</v>
+        <v>97449826.77681726</v>
       </c>
       <c r="BG4">
-        <v>100083934.1459844</v>
+        <v>99165061.32608075</v>
       </c>
       <c r="BH4">
-        <v>102028446.8758744</v>
+        <v>101003213.9519735</v>
       </c>
       <c r="BI4">
-        <v>103933309.0525526</v>
+        <v>102812681.323594</v>
       </c>
       <c r="BJ4">
-        <v>105740632.1171402</v>
+        <v>104552377.0443019</v>
       </c>
       <c r="BK4">
-        <v>107470932.0036816</v>
+        <v>106237155.9228428</v>
       </c>
       <c r="BL4">
-        <v>109137226.2658098</v>
+        <v>107870257.4617994</v>
       </c>
       <c r="BM4">
-        <v>110841762.5872113</v>
+        <v>109551652.840146</v>
       </c>
       <c r="BN4">
-        <v>112510338.346685</v>
+        <v>111207787.8150449</v>
       </c>
       <c r="BO4">
-        <v>114129615.693434</v>
+        <v>112829199.507682</v>
       </c>
       <c r="BP4">
-        <v>115672900.8559372</v>
+        <v>114396906.978992</v>
       </c>
       <c r="BQ4">
-        <v>117191936.7956445</v>
+        <v>115964659.1243731</v>
       </c>
       <c r="BR4">
-        <v>118728277.1495415</v>
+        <v>117559849.9685801</v>
       </c>
       <c r="BS4">
-        <v>120303787.7815966</v>
+        <v>119183642.815623</v>
       </c>
       <c r="BT4">
-        <v>121932364.9513219</v>
+        <v>120845822.2884548</v>
       </c>
       <c r="BU4">
-        <v>123601931.0505519</v>
+        <v>122537594.9044524</v>
       </c>
       <c r="BV4">
-        <v>125321391.2253155</v>
+        <v>124273557.3556602</v>
       </c>
       <c r="BW4">
-        <v>127116352.5014274</v>
+        <v>126077488.5117062</v>
       </c>
       <c r="BX4">
-        <v>128964674.8141655</v>
+        <v>127919310.3523309</v>
       </c>
       <c r="BY4">
-        <v>130877174.6062226</v>
+        <v>129806546.9342747</v>
       </c>
       <c r="BZ4">
-        <v>132844981.4956817</v>
+        <v>131732770.8932204</v>
       </c>
       <c r="CA4">
-        <v>134885403.5074573</v>
+        <v>133719950.9993102</v>
       </c>
       <c r="CB4">
-        <v>136997086.5524676</v>
+        <v>135772328.8199826</v>
       </c>
       <c r="CC4">
-        <v>139100142.8769016</v>
+        <v>137818159.8688992</v>
       </c>
       <c r="CD4">
-        <v>141157901.5592079</v>
+        <v>139831315.5362349</v>
       </c>
       <c r="CE4">
-        <v>143156199.3586819</v>
+        <v>141801754.5675271</v>
       </c>
       <c r="CF4">
-        <v>145140611.236225</v>
+        <v>143771176.0475978</v>
       </c>
       <c r="CG4">
-        <v>147156266.2108473</v>
+        <v>145779433.6906529</v>
       </c>
       <c r="CH4">
-        <v>149152685.1562289</v>
+        <v>147773928.6689475</v>
       </c>
       <c r="CI4">
-        <v>151120849.6521289</v>
+        <v>149748309.7281989</v>
       </c>
       <c r="CJ4">
-        <v>153047567.0760321</v>
+        <v>151693261.0913962</v>
       </c>
       <c r="CK4">
-        <v>154934045.3086283</v>
+        <v>153611118.2005966</v>
       </c>
       <c r="CL4">
-        <v>156874160.1894377</v>
+        <v>155590380.2406665</v>
       </c>
       <c r="CM4">
-        <v>158826196.1711036</v>
+        <v>157578572.9404086</v>
       </c>
       <c r="CN4">
-        <v>160816809.8594685</v>
+        <v>159594712.4356012</v>
       </c>
       <c r="CO4">
-        <v>162848525.1623965</v>
+        <v>161640535.5627607</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1695270.695623879</v>
+        <v>1695270.008317868</v>
       </c>
       <c r="E5">
-        <v>996789.5745199771</v>
+        <v>996788.3920453178</v>
       </c>
       <c r="F5">
-        <v>500701.698657277</v>
+        <v>500699.4783617422</v>
       </c>
       <c r="G5">
-        <v>309438.5821154134</v>
+        <v>309434.6390578158</v>
       </c>
       <c r="H5">
-        <v>291356.5900555724</v>
+        <v>291350.9020436114</v>
       </c>
       <c r="I5">
-        <v>210269.5262052951</v>
+        <v>210260.0473429782</v>
       </c>
       <c r="J5">
-        <v>177161.4053260728</v>
+        <v>177145.8309287218</v>
       </c>
       <c r="K5">
-        <v>232070.8926415911</v>
+        <v>232045.6389235696</v>
       </c>
       <c r="L5">
-        <v>414585.2086622978</v>
+        <v>414549.3824769554</v>
       </c>
       <c r="M5">
-        <v>376510.0478380396</v>
+        <v>376457.1445355814</v>
       </c>
       <c r="N5">
-        <v>480395.8592825593</v>
+        <v>480319.001296777</v>
       </c>
       <c r="O5">
-        <v>600005.558505528</v>
+        <v>599912.2837993071</v>
       </c>
       <c r="P5">
-        <v>3620614.105145035</v>
+        <v>3620487.034986918</v>
       </c>
       <c r="Q5">
-        <v>3649304.367992917</v>
+        <v>3649140.02963504</v>
       </c>
       <c r="R5">
-        <v>3682478.088909267</v>
+        <v>3682270.633536888</v>
       </c>
       <c r="S5">
-        <v>11433915.81447705</v>
+        <v>11433659.90258852</v>
       </c>
       <c r="T5">
-        <v>11474622.75843981</v>
+        <v>11474313.92631244</v>
       </c>
       <c r="U5">
-        <v>11517881.85764862</v>
+        <v>11517516.77788502</v>
       </c>
       <c r="V5">
-        <v>11562859.59913757</v>
+        <v>11562436.02966046</v>
       </c>
       <c r="W5">
-        <v>11609089.60850573</v>
+        <v>11608605.91547606</v>
       </c>
       <c r="X5">
-        <v>11148981.78211187</v>
+        <v>11148435.93611396</v>
       </c>
       <c r="Y5">
-        <v>11199894.26053603</v>
+        <v>11199282.19408216</v>
       </c>
       <c r="Z5">
-        <v>11257237.90177268</v>
+        <v>11256551.22527761</v>
       </c>
       <c r="AA5">
-        <v>11326526.87573252</v>
+        <v>11325750.01092001</v>
       </c>
       <c r="AB5">
-        <v>11415759.94402971</v>
+        <v>11414866.88076031</v>
       </c>
       <c r="AC5">
-        <v>2524474.259899301</v>
+        <v>2523425.337661475</v>
       </c>
       <c r="AD5">
-        <v>2687074.523865409</v>
+        <v>2685813.750448084</v>
       </c>
       <c r="AE5">
-        <v>2906285.506877129</v>
+        <v>2904739.061426693</v>
       </c>
       <c r="AF5">
-        <v>3195449.839909891</v>
+        <v>3193526.498218372</v>
       </c>
       <c r="AG5">
-        <v>3565827.208901378</v>
+        <v>3563421.060079248</v>
       </c>
       <c r="AH5">
-        <v>2320265.096046499</v>
+        <v>2317260.651886052</v>
       </c>
       <c r="AI5">
-        <v>2869480.027052674</v>
+        <v>2865759.545381731</v>
       </c>
       <c r="AJ5">
-        <v>3503676.378358038</v>
+        <v>3499129.018988591</v>
       </c>
       <c r="AK5">
-        <v>4209576.389501308</v>
+        <v>4204108.637582363</v>
       </c>
       <c r="AL5">
-        <v>4965573.99766399</v>
+        <v>4959120.516187765</v>
       </c>
       <c r="AM5">
-        <v>5742169.521654508</v>
+        <v>5734703.408198714</v>
       </c>
       <c r="AN5">
-        <v>6503331.549002733</v>
+        <v>6494872.915260948</v>
       </c>
       <c r="AO5">
-        <v>7208965.126655878</v>
+        <v>7199586.467161604</v>
       </c>
       <c r="AP5">
-        <v>7818431.744020841</v>
+        <v>7808258.510078872</v>
       </c>
       <c r="AQ5">
-        <v>8294742.573150476</v>
+        <v>8283948.410984971</v>
       </c>
       <c r="AR5">
-        <v>8608919.461274896</v>
+        <v>8597715.816980597</v>
       </c>
       <c r="AS5">
-        <v>8743742.797874162</v>
+        <v>8732363.557603497</v>
       </c>
       <c r="AT5">
-        <v>8696215.814230485</v>
+        <v>8684898.760175593</v>
       </c>
       <c r="AU5">
-        <v>8478195.478321979</v>
+        <v>8467162.947550412</v>
       </c>
       <c r="AV5">
-        <v>9264734.083364841</v>
+        <v>9254175.220588412</v>
       </c>
       <c r="AW5">
-        <v>9118284.662024979</v>
+        <v>9108341.271758787</v>
       </c>
       <c r="AX5">
-        <v>8581357.708742393</v>
+        <v>8572114.866327154</v>
       </c>
       <c r="AY5">
-        <v>8025794.473563395</v>
+        <v>8017276.374167683</v>
       </c>
       <c r="AZ5">
-        <v>7497419.815720991</v>
+        <v>7489590.954583854</v>
       </c>
       <c r="BA5">
-        <v>7037672.20264529</v>
+        <v>7030443.085779454</v>
       </c>
       <c r="BB5">
-        <v>6513323.982962148</v>
+        <v>6506561.051838689</v>
       </c>
       <c r="BC5">
-        <v>6281784.714003033</v>
+        <v>6275323.949156825</v>
       </c>
       <c r="BD5">
-        <v>6187016.794264437</v>
+        <v>6180679.813032148</v>
       </c>
       <c r="BE5">
-        <v>6227146.371304358</v>
+        <v>6220757.240385786</v>
       </c>
       <c r="BF5">
-        <v>6388620.577032207</v>
+        <v>6382021.044740654</v>
       </c>
       <c r="BG5">
-        <v>6484200.668707076</v>
+        <v>6477261.795169696</v>
       </c>
       <c r="BH5">
-        <v>6815674.651234411</v>
+        <v>6808303.689412351</v>
       </c>
       <c r="BI5">
-        <v>7188906.023374304</v>
+        <v>7181048.543356081</v>
       </c>
       <c r="BJ5">
-        <v>7575837.630429668</v>
+        <v>7567475.808763439</v>
       </c>
       <c r="BK5">
-        <v>7951605.694739914</v>
+        <v>7942754.118642624</v>
       </c>
       <c r="BL5">
-        <v>8171627.768424659</v>
+        <v>8162327.972176884</v>
       </c>
       <c r="BM5">
-        <v>8467678.125511449</v>
+        <v>8457992.556274345</v>
       </c>
       <c r="BN5">
-        <v>8704625.825668924</v>
+        <v>8694631.560003502</v>
       </c>
       <c r="BO5">
-        <v>8876086.820088638</v>
+        <v>8865869.263964867</v>
       </c>
       <c r="BP5">
-        <v>8980331.624542015</v>
+        <v>8969978.449950647</v>
       </c>
       <c r="BQ5">
-        <v>8933481.732485572</v>
+        <v>8923077.314774759</v>
       </c>
       <c r="BR5">
-        <v>8914585.884468926</v>
+        <v>8904206.46788146</v>
       </c>
       <c r="BS5">
-        <v>8846469.294301335</v>
+        <v>8836179.040463749</v>
       </c>
       <c r="BT5">
-        <v>8740709.977956276</v>
+        <v>8730557.946565641</v>
       </c>
       <c r="BU5">
-        <v>8610541.960456837</v>
+        <v>8600559.960648591</v>
       </c>
       <c r="BV5">
-        <v>8385831.699532184</v>
+        <v>8376033.050078752</v>
       </c>
       <c r="BW5">
-        <v>8249591.418010756</v>
+        <v>8239970.711686544</v>
       </c>
       <c r="BX5">
-        <v>8131117.171230598</v>
+        <v>8121651.221599807</v>
       </c>
       <c r="BY5">
-        <v>8042289.361779444</v>
+        <v>8032939.487372965</v>
       </c>
       <c r="BZ5">
-        <v>7992223.384799819</v>
+        <v>7982939.022484916</v>
       </c>
       <c r="CA5">
-        <v>7897895.673275372</v>
+        <v>7888619.097564895</v>
       </c>
       <c r="CB5">
-        <v>7937745.700669416</v>
+        <v>7928417.390048475</v>
       </c>
       <c r="CC5">
-        <v>8020497.910814567</v>
+        <v>8011061.930034324</v>
       </c>
       <c r="CD5">
-        <v>8139781.868721498</v>
+        <v>8130190.603715569</v>
       </c>
       <c r="CE5">
-        <v>8286500.53942591</v>
+        <v>8276718.243228596</v>
       </c>
       <c r="CF5">
-        <v>8350125.414202233</v>
+        <v>8340130.287201406</v>
       </c>
       <c r="CG5">
-        <v>8519168.308796698</v>
+        <v>8508953.091725601</v>
       </c>
       <c r="CH5">
-        <v>8683196.95646519</v>
+        <v>8672768.194985634</v>
       </c>
       <c r="CI5">
-        <v>8833001.284162324</v>
+        <v>8822377.536345368</v>
       </c>
       <c r="CJ5">
-        <v>8961323.572172072</v>
+        <v>8950532.864644043</v>
       </c>
       <c r="CK5">
-        <v>8926751.900750345</v>
+        <v>8915828.741052946</v>
       </c>
       <c r="CL5">
-        <v>8999626.989333639</v>
+        <v>8988609.215567773</v>
       </c>
       <c r="CM5">
-        <v>9043270.728950979</v>
+        <v>9032196.450297112</v>
       </c>
       <c r="CN5">
-        <v>9059577.164152719</v>
+        <v>9048482.009317476</v>
       </c>
       <c r="CO5">
-        <v>9052208.915614054</v>
+        <v>9041123.736650649</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>262.0317682853503</v>
+      </c>
+      <c r="E2">
+        <v>564.6551325096093</v>
+      </c>
+      <c r="F2">
+        <v>1064.901390145882</v>
+      </c>
+      <c r="G2">
+        <v>1435.536050881256</v>
+      </c>
+      <c r="H2">
+        <v>2384.578927351109</v>
+      </c>
+      <c r="I2">
+        <v>2929.952808380113</v>
+      </c>
+      <c r="J2">
+        <v>3538.678630526794</v>
+      </c>
+      <c r="K2">
+        <v>4239.238116679998</v>
+      </c>
+      <c r="L2">
+        <v>4798.89666288937</v>
+      </c>
+      <c r="M2">
+        <v>5488.512577349256</v>
+      </c>
+      <c r="N2">
+        <v>5848.981552595884</v>
+      </c>
+      <c r="O2">
+        <v>6258.293856345449</v>
+      </c>
+      <c r="P2">
+        <v>7065.023029080574</v>
+      </c>
+      <c r="Q2">
+        <v>7870.02982245046</v>
+      </c>
+      <c r="R2">
+        <v>8667.108074813063</v>
+      </c>
+      <c r="S2">
+        <v>10652.06257161676</v>
+      </c>
+      <c r="T2">
+        <v>12653.53682348958</v>
+      </c>
+      <c r="U2">
+        <v>14672.04732031061</v>
+      </c>
+      <c r="V2">
+        <v>16712.24328692913</v>
+      </c>
+      <c r="W2">
+        <v>18775.82909588495</v>
+      </c>
+      <c r="X2">
+        <v>20683.03324594578</v>
+      </c>
+      <c r="Y2">
+        <v>22618.43973150195</v>
+      </c>
+      <c r="Z2">
+        <v>24626.31822675832</v>
+      </c>
+      <c r="AA2">
+        <v>26735.68768722277</v>
+      </c>
+      <c r="AB2">
+        <v>28958.73072860723</v>
+      </c>
+      <c r="AC2">
+        <v>29923.30526248005</v>
+      </c>
+      <c r="AD2">
+        <v>30851.85293485644</v>
+      </c>
+      <c r="AE2">
+        <v>31756.85289062425</v>
+      </c>
+      <c r="AF2">
+        <v>32656.38871098443</v>
+      </c>
+      <c r="AG2">
+        <v>33529.88508262706</v>
+      </c>
+      <c r="AH2">
+        <v>34188.21540401786</v>
+      </c>
+      <c r="AI2">
+        <v>34845.64348880966</v>
+      </c>
+      <c r="AJ2">
+        <v>35629.9850781664</v>
+      </c>
+      <c r="AK2">
+        <v>36615.03917128763</v>
+      </c>
+      <c r="AL2">
+        <v>37818.87358567283</v>
+      </c>
+      <c r="AM2">
+        <v>39364.62368343209</v>
+      </c>
+      <c r="AN2">
+        <v>41295.68781731169</v>
+      </c>
+      <c r="AO2">
+        <v>43378.63535304723</v>
+      </c>
+      <c r="AP2">
+        <v>45482.46886524354</v>
+      </c>
+      <c r="AQ2">
+        <v>47587.48953410478</v>
+      </c>
+      <c r="AR2">
+        <v>49670.46016376989</v>
+      </c>
+      <c r="AS2">
+        <v>51727.96935149097</v>
+      </c>
+      <c r="AT2">
+        <v>53796.65635674992</v>
+      </c>
+      <c r="AU2">
+        <v>55867.16297889272</v>
+      </c>
+      <c r="AV2">
+        <v>57840.18704169828</v>
+      </c>
+      <c r="AW2">
+        <v>59506.13316800375</v>
+      </c>
+      <c r="AX2">
+        <v>60990.14304342504</v>
+      </c>
+      <c r="AY2">
+        <v>62303.83191881158</v>
+      </c>
+      <c r="AZ2">
+        <v>63577.05278097554</v>
+      </c>
+      <c r="BA2">
+        <v>64805.27832051954</v>
+      </c>
+      <c r="BB2">
+        <v>65946.06125737072</v>
+      </c>
+      <c r="BC2">
+        <v>67050.63430073774</v>
+      </c>
+      <c r="BD2">
+        <v>68217.64851854868</v>
+      </c>
+      <c r="BE2">
+        <v>69544.6313782481</v>
+      </c>
+      <c r="BF2">
+        <v>71094.4066126331</v>
+      </c>
+      <c r="BG2">
+        <v>72883.89451381334</v>
+      </c>
+      <c r="BH2">
+        <v>74952.83462046097</v>
+      </c>
+      <c r="BI2">
+        <v>77239.89688761707</v>
+      </c>
+      <c r="BJ2">
+        <v>79630.19871982643</v>
+      </c>
+      <c r="BK2">
+        <v>82043.89708067519</v>
+      </c>
+      <c r="BL2">
+        <v>84432.55514486975</v>
+      </c>
+      <c r="BM2">
+        <v>86807.02743316071</v>
+      </c>
+      <c r="BN2">
+        <v>89163.99825407533</v>
+      </c>
+      <c r="BO2">
+        <v>91487.25303520552</v>
+      </c>
+      <c r="BP2">
+        <v>93723.53686465599</v>
+      </c>
+      <c r="BQ2">
+        <v>95784.32824827534</v>
+      </c>
+      <c r="BR2">
+        <v>97650.02504836995</v>
+      </c>
+      <c r="BS2">
+        <v>99361.14518974304</v>
+      </c>
+      <c r="BT2">
+        <v>100973.3351930515</v>
+      </c>
+      <c r="BU2">
+        <v>102529.5405944232</v>
+      </c>
+      <c r="BV2">
+        <v>104033.4159728906</v>
+      </c>
+      <c r="BW2">
+        <v>105520.8876232606</v>
+      </c>
+      <c r="BX2">
+        <v>107051.1562950656</v>
+      </c>
+      <c r="BY2">
+        <v>108702.0496636097</v>
+      </c>
+      <c r="BZ2">
+        <v>110539.2238912257</v>
+      </c>
+      <c r="CA2">
+        <v>112586.3125219109</v>
+      </c>
+      <c r="CB2">
+        <v>114864.5072731075</v>
+      </c>
+      <c r="CC2">
+        <v>117347.3305905226</v>
+      </c>
+      <c r="CD2">
+        <v>119969.7503508615</v>
+      </c>
+      <c r="CE2">
+        <v>122655.5938680245</v>
+      </c>
+      <c r="CF2">
+        <v>125335.3200854418</v>
+      </c>
+      <c r="CG2">
+        <v>127999.0956964051</v>
+      </c>
+      <c r="CH2">
+        <v>130636.0034826171</v>
+      </c>
+      <c r="CI2">
+        <v>133227.961624697</v>
+      </c>
+      <c r="CJ2">
+        <v>135740.2119760527</v>
+      </c>
+      <c r="CK2">
+        <v>138106.4377877292</v>
+      </c>
+      <c r="CL2">
+        <v>140317.2516548705</v>
+      </c>
+      <c r="CM2">
+        <v>142378.8193085601</v>
+      </c>
+      <c r="CN2">
+        <v>144326.6194887051</v>
+      </c>
+      <c r="CO2">
+        <v>146201.4304926206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>16.49093896605874</v>
+      </c>
+      <c r="E3">
+        <v>35.65073761100844</v>
+      </c>
+      <c r="F3">
+        <v>67.96464116507053</v>
+      </c>
+      <c r="G3">
+        <v>91.57425867157829</v>
+      </c>
+      <c r="H3">
+        <v>154.1310111324799</v>
+      </c>
+      <c r="I3">
+        <v>189.5642424267885</v>
+      </c>
+      <c r="J3">
+        <v>229.1399658843546</v>
+      </c>
+      <c r="K3">
+        <v>274.730578063702</v>
+      </c>
+      <c r="L3">
+        <v>310.9032414839083</v>
+      </c>
+      <c r="M3">
+        <v>355.7328940778896</v>
+      </c>
+      <c r="N3">
+        <v>378.3113355558298</v>
+      </c>
+      <c r="O3">
+        <v>404.3196783494578</v>
+      </c>
+      <c r="P3">
+        <v>456.9402903143043</v>
+      </c>
+      <c r="Q3">
+        <v>509.4048799407121</v>
+      </c>
+      <c r="R3">
+        <v>561.2930347975195</v>
+      </c>
+      <c r="S3">
+        <v>692.8924413936343</v>
+      </c>
+      <c r="T3">
+        <v>825.5614391710877</v>
+      </c>
+      <c r="U3">
+        <v>959.3350072802513</v>
+      </c>
+      <c r="V3">
+        <v>1094.527981502291</v>
+      </c>
+      <c r="W3">
+        <v>1231.255760061585</v>
+      </c>
+      <c r="X3">
+        <v>1357.44445880941</v>
+      </c>
+      <c r="Y3">
+        <v>1485.49568106208</v>
+      </c>
+      <c r="Z3">
+        <v>1618.407500612608</v>
+      </c>
+      <c r="AA3">
+        <v>1758.145132523455</v>
+      </c>
+      <c r="AB3">
+        <v>1905.533441080176</v>
+      </c>
+      <c r="AC3">
+        <v>1968.42840725253</v>
+      </c>
+      <c r="AD3">
+        <v>2028.834049146375</v>
+      </c>
+      <c r="AE3">
+        <v>2087.595137065759</v>
+      </c>
+      <c r="AF3">
+        <v>2145.935795303307</v>
+      </c>
+      <c r="AG3">
+        <v>2202.461752662508</v>
+      </c>
+      <c r="AH3">
+        <v>2244.472070675977</v>
+      </c>
+      <c r="AI3">
+        <v>2286.366605456808</v>
+      </c>
+      <c r="AJ3">
+        <v>2336.800577696943</v>
+      </c>
+      <c r="AK3">
+        <v>2400.771259654161</v>
+      </c>
+      <c r="AL3">
+        <v>2479.501714728735</v>
+      </c>
+      <c r="AM3">
+        <v>2581.329611695887</v>
+      </c>
+      <c r="AN3">
+        <v>2709.193884774474</v>
+      </c>
+      <c r="AO3">
+        <v>2847.2878831931</v>
+      </c>
+      <c r="AP3">
+        <v>2986.741654530181</v>
+      </c>
+      <c r="AQ3">
+        <v>3126.22226630867</v>
+      </c>
+      <c r="AR3">
+        <v>3264.155612481858</v>
+      </c>
+      <c r="AS3">
+        <v>3400.312098665513</v>
+      </c>
+      <c r="AT3">
+        <v>3537.174305193721</v>
+      </c>
+      <c r="AU3">
+        <v>3674.109949596006</v>
+      </c>
+      <c r="AV3">
+        <v>3804.387353969726</v>
+      </c>
+      <c r="AW3">
+        <v>3913.815333433049</v>
+      </c>
+      <c r="AX3">
+        <v>4010.749880683504</v>
+      </c>
+      <c r="AY3">
+        <v>4096.098069279125</v>
+      </c>
+      <c r="AZ3">
+        <v>4178.652771372945</v>
+      </c>
+      <c r="BA3">
+        <v>4258.106794851949</v>
+      </c>
+      <c r="BB3">
+        <v>4331.595004304373</v>
+      </c>
+      <c r="BC3">
+        <v>4402.570332034067</v>
+      </c>
+      <c r="BD3">
+        <v>4477.712220165711</v>
+      </c>
+      <c r="BE3">
+        <v>4563.624183796594</v>
+      </c>
+      <c r="BF3">
+        <v>4664.559717496002</v>
+      </c>
+      <c r="BG3">
+        <v>4781.674767616531</v>
+      </c>
+      <c r="BH3">
+        <v>4917.644678825108</v>
+      </c>
+      <c r="BI3">
+        <v>5068.316117838524</v>
+      </c>
+      <c r="BJ3">
+        <v>5225.909575870883</v>
+      </c>
+      <c r="BK3">
+        <v>5385.018484793659</v>
+      </c>
+      <c r="BL3">
+        <v>5542.371048526524</v>
+      </c>
+      <c r="BM3">
+        <v>5698.691332540167</v>
+      </c>
+      <c r="BN3">
+        <v>5853.755354078388</v>
+      </c>
+      <c r="BO3">
+        <v>6006.465707652492</v>
+      </c>
+      <c r="BP3">
+        <v>6153.216695610331</v>
+      </c>
+      <c r="BQ3">
+        <v>6288.017007559997</v>
+      </c>
+      <c r="BR3">
+        <v>6409.531541510732</v>
+      </c>
+      <c r="BS3">
+        <v>6520.5041462865</v>
+      </c>
+      <c r="BT3">
+        <v>6624.703079353695</v>
+      </c>
+      <c r="BU3">
+        <v>6725.036500427633</v>
+      </c>
+      <c r="BV3">
+        <v>6821.754981122169</v>
+      </c>
+      <c r="BW3">
+        <v>6917.283478497053</v>
+      </c>
+      <c r="BX3">
+        <v>7015.630777595332</v>
+      </c>
+      <c r="BY3">
+        <v>7122.067030327439</v>
+      </c>
+      <c r="BZ3">
+        <v>7241.038129199842</v>
+      </c>
+      <c r="CA3">
+        <v>7374.147561050875</v>
+      </c>
+      <c r="CB3">
+        <v>7522.821916278612</v>
+      </c>
+      <c r="CC3">
+        <v>7685.267936389605</v>
+      </c>
+      <c r="CD3">
+        <v>7857.081639425345</v>
+      </c>
+      <c r="CE3">
+        <v>8033.104721539543</v>
+      </c>
+      <c r="CF3">
+        <v>8208.631764127938</v>
+      </c>
+      <c r="CG3">
+        <v>8382.987736193503</v>
+      </c>
+      <c r="CH3">
+        <v>8555.433482315155</v>
+      </c>
+      <c r="CI3">
+        <v>8724.74474561042</v>
+      </c>
+      <c r="CJ3">
+        <v>8888.568017850292</v>
+      </c>
+      <c r="CK3">
+        <v>9042.420160786638</v>
+      </c>
+      <c r="CL3">
+        <v>9185.653022592018</v>
+      </c>
+      <c r="CM3">
+        <v>9318.684150957188</v>
+      </c>
+      <c r="CN3">
+        <v>9443.916047226707</v>
+      </c>
+      <c r="CO3">
+        <v>9564.110089894464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>26474515.04430017</v>
+      </c>
+      <c r="E4">
+        <v>53251966.67688502</v>
+      </c>
+      <c r="F4">
+        <v>82628593.05405125</v>
+      </c>
+      <c r="G4">
+        <v>112096976.7990364</v>
+      </c>
+      <c r="H4">
+        <v>138930792.24448</v>
+      </c>
+      <c r="I4">
+        <v>165252026.6779144</v>
+      </c>
+      <c r="J4">
+        <v>194282974.0315489</v>
+      </c>
+      <c r="K4">
+        <v>227137318.959349</v>
+      </c>
+      <c r="L4">
+        <v>259774624.7768627</v>
+      </c>
+      <c r="M4">
+        <v>294505311.4612381</v>
+      </c>
+      <c r="N4">
+        <v>332114103.3617692</v>
+      </c>
+      <c r="O4">
+        <v>367024691.7841939</v>
+      </c>
+      <c r="P4">
+        <v>405790358.1092624</v>
+      </c>
+      <c r="Q4">
+        <v>445865294.4713629</v>
+      </c>
+      <c r="R4">
+        <v>487255065.7490171</v>
+      </c>
+      <c r="S4">
+        <v>534538605.9540122</v>
+      </c>
+      <c r="T4">
+        <v>583277594.9442675</v>
+      </c>
+      <c r="U4">
+        <v>633471456.3088712</v>
+      </c>
+      <c r="V4">
+        <v>685122199.266665</v>
+      </c>
+      <c r="W4">
+        <v>738231664.9337127</v>
+      </c>
+      <c r="X4">
+        <v>792313271.4319987</v>
+      </c>
+      <c r="Y4">
+        <v>847753683.5420233</v>
+      </c>
+      <c r="Z4">
+        <v>904559071.7243426</v>
+      </c>
+      <c r="AA4">
+        <v>962734029.9506437</v>
+      </c>
+      <c r="AB4">
+        <v>1022288165.631458</v>
+      </c>
+      <c r="AC4">
+        <v>1078075612.581717</v>
+      </c>
+      <c r="AD4">
+        <v>1135249971.959142</v>
+      </c>
+      <c r="AE4">
+        <v>1193824250.017319</v>
+      </c>
+      <c r="AF4">
+        <v>1253822602.010746</v>
+      </c>
+      <c r="AG4">
+        <v>1315280328.172835</v>
+      </c>
+      <c r="AH4">
+        <v>1377351979.727508</v>
+      </c>
+      <c r="AI4">
+        <v>1441000595.852519</v>
+      </c>
+      <c r="AJ4">
+        <v>1506285746.142722</v>
+      </c>
+      <c r="AK4">
+        <v>1573245331.798497</v>
+      </c>
+      <c r="AL4">
+        <v>1641907741.83218</v>
+      </c>
+      <c r="AM4">
+        <v>1712330029.561531</v>
+      </c>
+      <c r="AN4">
+        <v>1784532338.269327</v>
+      </c>
+      <c r="AO4">
+        <v>1858352988.713411</v>
+      </c>
+      <c r="AP4">
+        <v>1933683848.655052</v>
+      </c>
+      <c r="AQ4">
+        <v>2010475751.858145</v>
+      </c>
+      <c r="AR4">
+        <v>2088653678.33604</v>
+      </c>
+      <c r="AS4">
+        <v>2168161312.328654</v>
+      </c>
+      <c r="AT4">
+        <v>2248961964.098054</v>
+      </c>
+      <c r="AU4">
+        <v>2330992998.441217</v>
+      </c>
+      <c r="AV4">
+        <v>2414646630.77073</v>
+      </c>
+      <c r="AW4">
+        <v>2499507776.09951</v>
+      </c>
+      <c r="AX4">
+        <v>2585592825.751369</v>
+      </c>
+      <c r="AY4">
+        <v>2672850009.654541</v>
+      </c>
+      <c r="AZ4">
+        <v>2761374558.344427</v>
+      </c>
+      <c r="BA4">
+        <v>2851189728.720356</v>
+      </c>
+      <c r="BB4">
+        <v>2942316370.299457</v>
+      </c>
+      <c r="BC4">
+        <v>3034905544.069366</v>
+      </c>
+      <c r="BD4">
+        <v>3129044627.72435</v>
+      </c>
+      <c r="BE4">
+        <v>3224809868.422501</v>
+      </c>
+      <c r="BF4">
+        <v>3322259695.199318</v>
+      </c>
+      <c r="BG4">
+        <v>3421424756.525399</v>
+      </c>
+      <c r="BH4">
+        <v>3522427970.477372</v>
+      </c>
+      <c r="BI4">
+        <v>3625240651.800966</v>
+      </c>
+      <c r="BJ4">
+        <v>3729793028.845268</v>
+      </c>
+      <c r="BK4">
+        <v>3836030184.768111</v>
+      </c>
+      <c r="BL4">
+        <v>3943900442.229911</v>
+      </c>
+      <c r="BM4">
+        <v>4053452095.070057</v>
+      </c>
+      <c r="BN4">
+        <v>4164659882.885102</v>
+      </c>
+      <c r="BO4">
+        <v>4277489082.392784</v>
+      </c>
+      <c r="BP4">
+        <v>4391885989.371776</v>
+      </c>
+      <c r="BQ4">
+        <v>4507850648.496149</v>
+      </c>
+      <c r="BR4">
+        <v>4625410498.464729</v>
+      </c>
+      <c r="BS4">
+        <v>4744594141.280353</v>
+      </c>
+      <c r="BT4">
+        <v>4865439963.568808</v>
+      </c>
+      <c r="BU4">
+        <v>4987977558.47326</v>
+      </c>
+      <c r="BV4">
+        <v>5112251115.82892</v>
+      </c>
+      <c r="BW4">
+        <v>5238328604.340627</v>
+      </c>
+      <c r="BX4">
+        <v>5366247914.692958</v>
+      </c>
+      <c r="BY4">
+        <v>5496054461.627233</v>
+      </c>
+      <c r="BZ4">
+        <v>5627787232.520452</v>
+      </c>
+      <c r="CA4">
+        <v>5761507183.519763</v>
+      </c>
+      <c r="CB4">
+        <v>5897279512.339746</v>
+      </c>
+      <c r="CC4">
+        <v>6035097672.208645</v>
+      </c>
+      <c r="CD4">
+        <v>6174928987.74488</v>
+      </c>
+      <c r="CE4">
+        <v>6316730742.312407</v>
+      </c>
+      <c r="CF4">
+        <v>6460501918.360004</v>
+      </c>
+      <c r="CG4">
+        <v>6606281352.050657</v>
+      </c>
+      <c r="CH4">
+        <v>6754055280.719604</v>
+      </c>
+      <c r="CI4">
+        <v>6903803590.447803</v>
+      </c>
+      <c r="CJ4">
+        <v>7055496851.5392</v>
+      </c>
+      <c r="CK4">
+        <v>7209107969.739797</v>
+      </c>
+      <c r="CL4">
+        <v>7364698349.980463</v>
+      </c>
+      <c r="CM4">
+        <v>7522276922.920872</v>
+      </c>
+      <c r="CN4">
+        <v>7681871635.356473</v>
+      </c>
+      <c r="CO4">
+        <v>7843512170.919233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1695270.008317868</v>
+      </c>
+      <c r="E5">
+        <v>2692058.400363186</v>
+      </c>
+      <c r="F5">
+        <v>3192757.878724928</v>
+      </c>
+      <c r="G5">
+        <v>3502192.517782744</v>
+      </c>
+      <c r="H5">
+        <v>3793543.419826355</v>
+      </c>
+      <c r="I5">
+        <v>4003803.467169333</v>
+      </c>
+      <c r="J5">
+        <v>4180949.298098055</v>
+      </c>
+      <c r="K5">
+        <v>4412994.937021624</v>
+      </c>
+      <c r="L5">
+        <v>4827544.31949858</v>
+      </c>
+      <c r="M5">
+        <v>5204001.464034162</v>
+      </c>
+      <c r="N5">
+        <v>5684320.465330939</v>
+      </c>
+      <c r="O5">
+        <v>6284232.749130246</v>
+      </c>
+      <c r="P5">
+        <v>9904719.784117164</v>
+      </c>
+      <c r="Q5">
+        <v>13553859.8137522</v>
+      </c>
+      <c r="R5">
+        <v>17236130.44728909</v>
+      </c>
+      <c r="S5">
+        <v>28669790.34987761</v>
+      </c>
+      <c r="T5">
+        <v>40144104.27619005</v>
+      </c>
+      <c r="U5">
+        <v>51661621.05407507</v>
+      </c>
+      <c r="V5">
+        <v>63224057.08373553</v>
+      </c>
+      <c r="W5">
+        <v>74832662.99921158</v>
+      </c>
+      <c r="X5">
+        <v>85981098.93532553</v>
+      </c>
+      <c r="Y5">
+        <v>97180381.12940769</v>
+      </c>
+      <c r="Z5">
+        <v>108436932.3546853</v>
+      </c>
+      <c r="AA5">
+        <v>119762682.3656053</v>
+      </c>
+      <c r="AB5">
+        <v>131177549.2463656</v>
+      </c>
+      <c r="AC5">
+        <v>133700974.5840271</v>
+      </c>
+      <c r="AD5">
+        <v>136386788.3344752</v>
+      </c>
+      <c r="AE5">
+        <v>139291527.3959019</v>
+      </c>
+      <c r="AF5">
+        <v>142485053.8941202</v>
+      </c>
+      <c r="AG5">
+        <v>146048474.9541995</v>
+      </c>
+      <c r="AH5">
+        <v>148365735.6060855</v>
+      </c>
+      <c r="AI5">
+        <v>151231495.1514673</v>
+      </c>
+      <c r="AJ5">
+        <v>154730624.1704558</v>
+      </c>
+      <c r="AK5">
+        <v>158934732.8080382</v>
+      </c>
+      <c r="AL5">
+        <v>163893853.324226</v>
+      </c>
+      <c r="AM5">
+        <v>169628556.7324247</v>
+      </c>
+      <c r="AN5">
+        <v>176123429.6476856</v>
+      </c>
+      <c r="AO5">
+        <v>183323016.1148472</v>
+      </c>
+      <c r="AP5">
+        <v>191131274.6249261</v>
+      </c>
+      <c r="AQ5">
+        <v>199415223.0359111</v>
+      </c>
+      <c r="AR5">
+        <v>208012938.8528917</v>
+      </c>
+      <c r="AS5">
+        <v>216745302.4104952</v>
+      </c>
+      <c r="AT5">
+        <v>225430201.1706707</v>
+      </c>
+      <c r="AU5">
+        <v>233897364.1182212</v>
+      </c>
+      <c r="AV5">
+        <v>243151539.3388096</v>
+      </c>
+      <c r="AW5">
+        <v>252259880.6105684</v>
+      </c>
+      <c r="AX5">
+        <v>260831995.4768955</v>
+      </c>
+      <c r="AY5">
+        <v>268849271.8510633</v>
+      </c>
+      <c r="AZ5">
+        <v>276338862.8056471</v>
+      </c>
+      <c r="BA5">
+        <v>283369305.8914266</v>
+      </c>
+      <c r="BB5">
+        <v>289875866.9432653</v>
+      </c>
+      <c r="BC5">
+        <v>296151190.8924221</v>
+      </c>
+      <c r="BD5">
+        <v>302331870.7054542</v>
+      </c>
+      <c r="BE5">
+        <v>308552627.94584</v>
+      </c>
+      <c r="BF5">
+        <v>314934648.9905807</v>
+      </c>
+      <c r="BG5">
+        <v>321411910.7857504</v>
+      </c>
+      <c r="BH5">
+        <v>328220214.4751627</v>
+      </c>
+      <c r="BI5">
+        <v>335401263.0185188</v>
+      </c>
+      <c r="BJ5">
+        <v>342968738.8272822</v>
+      </c>
+      <c r="BK5">
+        <v>350911492.9459249</v>
+      </c>
+      <c r="BL5">
+        <v>359073820.9181018</v>
+      </c>
+      <c r="BM5">
+        <v>367531813.4743761</v>
+      </c>
+      <c r="BN5">
+        <v>376226445.0343797</v>
+      </c>
+      <c r="BO5">
+        <v>385092314.2983446</v>
+      </c>
+      <c r="BP5">
+        <v>394062292.7482952</v>
+      </c>
+      <c r="BQ5">
+        <v>402985370.0630699</v>
+      </c>
+      <c r="BR5">
+        <v>411889576.5309514</v>
+      </c>
+      <c r="BS5">
+        <v>420725755.5714151</v>
+      </c>
+      <c r="BT5">
+        <v>429456313.5179808</v>
+      </c>
+      <c r="BU5">
+        <v>438056873.4786294</v>
+      </c>
+      <c r="BV5">
+        <v>446432906.5287081</v>
+      </c>
+      <c r="BW5">
+        <v>454672877.2403947</v>
+      </c>
+      <c r="BX5">
+        <v>462794528.4619945</v>
+      </c>
+      <c r="BY5">
+        <v>470827467.9493674</v>
+      </c>
+      <c r="BZ5">
+        <v>478810406.9718523</v>
+      </c>
+      <c r="CA5">
+        <v>486699026.0694172</v>
+      </c>
+      <c r="CB5">
+        <v>494627443.4594657</v>
+      </c>
+      <c r="CC5">
+        <v>502638505.3895</v>
+      </c>
+      <c r="CD5">
+        <v>510768695.9932156</v>
+      </c>
+      <c r="CE5">
+        <v>519045414.2364442</v>
+      </c>
+      <c r="CF5">
+        <v>527385544.5236456</v>
+      </c>
+      <c r="CG5">
+        <v>535894497.6153712</v>
+      </c>
+      <c r="CH5">
+        <v>544567265.8103569</v>
+      </c>
+      <c r="CI5">
+        <v>553389643.3467022</v>
+      </c>
+      <c r="CJ5">
+        <v>562340176.2113463</v>
+      </c>
+      <c r="CK5">
+        <v>571256004.9523993</v>
+      </c>
+      <c r="CL5">
+        <v>580244614.1679671</v>
+      </c>
+      <c r="CM5">
+        <v>589276810.6182642</v>
+      </c>
+      <c r="CN5">
+        <v>598325292.6275817</v>
+      </c>
+      <c r="CO5">
+        <v>607366416.3642324</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/Lifetime/Results_world_base_life_Min.xlsx
+++ b/Results/Baseline/Lifetime/Results_world_base_life_Min.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0317682853503</v>
+        <v>1072.373874491149</v>
       </c>
       <c r="E2">
-        <v>302.6233642242591</v>
+        <v>1397.73011970385</v>
       </c>
       <c r="F2">
-        <v>500.2462576362724</v>
+        <v>1397.031627798344</v>
       </c>
       <c r="G2">
-        <v>370.6346607353748</v>
+        <v>1327.590969412265</v>
       </c>
       <c r="H2">
-        <v>949.0428764698527</v>
+        <v>1780.597773721523</v>
       </c>
       <c r="I2">
-        <v>545.3738810290037</v>
+        <v>1284.725912258199</v>
       </c>
       <c r="J2">
-        <v>608.7258221466811</v>
+        <v>2324.625080083905</v>
       </c>
       <c r="K2">
-        <v>700.5594861532037</v>
+        <v>2311.609606929499</v>
       </c>
       <c r="L2">
-        <v>559.6585462093728</v>
+        <v>2058.411181797298</v>
       </c>
       <c r="M2">
-        <v>689.6159144598863</v>
+        <v>1901.455711851288</v>
       </c>
       <c r="N2">
-        <v>360.4689752466271</v>
+        <v>4070.010987434653</v>
       </c>
       <c r="O2">
-        <v>409.3123037495649</v>
+        <v>2490.436145986909</v>
       </c>
       <c r="P2">
-        <v>806.7291727351248</v>
+        <v>4975.54675684899</v>
       </c>
       <c r="Q2">
-        <v>805.0067933698866</v>
+        <v>5356.238079114935</v>
       </c>
       <c r="R2">
-        <v>797.0782523626012</v>
+        <v>5726.937853245291</v>
       </c>
       <c r="S2">
-        <v>1984.954496803699</v>
+        <v>12512.08236678371</v>
       </c>
       <c r="T2">
-        <v>2001.474251872817</v>
+        <v>13425.38294233107</v>
       </c>
       <c r="U2">
-        <v>2018.510496821031</v>
+        <v>14354.25906959043</v>
       </c>
       <c r="V2">
-        <v>2040.195966618516</v>
+        <v>15310.38161680337</v>
       </c>
       <c r="W2">
-        <v>2063.585808955826</v>
+        <v>16285.53220692</v>
       </c>
       <c r="X2">
-        <v>1907.204150060828</v>
+        <v>16397.08394224583</v>
       </c>
       <c r="Y2">
-        <v>1935.406485556173</v>
+        <v>17320.12292895656</v>
       </c>
       <c r="Z2">
-        <v>2007.878495256367</v>
+        <v>18258.56367421243</v>
       </c>
       <c r="AA2">
-        <v>2109.369460464448</v>
+        <v>19166.01462993056</v>
       </c>
       <c r="AB2">
-        <v>2223.043041384461</v>
+        <v>20123.35243165829</v>
       </c>
       <c r="AC2">
-        <v>964.5745338728216</v>
+        <v>9663.057042433004</v>
       </c>
       <c r="AD2">
-        <v>928.5476723763883</v>
+        <v>9991.49481271195</v>
       </c>
       <c r="AE2">
-        <v>904.9999557678137</v>
+        <v>10374.09756956074</v>
       </c>
       <c r="AF2">
-        <v>899.5358203601705</v>
+        <v>10639.67017657794</v>
       </c>
       <c r="AG2">
-        <v>873.4963716426372</v>
+        <v>10975.96016470608</v>
       </c>
       <c r="AH2">
-        <v>658.3303213907947</v>
+        <v>7514.689765459631</v>
       </c>
       <c r="AI2">
-        <v>657.4280847917979</v>
+        <v>8133.71366963574</v>
       </c>
       <c r="AJ2">
-        <v>784.3415893567416</v>
+        <v>8748.139778199013</v>
       </c>
       <c r="AK2">
-        <v>985.0540931212321</v>
+        <v>9800.763977031189</v>
       </c>
       <c r="AL2">
-        <v>1203.834414385198</v>
+        <v>11204.74498363686</v>
       </c>
       <c r="AM2">
-        <v>1545.75009775926</v>
+        <v>15053.15457487533</v>
       </c>
       <c r="AN2">
-        <v>1931.064133879606</v>
+        <v>17518.08986132502</v>
       </c>
       <c r="AO2">
-        <v>2082.947535735543</v>
+        <v>19060.05398536073</v>
       </c>
       <c r="AP2">
-        <v>2103.833512196304</v>
+        <v>20045.17974835873</v>
       </c>
       <c r="AQ2">
-        <v>2105.020668861249</v>
+        <v>20909.08286616235</v>
       </c>
       <c r="AR2">
-        <v>2082.970629665102</v>
+        <v>24903.16018992295</v>
       </c>
       <c r="AS2">
-        <v>2057.509187721081</v>
+        <v>25600.25593945458</v>
       </c>
       <c r="AT2">
-        <v>2068.68700525895</v>
+        <v>26300.82205184953</v>
       </c>
       <c r="AU2">
-        <v>2070.506622142806</v>
+        <v>26660.6553759644</v>
       </c>
       <c r="AV2">
-        <v>1973.024062805558</v>
+        <v>26076.6911099267</v>
       </c>
       <c r="AW2">
-        <v>1665.946126305473</v>
+        <v>24686.74149987378</v>
       </c>
       <c r="AX2">
-        <v>1484.009875421282</v>
+        <v>22017.97669553811</v>
       </c>
       <c r="AY2">
-        <v>1313.688875386545</v>
+        <v>21200.67582481223</v>
       </c>
       <c r="AZ2">
-        <v>1273.220862163966</v>
+        <v>21307.18519446514</v>
       </c>
       <c r="BA2">
-        <v>1228.225539543991</v>
+        <v>21160.76913727244</v>
       </c>
       <c r="BB2">
-        <v>1140.782936851175</v>
+        <v>19693.38985203286</v>
       </c>
       <c r="BC2">
-        <v>1104.573043367027</v>
+        <v>19132.43988275844</v>
       </c>
       <c r="BD2">
-        <v>1167.014217810942</v>
+        <v>19503.40766641527</v>
       </c>
       <c r="BE2">
-        <v>1326.982859699422</v>
+        <v>20583.45892257623</v>
       </c>
       <c r="BF2">
-        <v>1549.775234384999</v>
+        <v>22194.66141449579</v>
       </c>
       <c r="BG2">
-        <v>1789.487901180234</v>
+        <v>23758.39924256544</v>
       </c>
       <c r="BH2">
-        <v>2068.940106647634</v>
+        <v>26250.97185823477</v>
       </c>
       <c r="BI2">
-        <v>2287.062267156094</v>
+        <v>28308.65310447558</v>
       </c>
       <c r="BJ2">
-        <v>2390.301832209359</v>
+        <v>29867.67819708808</v>
       </c>
       <c r="BK2">
-        <v>2413.698360848766</v>
+        <v>31348.07298804109</v>
       </c>
       <c r="BL2">
-        <v>2388.658064194568</v>
+        <v>32733.55852676531</v>
       </c>
       <c r="BM2">
-        <v>2374.472288290952</v>
+        <v>34493.91599636365</v>
       </c>
       <c r="BN2">
-        <v>2356.970820914613</v>
+        <v>35505.535283206</v>
       </c>
       <c r="BO2">
-        <v>2323.254781130193</v>
+        <v>35883.81691142748</v>
       </c>
       <c r="BP2">
-        <v>2236.283829450473</v>
+        <v>35691.72625755112</v>
       </c>
       <c r="BQ2">
-        <v>2060.791383619346</v>
+        <v>34627.67682837267</v>
       </c>
       <c r="BR2">
-        <v>1865.696800094611</v>
+        <v>33297.54749183558</v>
       </c>
       <c r="BS2">
-        <v>1711.120141373088</v>
+        <v>32107.32794683842</v>
       </c>
       <c r="BT2">
-        <v>1612.190003308476</v>
+        <v>31561.6070794988</v>
       </c>
       <c r="BU2">
-        <v>1556.205401371724</v>
+        <v>31331.25254896398</v>
       </c>
       <c r="BV2">
-        <v>1503.875378467395</v>
+        <v>30717.26757958199</v>
       </c>
       <c r="BW2">
-        <v>1487.471650369939</v>
+        <v>30311.16249037089</v>
       </c>
       <c r="BX2">
-        <v>1530.26867180506</v>
+        <v>30442.19335836857</v>
       </c>
       <c r="BY2">
-        <v>1650.893368544089</v>
+        <v>31269.30307931092</v>
       </c>
       <c r="BZ2">
-        <v>1837.174227615971</v>
+        <v>32630.56462613314</v>
       </c>
       <c r="CA2">
-        <v>2047.088630685206</v>
+        <v>34132.00870267345</v>
       </c>
       <c r="CB2">
-        <v>2278.194751196612</v>
+        <v>36053.97470648385</v>
       </c>
       <c r="CC2">
-        <v>2482.823317415127</v>
+        <v>38054.55202523863</v>
       </c>
       <c r="CD2">
-        <v>2622.419760338889</v>
+        <v>39861.01736833101</v>
       </c>
       <c r="CE2">
-        <v>2685.843517162927</v>
+        <v>41446.69170639732</v>
       </c>
       <c r="CF2">
-        <v>2679.72621741736</v>
+        <v>42675.74019383219</v>
       </c>
       <c r="CG2">
-        <v>2663.775610963279</v>
+        <v>44070.13912861065</v>
       </c>
       <c r="CH2">
-        <v>2636.907786211984</v>
+        <v>45206.06613414158</v>
       </c>
       <c r="CI2">
-        <v>2591.958142079869</v>
+        <v>45805.24189583262</v>
       </c>
       <c r="CJ2">
-        <v>2512.250351355735</v>
+        <v>45794.70966571696</v>
       </c>
       <c r="CK2">
-        <v>2366.2258116765</v>
+        <v>44834.91029193866</v>
       </c>
       <c r="CL2">
-        <v>2210.813867141298</v>
+        <v>43895.15184659533</v>
       </c>
       <c r="CM2">
-        <v>2061.56765368963</v>
+        <v>42917.90311027105</v>
       </c>
       <c r="CN2">
-        <v>1947.800180144947</v>
+        <v>42184.0380882688</v>
       </c>
       <c r="CO2">
-        <v>1874.811003915537</v>
+        <v>41748.54603022619</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49093896605874</v>
+        <v>70.91124739014649</v>
       </c>
       <c r="E3">
-        <v>19.1597986449497</v>
+        <v>92.70500158204401</v>
       </c>
       <c r="F3">
-        <v>32.31390355406209</v>
+        <v>92.53982554733052</v>
       </c>
       <c r="G3">
-        <v>23.60961750650776</v>
+        <v>87.87484380016343</v>
       </c>
       <c r="H3">
-        <v>62.55675246090161</v>
+        <v>118.398417739643</v>
       </c>
       <c r="I3">
-        <v>35.43323129430858</v>
+        <v>85.08204867090255</v>
       </c>
       <c r="J3">
-        <v>39.57572345756608</v>
+        <v>154.8130776054375</v>
       </c>
       <c r="K3">
-        <v>45.59061217934736</v>
+        <v>153.7869514538161</v>
       </c>
       <c r="L3">
-        <v>36.17266342020631</v>
+        <v>136.8280362575191</v>
       </c>
       <c r="M3">
-        <v>44.82965259398136</v>
+        <v>126.2151906065665</v>
       </c>
       <c r="N3">
-        <v>22.57844147794022</v>
+        <v>271.7826109078967</v>
       </c>
       <c r="O3">
-        <v>26.00834279362792</v>
+        <v>165.8299747707763</v>
       </c>
       <c r="P3">
-        <v>52.62061196484657</v>
+        <v>332.6222416492287</v>
       </c>
       <c r="Q3">
-        <v>52.46458962640783</v>
+        <v>358.1634799391416</v>
       </c>
       <c r="R3">
-        <v>51.8881548568073</v>
+        <v>383.0428350747089</v>
       </c>
       <c r="S3">
-        <v>131.5994065961148</v>
+        <v>838.6005569577648</v>
       </c>
       <c r="T3">
-        <v>132.6689977774535</v>
+        <v>899.9248120558132</v>
       </c>
       <c r="U3">
-        <v>133.7735681091635</v>
+        <v>962.2987289860444</v>
       </c>
       <c r="V3">
-        <v>135.1929742220397</v>
+        <v>1026.522512639116</v>
       </c>
       <c r="W3">
-        <v>136.7277785592944</v>
+        <v>1092.027396853858</v>
       </c>
       <c r="X3">
-        <v>126.1886987478243</v>
+        <v>1099.49883781615</v>
       </c>
       <c r="Y3">
-        <v>128.0512222526706</v>
+        <v>1161.51144535633</v>
       </c>
       <c r="Z3">
-        <v>132.9118195505274</v>
+        <v>1224.579344083275</v>
       </c>
       <c r="AA3">
-        <v>139.7376319108468</v>
+        <v>1285.628267841386</v>
       </c>
       <c r="AB3">
-        <v>147.3883085567216</v>
+        <v>1350.037133737828</v>
       </c>
       <c r="AC3">
-        <v>62.89496617235413</v>
+        <v>647.5721933183137</v>
       </c>
       <c r="AD3">
-        <v>60.40564189384453</v>
+        <v>669.526783918712</v>
       </c>
       <c r="AE3">
-        <v>58.7610879193839</v>
+        <v>695.2682577772957</v>
       </c>
       <c r="AF3">
-        <v>58.34065823754817</v>
+        <v>713.210029492169</v>
       </c>
       <c r="AG3">
-        <v>56.52595735920106</v>
+        <v>735.752032137933</v>
       </c>
       <c r="AH3">
-        <v>42.01031801346888</v>
+        <v>503.4660975158289</v>
       </c>
       <c r="AI3">
-        <v>41.89453478083136</v>
+        <v>545.2712455528898</v>
       </c>
       <c r="AJ3">
-        <v>50.43397224013532</v>
+        <v>586.9684537731002</v>
       </c>
       <c r="AK3">
-        <v>63.97068195721782</v>
+        <v>658.3459520437536</v>
       </c>
       <c r="AL3">
-        <v>78.73045507457327</v>
+        <v>753.493389753566</v>
       </c>
       <c r="AM3">
-        <v>101.827896967152</v>
+        <v>1013.277468459089</v>
       </c>
       <c r="AN3">
-        <v>127.8642730785871</v>
+        <v>1180.445852067391</v>
       </c>
       <c r="AO3">
-        <v>138.0939984186267</v>
+        <v>1284.912455596786</v>
       </c>
       <c r="AP3">
-        <v>139.453771337081</v>
+        <v>1351.533341074027</v>
       </c>
       <c r="AQ3">
-        <v>139.4806117784885</v>
+        <v>1409.955409286491</v>
       </c>
       <c r="AR3">
-        <v>137.9333461731885</v>
+        <v>1678.551565381215</v>
       </c>
       <c r="AS3">
-        <v>136.1564861836549</v>
+        <v>1725.817953132386</v>
       </c>
       <c r="AT3">
-        <v>136.8622065282077</v>
+        <v>1774.056384195977</v>
       </c>
       <c r="AU3">
-        <v>136.935644402285</v>
+        <v>1799.949479940971</v>
       </c>
       <c r="AV3">
-        <v>130.2774043737195</v>
+        <v>1759.482530182979</v>
       </c>
       <c r="AW3">
-        <v>109.4279794633233</v>
+        <v>1663.171188687445</v>
       </c>
       <c r="AX3">
-        <v>96.9345472504551</v>
+        <v>1480.552439428979</v>
       </c>
       <c r="AY3">
-        <v>85.34818859562012</v>
+        <v>1424.360174647541</v>
       </c>
       <c r="AZ3">
-        <v>82.55470209382051</v>
+        <v>1431.149893651275</v>
       </c>
       <c r="BA3">
-        <v>79.45402347900495</v>
+        <v>1420.855470174374</v>
       </c>
       <c r="BB3">
-        <v>73.48820945242356</v>
+        <v>1321.813330130237</v>
       </c>
       <c r="BC3">
-        <v>70.9753277296945</v>
+        <v>1283.833046019663</v>
       </c>
       <c r="BD3">
-        <v>75.14188813164378</v>
+        <v>1309.108050681848</v>
       </c>
       <c r="BE3">
-        <v>85.91196363088345</v>
+        <v>1382.590695788589</v>
       </c>
       <c r="BF3">
-        <v>100.9355336994079</v>
+        <v>1492.186565328819</v>
       </c>
       <c r="BG3">
-        <v>117.1150501205287</v>
+        <v>1599.028100735882</v>
       </c>
       <c r="BH3">
-        <v>135.9699112085776</v>
+        <v>1768.475376335078</v>
       </c>
       <c r="BI3">
-        <v>150.6714390134164</v>
+        <v>1908.391340662781</v>
       </c>
       <c r="BJ3">
-        <v>157.593458032358</v>
+        <v>2014.496853834482</v>
       </c>
       <c r="BK3">
-        <v>159.1089089227765</v>
+        <v>2115.725203871159</v>
       </c>
       <c r="BL3">
-        <v>157.3525637328649</v>
+        <v>2211.350799830325</v>
       </c>
       <c r="BM3">
-        <v>156.3202840136433</v>
+        <v>2331.327429565635</v>
       </c>
       <c r="BN3">
-        <v>155.0640215382212</v>
+        <v>2398.85816641544</v>
       </c>
       <c r="BO3">
-        <v>152.7103535741037</v>
+        <v>2422.95938669616</v>
       </c>
       <c r="BP3">
-        <v>146.7509879578394</v>
+        <v>2408.154928489769</v>
       </c>
       <c r="BQ3">
-        <v>134.8003119496664</v>
+        <v>2334.07409814318</v>
       </c>
       <c r="BR3">
-        <v>121.5145339507357</v>
+        <v>2241.885882562733</v>
       </c>
       <c r="BS3">
-        <v>110.9726047757674</v>
+        <v>2159.808659714262</v>
       </c>
       <c r="BT3">
-        <v>104.1989330671954</v>
+        <v>2122.156109580928</v>
       </c>
       <c r="BU3">
-        <v>100.3334210739373</v>
+        <v>2106.339754630997</v>
       </c>
       <c r="BV3">
-        <v>96.71848069453604</v>
+        <v>2064.862044798705</v>
       </c>
       <c r="BW3">
-        <v>95.52849737488374</v>
+        <v>2037.452030461959</v>
       </c>
       <c r="BX3">
-        <v>98.34729909827904</v>
+        <v>2046.60669034907</v>
       </c>
       <c r="BY3">
-        <v>106.4362527321076</v>
+        <v>2103.187279821532</v>
       </c>
       <c r="BZ3">
-        <v>118.9710988724026</v>
+        <v>2196.281895947504</v>
       </c>
       <c r="CA3">
-        <v>133.1094318510327</v>
+        <v>2299.396487131841</v>
       </c>
       <c r="CB3">
-        <v>148.6743552277369</v>
+        <v>2431.448595860956</v>
       </c>
       <c r="CC3">
-        <v>162.4460201109929</v>
+        <v>2569.326249763149</v>
       </c>
       <c r="CD3">
-        <v>171.8137030357403</v>
+        <v>2693.54604194142</v>
       </c>
       <c r="CE3">
-        <v>176.0230821141975</v>
+        <v>2801.21414216088</v>
       </c>
       <c r="CF3">
-        <v>175.5270425883962</v>
+        <v>2883.753401727607</v>
       </c>
       <c r="CG3">
-        <v>174.3559720655656</v>
+        <v>2976.900893939906</v>
       </c>
       <c r="CH3">
-        <v>172.4457461216514</v>
+        <v>3052.161771546927</v>
       </c>
       <c r="CI3">
-        <v>169.3112632952646</v>
+        <v>3090.72540504576</v>
       </c>
       <c r="CJ3">
-        <v>163.8232722398723</v>
+        <v>3087.985073013786</v>
       </c>
       <c r="CK3">
-        <v>153.8521429363464</v>
+        <v>3021.466675259153</v>
       </c>
       <c r="CL3">
-        <v>143.2328618053793</v>
+        <v>2956.431608188964</v>
       </c>
       <c r="CM3">
-        <v>133.0311283651705</v>
+        <v>2889.212592497669</v>
       </c>
       <c r="CN3">
-        <v>125.2318962695182</v>
+        <v>2838.892662785518</v>
       </c>
       <c r="CO3">
-        <v>120.1940426677566</v>
+        <v>2809.195503291899</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474515.04430017</v>
+        <v>1624231.632163128</v>
       </c>
       <c r="E4">
-        <v>26777451.63258485</v>
+        <v>1459073.662060171</v>
       </c>
       <c r="F4">
-        <v>29376626.37716623</v>
+        <v>1273950.194004356</v>
       </c>
       <c r="G4">
-        <v>29468383.74498511</v>
+        <v>1477943.369022302</v>
       </c>
       <c r="H4">
-        <v>26833815.44544359</v>
+        <v>1624319.753844372</v>
       </c>
       <c r="I4">
-        <v>26321234.43343447</v>
+        <v>1544497.383707435</v>
       </c>
       <c r="J4">
-        <v>29030947.35363447</v>
+        <v>1680352.060849322</v>
       </c>
       <c r="K4">
-        <v>32854344.92780009</v>
+        <v>1544436.16825248</v>
       </c>
       <c r="L4">
-        <v>32637305.81751369</v>
+        <v>1539632.871095464</v>
       </c>
       <c r="M4">
-        <v>34730686.68437542</v>
+        <v>2062866.995901393</v>
       </c>
       <c r="N4">
-        <v>37608791.90053114</v>
+        <v>1982943.027974252</v>
       </c>
       <c r="O4">
-        <v>34910588.42242467</v>
+        <v>1977433.52891767</v>
       </c>
       <c r="P4">
-        <v>38765666.32506852</v>
+        <v>9988456.547842104</v>
       </c>
       <c r="Q4">
-        <v>40074936.3621005</v>
+        <v>10023206.77175408</v>
       </c>
       <c r="R4">
-        <v>41389771.27765422</v>
+        <v>10067016.18517715</v>
       </c>
       <c r="S4">
-        <v>47283540.20499502</v>
+        <v>31346381.60078163</v>
       </c>
       <c r="T4">
-        <v>48738988.99025533</v>
+        <v>31434058.19355349</v>
       </c>
       <c r="U4">
-        <v>50193861.36460369</v>
+        <v>31530328.61320518</v>
       </c>
       <c r="V4">
-        <v>51650742.95779382</v>
+        <v>31638593.91209295</v>
       </c>
       <c r="W4">
-        <v>53109465.66704775</v>
+        <v>31751126.67332055</v>
       </c>
       <c r="X4">
-        <v>54081606.49828595</v>
+        <v>32705068.83671846</v>
       </c>
       <c r="Y4">
-        <v>55440412.11002462</v>
+        <v>32824733.992457</v>
       </c>
       <c r="Z4">
-        <v>56805388.18231934</v>
+        <v>32954563.23460107</v>
       </c>
       <c r="AA4">
-        <v>58174958.2263011</v>
+        <v>33107401.98981949</v>
       </c>
       <c r="AB4">
-        <v>59554135.68081435</v>
+        <v>33321025.76875351</v>
       </c>
       <c r="AC4">
-        <v>55787446.95025939</v>
+        <v>9468884.231811421</v>
       </c>
       <c r="AD4">
-        <v>57174359.37742429</v>
+        <v>9673112.529013738</v>
       </c>
       <c r="AE4">
-        <v>58574278.05817745</v>
+        <v>9959024.689114314</v>
       </c>
       <c r="AF4">
-        <v>59998351.99342726</v>
+        <v>10363500.40932948</v>
       </c>
       <c r="AG4">
-        <v>61457726.16208892</v>
+        <v>10903771.98552297</v>
       </c>
       <c r="AH4">
-        <v>62071651.5546722</v>
+        <v>3537279.823616583</v>
       </c>
       <c r="AI4">
-        <v>63648616.12501118</v>
+        <v>4218116.132766244</v>
       </c>
       <c r="AJ4">
-        <v>65285150.2902028</v>
+        <v>5132803.330663079</v>
       </c>
       <c r="AK4">
-        <v>66959585.6557754</v>
+        <v>6336331.69868101</v>
       </c>
       <c r="AL4">
-        <v>68662410.03368308</v>
+        <v>7658758.673808551</v>
       </c>
       <c r="AM4">
-        <v>70422287.72935116</v>
+        <v>12575153.28875133</v>
       </c>
       <c r="AN4">
-        <v>72202308.70779568</v>
+        <v>14236851.86783882</v>
       </c>
       <c r="AO4">
-        <v>73820650.44408455</v>
+        <v>15392268.56234481</v>
       </c>
       <c r="AP4">
-        <v>75330859.94164073</v>
+        <v>16197664.71244349</v>
       </c>
       <c r="AQ4">
-        <v>76791903.20309325</v>
+        <v>16824664.33864639</v>
       </c>
       <c r="AR4">
-        <v>78177926.47789477</v>
+        <v>22245086.17041712</v>
       </c>
       <c r="AS4">
-        <v>79507633.99261343</v>
+        <v>22426917.33226267</v>
       </c>
       <c r="AT4">
-        <v>80800651.76940049</v>
+        <v>22432491.35557772</v>
       </c>
       <c r="AU4">
-        <v>82031034.3431624</v>
+        <v>22170577.71436144</v>
       </c>
       <c r="AV4">
-        <v>83653632.32951356</v>
+        <v>21480054.51213252</v>
       </c>
       <c r="AW4">
-        <v>84861145.3287791</v>
+        <v>21586560.45610342</v>
       </c>
       <c r="AX4">
-        <v>86085049.65185905</v>
+        <v>20148566.23603553</v>
       </c>
       <c r="AY4">
-        <v>87257183.90317242</v>
+        <v>19247218.69660724</v>
       </c>
       <c r="AZ4">
-        <v>88524548.68988547</v>
+        <v>18669042.86510228</v>
       </c>
       <c r="BA4">
-        <v>89815170.37592995</v>
+        <v>18136063.16725055</v>
       </c>
       <c r="BB4">
-        <v>91126641.57909992</v>
+        <v>16693967.08568335</v>
       </c>
       <c r="BC4">
-        <v>92589173.76990959</v>
+        <v>16358435.41742795</v>
       </c>
       <c r="BD4">
-        <v>94139083.65498446</v>
+        <v>16411376.84401968</v>
       </c>
       <c r="BE4">
-        <v>95765240.69815038</v>
+        <v>16859876.66356125</v>
       </c>
       <c r="BF4">
-        <v>97449826.77681726</v>
+        <v>17628774.38081717</v>
       </c>
       <c r="BG4">
-        <v>99165061.32608075</v>
+        <v>18136497.5770331</v>
       </c>
       <c r="BH4">
-        <v>101003213.9519735</v>
+        <v>19337936.29040986</v>
       </c>
       <c r="BI4">
-        <v>102812681.323594</v>
+        <v>20426287.16384293</v>
       </c>
       <c r="BJ4">
-        <v>104552377.0443019</v>
+        <v>21313566.05727978</v>
       </c>
       <c r="BK4">
-        <v>106237155.9228428</v>
+        <v>22104533.8900356</v>
       </c>
       <c r="BL4">
-        <v>107870257.4617994</v>
+        <v>22769378.62236677</v>
       </c>
       <c r="BM4">
-        <v>109551652.840146</v>
+        <v>23485259.98516439</v>
       </c>
       <c r="BN4">
-        <v>111207787.8150449</v>
+        <v>23938970.27027962</v>
       </c>
       <c r="BO4">
-        <v>112829199.507682</v>
+        <v>24147820.17159694</v>
       </c>
       <c r="BP4">
-        <v>114396906.978992</v>
+        <v>24106791.16916629</v>
       </c>
       <c r="BQ4">
-        <v>115964659.1243731</v>
+        <v>23767073.18623966</v>
       </c>
       <c r="BR4">
-        <v>117559849.9685801</v>
+        <v>23255623.22083038</v>
       </c>
       <c r="BS4">
-        <v>119183642.815623</v>
+        <v>22760897.70991759</v>
       </c>
       <c r="BT4">
-        <v>120845822.2884548</v>
+        <v>22513442.74228181</v>
       </c>
       <c r="BU4">
-        <v>122537594.9044524</v>
+        <v>22351448.58683594</v>
       </c>
       <c r="BV4">
-        <v>124273557.3556602</v>
+        <v>22020827.35374447</v>
       </c>
       <c r="BW4">
-        <v>126077488.5117062</v>
+        <v>21829735.87213953</v>
       </c>
       <c r="BX4">
-        <v>127919310.3523309</v>
+        <v>21731852.73189611</v>
       </c>
       <c r="BY4">
-        <v>129806546.9342747</v>
+        <v>21878360.32475173</v>
       </c>
       <c r="BZ4">
-        <v>131732770.8932204</v>
+        <v>22313559.56553872</v>
       </c>
       <c r="CA4">
-        <v>133719950.9993102</v>
+        <v>22690901.35739988</v>
       </c>
       <c r="CB4">
-        <v>135772328.8199826</v>
+        <v>23384370.55862211</v>
       </c>
       <c r="CC4">
-        <v>137818159.8688992</v>
+        <v>24093816.05285225</v>
       </c>
       <c r="CD4">
-        <v>139831315.5362349</v>
+        <v>24720963.16372762</v>
       </c>
       <c r="CE4">
-        <v>141801754.5675271</v>
+        <v>25249204.11217924</v>
       </c>
       <c r="CF4">
-        <v>143771176.0475978</v>
+        <v>25362114.75606243</v>
       </c>
       <c r="CG4">
-        <v>145779433.6906529</v>
+        <v>25799068.67806806</v>
       </c>
       <c r="CH4">
-        <v>147773928.6689475</v>
+        <v>26152469.96482579</v>
       </c>
       <c r="CI4">
-        <v>149748309.7281989</v>
+        <v>26355037.88191808</v>
       </c>
       <c r="CJ4">
-        <v>151693261.0913962</v>
+        <v>26385560.31508645</v>
       </c>
       <c r="CK4">
-        <v>153611118.2005966</v>
+        <v>25688302.89111708</v>
       </c>
       <c r="CL4">
-        <v>155590380.2406665</v>
+        <v>25445898.45172931</v>
       </c>
       <c r="CM4">
-        <v>157578572.9404086</v>
+        <v>25204074.63607221</v>
       </c>
       <c r="CN4">
-        <v>159594712.4356012</v>
+        <v>25240580.48175715</v>
       </c>
       <c r="CO4">
-        <v>161640535.5627607</v>
+        <v>25263766.67022805</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1695270.008317868</v>
+        <v>2150342.287831458</v>
       </c>
       <c r="E5">
-        <v>996788.3920453178</v>
+        <v>1440641.974271039</v>
       </c>
       <c r="F5">
-        <v>500699.4783617422</v>
+        <v>1347505.296692689</v>
       </c>
       <c r="G5">
-        <v>309434.6390578158</v>
+        <v>1300054.160795987</v>
       </c>
       <c r="H5">
-        <v>291350.9020436114</v>
+        <v>1248697.590957438</v>
       </c>
       <c r="I5">
-        <v>210260.0473429782</v>
+        <v>1561555.338495209</v>
       </c>
       <c r="J5">
-        <v>177145.8309287218</v>
+        <v>1721155.079761696</v>
       </c>
       <c r="K5">
-        <v>232045.6389235696</v>
+        <v>1504823.440738913</v>
       </c>
       <c r="L5">
-        <v>414549.3824769554</v>
+        <v>1399739.683168624</v>
       </c>
       <c r="M5">
-        <v>376457.1445355814</v>
+        <v>1573380.696318417</v>
       </c>
       <c r="N5">
-        <v>480319.001296777</v>
+        <v>1665942.493873482</v>
       </c>
       <c r="O5">
-        <v>599912.2837993071</v>
+        <v>2164842.236706774</v>
       </c>
       <c r="P5">
-        <v>3620487.034986918</v>
+        <v>16378591.24583179</v>
       </c>
       <c r="Q5">
-        <v>3649140.02963504</v>
+        <v>16424048.39200231</v>
       </c>
       <c r="R5">
-        <v>3682270.633536888</v>
+        <v>16479178.63927891</v>
       </c>
       <c r="S5">
-        <v>11433659.90258852</v>
+        <v>54346972.91804177</v>
       </c>
       <c r="T5">
-        <v>11474313.92631244</v>
+        <v>54424605.85412651</v>
       </c>
       <c r="U5">
-        <v>11517516.77788502</v>
+        <v>54515923.13989751</v>
       </c>
       <c r="V5">
-        <v>11562436.02966046</v>
+        <v>54624375.55369617</v>
       </c>
       <c r="W5">
-        <v>11608605.91547606</v>
+        <v>54756060.90755674</v>
       </c>
       <c r="X5">
-        <v>11148435.93611396</v>
+        <v>57718555.44862213</v>
       </c>
       <c r="Y5">
-        <v>11199282.19408216</v>
+        <v>57930912.93346493</v>
       </c>
       <c r="Z5">
-        <v>11256551.22527761</v>
+        <v>58211295.78807408</v>
       </c>
       <c r="AA5">
-        <v>11325750.01092001</v>
+        <v>58586852.64134628</v>
       </c>
       <c r="AB5">
-        <v>11414866.88076031</v>
+        <v>59092060.36553384</v>
       </c>
       <c r="AC5">
-        <v>2523425.337661475</v>
+        <v>18050986.226274</v>
       </c>
       <c r="AD5">
-        <v>2685813.750448084</v>
+        <v>18947156.92232763</v>
       </c>
       <c r="AE5">
-        <v>2904739.061426693</v>
+        <v>20114991.27481109</v>
       </c>
       <c r="AF5">
-        <v>3193526.498218372</v>
+        <v>21606417.32356417</v>
       </c>
       <c r="AG5">
-        <v>3563421.060079248</v>
+        <v>23467516.09420415</v>
       </c>
       <c r="AH5">
-        <v>2317260.651886052</v>
+        <v>11302349.00873467</v>
       </c>
       <c r="AI5">
-        <v>2865759.545381731</v>
+        <v>13983163.3308182</v>
       </c>
       <c r="AJ5">
-        <v>3499129.018988591</v>
+        <v>17066347.62622076</v>
       </c>
       <c r="AK5">
-        <v>4204108.637582363</v>
+        <v>20503333.49128058</v>
       </c>
       <c r="AL5">
-        <v>4959120.516187765</v>
+        <v>24206747.71491146</v>
       </c>
       <c r="AM5">
-        <v>5734703.408198714</v>
+        <v>33954451.65901872</v>
       </c>
       <c r="AN5">
-        <v>6494872.915260948</v>
+        <v>37775487.39658225</v>
       </c>
       <c r="AO5">
-        <v>7199586.467161604</v>
+        <v>41388388.15400425</v>
       </c>
       <c r="AP5">
-        <v>7808258.510078872</v>
+        <v>44598940.75017184</v>
       </c>
       <c r="AQ5">
-        <v>8283948.410984971</v>
+        <v>47224879.10988516</v>
       </c>
       <c r="AR5">
-        <v>8597715.816980597</v>
+        <v>57320167.46640705</v>
       </c>
       <c r="AS5">
-        <v>8732363.557603497</v>
+        <v>58381140.0911729</v>
       </c>
       <c r="AT5">
-        <v>8684898.760175593</v>
+        <v>58577958.01154337</v>
       </c>
       <c r="AU5">
-        <v>8467162.947550412</v>
+        <v>57946830.97043698</v>
       </c>
       <c r="AV5">
-        <v>9254175.220588412</v>
+        <v>56589391.12816014</v>
       </c>
       <c r="AW5">
-        <v>9108341.271758787</v>
+        <v>57061084.73049114</v>
       </c>
       <c r="AX5">
-        <v>8572114.866327154</v>
+        <v>54759761.43091525</v>
       </c>
       <c r="AY5">
-        <v>8017276.374167683</v>
+        <v>52303284.38718721</v>
       </c>
       <c r="AZ5">
-        <v>7489590.954583854</v>
+        <v>49916091.9942808</v>
       </c>
       <c r="BA5">
-        <v>7030443.085779454</v>
+        <v>47811530.14230615</v>
       </c>
       <c r="BB5">
-        <v>6506561.051838689</v>
+        <v>44778584.81409178</v>
       </c>
       <c r="BC5">
-        <v>6275323.949156825</v>
+        <v>43753678.4235727</v>
       </c>
       <c r="BD5">
-        <v>6180679.813032148</v>
+        <v>43427570.76142555</v>
       </c>
       <c r="BE5">
-        <v>6220757.240385786</v>
+        <v>43826311.95617687</v>
       </c>
       <c r="BF5">
-        <v>6382021.044740654</v>
+        <v>44915751.33440275</v>
       </c>
       <c r="BG5">
-        <v>6477261.795169696</v>
+        <v>45839232.00281735</v>
       </c>
       <c r="BH5">
-        <v>6808303.689412351</v>
+        <v>48015226.56886657</v>
       </c>
       <c r="BI5">
-        <v>7181048.543356081</v>
+        <v>50525984.75771311</v>
       </c>
       <c r="BJ5">
-        <v>7567475.808763439</v>
+        <v>53215275.3615213</v>
       </c>
       <c r="BK5">
-        <v>7942754.118642624</v>
+        <v>55928484.01214515</v>
       </c>
       <c r="BL5">
-        <v>8162327.972176884</v>
+        <v>58416492.25641885</v>
       </c>
       <c r="BM5">
-        <v>8457992.556274345</v>
+        <v>60765287.81333553</v>
       </c>
       <c r="BN5">
-        <v>8694631.560003502</v>
+        <v>62770791.07290171</v>
       </c>
       <c r="BO5">
-        <v>8865869.263964867</v>
+        <v>64365754.53698423</v>
       </c>
       <c r="BP5">
-        <v>8969978.449950647</v>
+        <v>65517178.82686125</v>
       </c>
       <c r="BQ5">
-        <v>8923077.314774759</v>
+        <v>66250484.04016297</v>
       </c>
       <c r="BR5">
-        <v>8904206.46788146</v>
+        <v>66550333.71226293</v>
       </c>
       <c r="BS5">
-        <v>8836179.040463749</v>
+        <v>66501180.70898025</v>
       </c>
       <c r="BT5">
-        <v>8730557.946565641</v>
+        <v>66184742.02709807</v>
       </c>
       <c r="BU5">
-        <v>8600559.960648591</v>
+        <v>65697032.51440839</v>
       </c>
       <c r="BV5">
-        <v>8376033.050078752</v>
+        <v>64920881.28671881</v>
       </c>
       <c r="BW5">
-        <v>8239970.711686544</v>
+        <v>64395968.65340099</v>
       </c>
       <c r="BX5">
-        <v>8121651.221599807</v>
+        <v>63993625.19470124</v>
       </c>
       <c r="BY5">
-        <v>8032939.487372965</v>
+        <v>63788705.24571463</v>
       </c>
       <c r="BZ5">
-        <v>7982939.022484916</v>
+        <v>63835375.79006504</v>
       </c>
       <c r="CA5">
-        <v>7888619.097564895</v>
+        <v>63773535.86794692</v>
       </c>
       <c r="CB5">
-        <v>7928417.390048475</v>
+        <v>64391802.80947018</v>
       </c>
       <c r="CC5">
-        <v>8011061.930034324</v>
+        <v>65283129.74672952</v>
       </c>
       <c r="CD5">
-        <v>8130190.603715569</v>
+        <v>66411358.50234376</v>
       </c>
       <c r="CE5">
-        <v>8276718.243228596</v>
+        <v>67724596.04027189</v>
       </c>
       <c r="CF5">
-        <v>8340130.287201406</v>
+        <v>68490091.485071</v>
       </c>
       <c r="CG5">
-        <v>8508953.091725601</v>
+        <v>69981934.47659098</v>
       </c>
       <c r="CH5">
-        <v>8672768.194985634</v>
+        <v>71463779.65164584</v>
       </c>
       <c r="CI5">
-        <v>8822377.536345368</v>
+        <v>72875819.15731166</v>
       </c>
       <c r="CJ5">
-        <v>8950532.864644043</v>
+        <v>74168271.01054494</v>
       </c>
       <c r="CK5">
-        <v>8915828.741052946</v>
+        <v>74251876.93665504</v>
       </c>
       <c r="CL5">
-        <v>8988609.215567773</v>
+        <v>75208976.01531665</v>
       </c>
       <c r="CM5">
-        <v>9032196.450297112</v>
+        <v>75979735.17540646</v>
       </c>
       <c r="CN5">
-        <v>9048482.009317476</v>
+        <v>76570981.81259938</v>
       </c>
       <c r="CO5">
-        <v>9041123.736650649</v>
+        <v>77002064.43922363</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0317682853503</v>
+        <v>1072.373874491149</v>
       </c>
       <c r="E2">
-        <v>564.6551325096093</v>
+        <v>2470.103994194999</v>
       </c>
       <c r="F2">
-        <v>1064.901390145882</v>
+        <v>3867.135621993344</v>
       </c>
       <c r="G2">
-        <v>1435.536050881256</v>
+        <v>5194.726591405608</v>
       </c>
       <c r="H2">
-        <v>2384.578927351109</v>
+        <v>6975.324365127131</v>
       </c>
       <c r="I2">
-        <v>2929.952808380113</v>
+        <v>8260.050277385331</v>
       </c>
       <c r="J2">
-        <v>3538.678630526794</v>
+        <v>10584.67535746924</v>
       </c>
       <c r="K2">
-        <v>4239.238116679998</v>
+        <v>12896.28496439873</v>
       </c>
       <c r="L2">
-        <v>4798.89666288937</v>
+        <v>14954.69614619603</v>
       </c>
       <c r="M2">
-        <v>5488.512577349256</v>
+        <v>16856.15185804732</v>
       </c>
       <c r="N2">
-        <v>5848.981552595884</v>
+        <v>20926.16284548197</v>
       </c>
       <c r="O2">
-        <v>6258.293856345449</v>
+        <v>23416.59899146888</v>
       </c>
       <c r="P2">
-        <v>7065.023029080574</v>
+        <v>28392.14574831787</v>
       </c>
       <c r="Q2">
-        <v>7870.02982245046</v>
+        <v>33748.38382743281</v>
       </c>
       <c r="R2">
-        <v>8667.108074813063</v>
+        <v>39475.3216806781</v>
       </c>
       <c r="S2">
-        <v>10652.06257161676</v>
+        <v>51987.40404746181</v>
       </c>
       <c r="T2">
-        <v>12653.53682348958</v>
+        <v>65412.78698979288</v>
       </c>
       <c r="U2">
-        <v>14672.04732031061</v>
+        <v>79767.0460593833</v>
       </c>
       <c r="V2">
-        <v>16712.24328692913</v>
+        <v>95077.42767618666</v>
       </c>
       <c r="W2">
-        <v>18775.82909588495</v>
+        <v>111362.9598831067</v>
       </c>
       <c r="X2">
-        <v>20683.03324594578</v>
+        <v>127760.0438253525</v>
       </c>
       <c r="Y2">
-        <v>22618.43973150195</v>
+        <v>145080.1667543091</v>
       </c>
       <c r="Z2">
-        <v>24626.31822675832</v>
+        <v>163338.7304285215</v>
       </c>
       <c r="AA2">
-        <v>26735.68768722277</v>
+        <v>182504.745058452</v>
       </c>
       <c r="AB2">
-        <v>28958.73072860723</v>
+        <v>202628.0974901103</v>
       </c>
       <c r="AC2">
-        <v>29923.30526248005</v>
+        <v>212291.1545325433</v>
       </c>
       <c r="AD2">
-        <v>30851.85293485644</v>
+        <v>222282.6493452553</v>
       </c>
       <c r="AE2">
-        <v>31756.85289062425</v>
+        <v>232656.746914816</v>
       </c>
       <c r="AF2">
-        <v>32656.38871098443</v>
+        <v>243296.417091394</v>
       </c>
       <c r="AG2">
-        <v>33529.88508262706</v>
+        <v>254272.3772561</v>
       </c>
       <c r="AH2">
-        <v>34188.21540401786</v>
+        <v>261787.0670215597</v>
       </c>
       <c r="AI2">
-        <v>34845.64348880966</v>
+        <v>269920.7806911954</v>
       </c>
       <c r="AJ2">
-        <v>35629.9850781664</v>
+        <v>278668.9204693944</v>
       </c>
       <c r="AK2">
-        <v>36615.03917128763</v>
+        <v>288469.6844464256</v>
       </c>
       <c r="AL2">
-        <v>37818.87358567283</v>
+        <v>299674.4294300624</v>
       </c>
       <c r="AM2">
-        <v>39364.62368343209</v>
+        <v>314727.5840049377</v>
       </c>
       <c r="AN2">
-        <v>41295.68781731169</v>
+        <v>332245.6738662628</v>
       </c>
       <c r="AO2">
-        <v>43378.63535304723</v>
+        <v>351305.7278516235</v>
       </c>
       <c r="AP2">
-        <v>45482.46886524354</v>
+        <v>371350.9075999822</v>
       </c>
       <c r="AQ2">
-        <v>47587.48953410478</v>
+        <v>392259.9904661446</v>
       </c>
       <c r="AR2">
-        <v>49670.46016376989</v>
+        <v>417163.1506560675</v>
       </c>
       <c r="AS2">
-        <v>51727.96935149097</v>
+        <v>442763.4065955221</v>
       </c>
       <c r="AT2">
-        <v>53796.65635674992</v>
+        <v>469064.2286473716</v>
       </c>
       <c r="AU2">
-        <v>55867.16297889272</v>
+        <v>495724.8840233361</v>
       </c>
       <c r="AV2">
-        <v>57840.18704169828</v>
+        <v>521801.5751332627</v>
       </c>
       <c r="AW2">
-        <v>59506.13316800375</v>
+        <v>546488.3166331365</v>
       </c>
       <c r="AX2">
-        <v>60990.14304342504</v>
+        <v>568506.2933286746</v>
       </c>
       <c r="AY2">
-        <v>62303.83191881158</v>
+        <v>589706.9691534869</v>
       </c>
       <c r="AZ2">
-        <v>63577.05278097554</v>
+        <v>611014.154347952</v>
       </c>
       <c r="BA2">
-        <v>64805.27832051954</v>
+        <v>632174.9234852245</v>
       </c>
       <c r="BB2">
-        <v>65946.06125737072</v>
+        <v>651868.3133372574</v>
       </c>
       <c r="BC2">
-        <v>67050.63430073774</v>
+        <v>671000.7532200158</v>
       </c>
       <c r="BD2">
-        <v>68217.64851854868</v>
+        <v>690504.1608864311</v>
       </c>
       <c r="BE2">
-        <v>69544.6313782481</v>
+        <v>711087.6198090074</v>
       </c>
       <c r="BF2">
-        <v>71094.4066126331</v>
+        <v>733282.2812235032</v>
       </c>
       <c r="BG2">
-        <v>72883.89451381334</v>
+        <v>757040.6804660687</v>
       </c>
       <c r="BH2">
-        <v>74952.83462046097</v>
+        <v>783291.6523243034</v>
       </c>
       <c r="BI2">
-        <v>77239.89688761707</v>
+        <v>811600.305428779</v>
       </c>
       <c r="BJ2">
-        <v>79630.19871982643</v>
+        <v>841467.9836258671</v>
       </c>
       <c r="BK2">
-        <v>82043.89708067519</v>
+        <v>872816.0566139081</v>
       </c>
       <c r="BL2">
-        <v>84432.55514486975</v>
+        <v>905549.6151406735</v>
       </c>
       <c r="BM2">
-        <v>86807.02743316071</v>
+        <v>940043.5311370371</v>
       </c>
       <c r="BN2">
-        <v>89163.99825407533</v>
+        <v>975549.0664202431</v>
       </c>
       <c r="BO2">
-        <v>91487.25303520552</v>
+        <v>1011432.883331671</v>
       </c>
       <c r="BP2">
-        <v>93723.53686465599</v>
+        <v>1047124.609589222</v>
       </c>
       <c r="BQ2">
-        <v>95784.32824827534</v>
+        <v>1081752.286417594</v>
       </c>
       <c r="BR2">
-        <v>97650.02504836995</v>
+        <v>1115049.83390943</v>
       </c>
       <c r="BS2">
-        <v>99361.14518974304</v>
+        <v>1147157.161856269</v>
       </c>
       <c r="BT2">
-        <v>100973.3351930515</v>
+        <v>1178718.768935767</v>
       </c>
       <c r="BU2">
-        <v>102529.5405944232</v>
+        <v>1210050.021484731</v>
       </c>
       <c r="BV2">
-        <v>104033.4159728906</v>
+        <v>1240767.289064313</v>
       </c>
       <c r="BW2">
-        <v>105520.8876232606</v>
+        <v>1271078.451554684</v>
       </c>
       <c r="BX2">
-        <v>107051.1562950656</v>
+        <v>1301520.644913053</v>
       </c>
       <c r="BY2">
-        <v>108702.0496636097</v>
+        <v>1332789.947992364</v>
       </c>
       <c r="BZ2">
-        <v>110539.2238912257</v>
+        <v>1365420.512618497</v>
       </c>
       <c r="CA2">
-        <v>112586.3125219109</v>
+        <v>1399552.52132117</v>
       </c>
       <c r="CB2">
-        <v>114864.5072731075</v>
+        <v>1435606.496027654</v>
       </c>
       <c r="CC2">
-        <v>117347.3305905226</v>
+        <v>1473661.048052893</v>
       </c>
       <c r="CD2">
-        <v>119969.7503508615</v>
+        <v>1513522.065421224</v>
       </c>
       <c r="CE2">
-        <v>122655.5938680245</v>
+        <v>1554968.757127621</v>
       </c>
       <c r="CF2">
-        <v>125335.3200854418</v>
+        <v>1597644.497321453</v>
       </c>
       <c r="CG2">
-        <v>127999.0956964051</v>
+        <v>1641714.636450064</v>
       </c>
       <c r="CH2">
-        <v>130636.0034826171</v>
+        <v>1686920.702584205</v>
       </c>
       <c r="CI2">
-        <v>133227.961624697</v>
+        <v>1732725.944480038</v>
       </c>
       <c r="CJ2">
-        <v>135740.2119760527</v>
+        <v>1778520.654145755</v>
       </c>
       <c r="CK2">
-        <v>138106.4377877292</v>
+        <v>1823355.564437693</v>
       </c>
       <c r="CL2">
-        <v>140317.2516548705</v>
+        <v>1867250.716284289</v>
       </c>
       <c r="CM2">
-        <v>142378.8193085601</v>
+        <v>1910168.61939456</v>
       </c>
       <c r="CN2">
-        <v>144326.6194887051</v>
+        <v>1952352.657482829</v>
       </c>
       <c r="CO2">
-        <v>146201.4304926206</v>
+        <v>1994101.203513055</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49093896605874</v>
+        <v>70.91124739014649</v>
       </c>
       <c r="E3">
-        <v>35.65073761100844</v>
+        <v>163.6162489721905</v>
       </c>
       <c r="F3">
-        <v>67.96464116507053</v>
+        <v>256.156074519521</v>
       </c>
       <c r="G3">
-        <v>91.57425867157829</v>
+        <v>344.0309183196844</v>
       </c>
       <c r="H3">
-        <v>154.1310111324799</v>
+        <v>462.4293360593274</v>
       </c>
       <c r="I3">
-        <v>189.5642424267885</v>
+        <v>547.5113847302299</v>
       </c>
       <c r="J3">
-        <v>229.1399658843546</v>
+        <v>702.3244623356675</v>
       </c>
       <c r="K3">
-        <v>274.730578063702</v>
+        <v>856.1114137894835</v>
       </c>
       <c r="L3">
-        <v>310.9032414839083</v>
+        <v>992.9394500470027</v>
       </c>
       <c r="M3">
-        <v>355.7328940778896</v>
+        <v>1119.154640653569</v>
       </c>
       <c r="N3">
-        <v>378.3113355558298</v>
+        <v>1390.937251561466</v>
       </c>
       <c r="O3">
-        <v>404.3196783494578</v>
+        <v>1556.767226332242</v>
       </c>
       <c r="P3">
-        <v>456.9402903143043</v>
+        <v>1889.389467981471</v>
       </c>
       <c r="Q3">
-        <v>509.4048799407121</v>
+        <v>2247.552947920612</v>
       </c>
       <c r="R3">
-        <v>561.2930347975195</v>
+        <v>2630.595782995321</v>
       </c>
       <c r="S3">
-        <v>692.8924413936343</v>
+        <v>3469.196339953086</v>
       </c>
       <c r="T3">
-        <v>825.5614391710877</v>
+        <v>4369.121152008899</v>
       </c>
       <c r="U3">
-        <v>959.3350072802513</v>
+        <v>5331.419880994943</v>
       </c>
       <c r="V3">
-        <v>1094.527981502291</v>
+        <v>6357.942393634059</v>
       </c>
       <c r="W3">
-        <v>1231.255760061585</v>
+        <v>7449.969790487917</v>
       </c>
       <c r="X3">
-        <v>1357.44445880941</v>
+        <v>8549.468628304066</v>
       </c>
       <c r="Y3">
-        <v>1485.49568106208</v>
+        <v>9710.980073660396</v>
       </c>
       <c r="Z3">
-        <v>1618.407500612608</v>
+        <v>10935.55941774367</v>
       </c>
       <c r="AA3">
-        <v>1758.145132523455</v>
+        <v>12221.18768558506</v>
       </c>
       <c r="AB3">
-        <v>1905.533441080176</v>
+        <v>13571.22481932288</v>
       </c>
       <c r="AC3">
-        <v>1968.42840725253</v>
+        <v>14218.7970126412</v>
       </c>
       <c r="AD3">
-        <v>2028.834049146375</v>
+        <v>14888.32379655991</v>
       </c>
       <c r="AE3">
-        <v>2087.595137065759</v>
+        <v>15583.59205433721</v>
       </c>
       <c r="AF3">
-        <v>2145.935795303307</v>
+        <v>16296.80208382938</v>
       </c>
       <c r="AG3">
-        <v>2202.461752662508</v>
+        <v>17032.55411596731</v>
       </c>
       <c r="AH3">
-        <v>2244.472070675977</v>
+        <v>17536.02021348314</v>
       </c>
       <c r="AI3">
-        <v>2286.366605456808</v>
+        <v>18081.29145903603</v>
       </c>
       <c r="AJ3">
-        <v>2336.800577696943</v>
+        <v>18668.25991280913</v>
       </c>
       <c r="AK3">
-        <v>2400.771259654161</v>
+        <v>19326.60586485288</v>
       </c>
       <c r="AL3">
-        <v>2479.501714728735</v>
+        <v>20080.09925460645</v>
       </c>
       <c r="AM3">
-        <v>2581.329611695887</v>
+        <v>21093.37672306554</v>
       </c>
       <c r="AN3">
-        <v>2709.193884774474</v>
+        <v>22273.82257513293</v>
       </c>
       <c r="AO3">
-        <v>2847.2878831931</v>
+        <v>23558.73503072971</v>
       </c>
       <c r="AP3">
-        <v>2986.741654530181</v>
+        <v>24910.26837180374</v>
       </c>
       <c r="AQ3">
-        <v>3126.22226630867</v>
+        <v>26320.22378109023</v>
       </c>
       <c r="AR3">
-        <v>3264.155612481858</v>
+        <v>27998.77534647145</v>
       </c>
       <c r="AS3">
-        <v>3400.312098665513</v>
+        <v>29724.59329960384</v>
       </c>
       <c r="AT3">
-        <v>3537.174305193721</v>
+        <v>31498.64968379981</v>
       </c>
       <c r="AU3">
-        <v>3674.109949596006</v>
+        <v>33298.59916374079</v>
       </c>
       <c r="AV3">
-        <v>3804.387353969726</v>
+        <v>35058.08169392376</v>
       </c>
       <c r="AW3">
-        <v>3913.815333433049</v>
+        <v>36721.25288261121</v>
       </c>
       <c r="AX3">
-        <v>4010.749880683504</v>
+        <v>38201.80532204019</v>
       </c>
       <c r="AY3">
-        <v>4096.098069279125</v>
+        <v>39626.16549668773</v>
       </c>
       <c r="AZ3">
-        <v>4178.652771372945</v>
+        <v>41057.315390339</v>
       </c>
       <c r="BA3">
-        <v>4258.106794851949</v>
+        <v>42478.17086051338</v>
       </c>
       <c r="BB3">
-        <v>4331.595004304373</v>
+        <v>43799.98419064362</v>
       </c>
       <c r="BC3">
-        <v>4402.570332034067</v>
+        <v>45083.81723666328</v>
       </c>
       <c r="BD3">
-        <v>4477.712220165711</v>
+        <v>46392.92528734513</v>
       </c>
       <c r="BE3">
-        <v>4563.624183796594</v>
+        <v>47775.51598313372</v>
       </c>
       <c r="BF3">
-        <v>4664.559717496002</v>
+        <v>49267.70254846253</v>
       </c>
       <c r="BG3">
-        <v>4781.674767616531</v>
+        <v>50866.73064919841</v>
       </c>
       <c r="BH3">
-        <v>4917.644678825108</v>
+        <v>52635.20602553349</v>
       </c>
       <c r="BI3">
-        <v>5068.316117838524</v>
+        <v>54543.59736619627</v>
       </c>
       <c r="BJ3">
-        <v>5225.909575870883</v>
+        <v>56558.09422003075</v>
       </c>
       <c r="BK3">
-        <v>5385.018484793659</v>
+        <v>58673.81942390191</v>
       </c>
       <c r="BL3">
-        <v>5542.371048526524</v>
+        <v>60885.17022373224</v>
       </c>
       <c r="BM3">
-        <v>5698.691332540167</v>
+        <v>63216.49765329788</v>
       </c>
       <c r="BN3">
-        <v>5853.755354078388</v>
+        <v>65615.35581971331</v>
       </c>
       <c r="BO3">
-        <v>6006.465707652492</v>
+        <v>68038.31520640948</v>
       </c>
       <c r="BP3">
-        <v>6153.216695610331</v>
+        <v>70446.47013489924</v>
       </c>
       <c r="BQ3">
-        <v>6288.017007559997</v>
+        <v>72780.54423304241</v>
       </c>
       <c r="BR3">
-        <v>6409.531541510732</v>
+        <v>75022.43011560515</v>
       </c>
       <c r="BS3">
-        <v>6520.5041462865</v>
+        <v>77182.23877531942</v>
       </c>
       <c r="BT3">
-        <v>6624.703079353695</v>
+        <v>79304.39488490035</v>
       </c>
       <c r="BU3">
-        <v>6725.036500427633</v>
+        <v>81410.73463953135</v>
       </c>
       <c r="BV3">
-        <v>6821.754981122169</v>
+        <v>83475.59668433006</v>
       </c>
       <c r="BW3">
-        <v>6917.283478497053</v>
+        <v>85513.04871479202</v>
       </c>
       <c r="BX3">
-        <v>7015.630777595332</v>
+        <v>87559.65540514109</v>
       </c>
       <c r="BY3">
-        <v>7122.067030327439</v>
+        <v>89662.84268496263</v>
       </c>
       <c r="BZ3">
-        <v>7241.038129199842</v>
+        <v>91859.12458091012</v>
       </c>
       <c r="CA3">
-        <v>7374.147561050875</v>
+        <v>94158.52106804197</v>
       </c>
       <c r="CB3">
-        <v>7522.821916278612</v>
+        <v>96589.96966390293</v>
       </c>
       <c r="CC3">
-        <v>7685.267936389605</v>
+        <v>99159.29591366608</v>
       </c>
       <c r="CD3">
-        <v>7857.081639425345</v>
+        <v>101852.8419556075</v>
       </c>
       <c r="CE3">
-        <v>8033.104721539543</v>
+        <v>104654.0560977684</v>
       </c>
       <c r="CF3">
-        <v>8208.631764127938</v>
+        <v>107537.809499496</v>
       </c>
       <c r="CG3">
-        <v>8382.987736193503</v>
+        <v>110514.7103934359</v>
       </c>
       <c r="CH3">
-        <v>8555.433482315155</v>
+        <v>113566.8721649828</v>
       </c>
       <c r="CI3">
-        <v>8724.74474561042</v>
+        <v>116657.5975700286</v>
       </c>
       <c r="CJ3">
-        <v>8888.568017850292</v>
+        <v>119745.5826430424</v>
       </c>
       <c r="CK3">
-        <v>9042.420160786638</v>
+        <v>122767.0493183015</v>
       </c>
       <c r="CL3">
-        <v>9185.653022592018</v>
+        <v>125723.4809264905</v>
       </c>
       <c r="CM3">
-        <v>9318.684150957188</v>
+        <v>128612.6935189882</v>
       </c>
       <c r="CN3">
-        <v>9443.916047226707</v>
+        <v>131451.5861817737</v>
       </c>
       <c r="CO3">
-        <v>9564.110089894464</v>
+        <v>134260.7816850656</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474515.04430017</v>
+        <v>1624231.632163128</v>
       </c>
       <c r="E4">
-        <v>53251966.67688502</v>
+        <v>3083305.294223299</v>
       </c>
       <c r="F4">
-        <v>82628593.05405125</v>
+        <v>4357255.488227655</v>
       </c>
       <c r="G4">
-        <v>112096976.7990364</v>
+        <v>5835198.857249958</v>
       </c>
       <c r="H4">
-        <v>138930792.24448</v>
+        <v>7459518.61109433</v>
       </c>
       <c r="I4">
-        <v>165252026.6779144</v>
+        <v>9004015.994801765</v>
       </c>
       <c r="J4">
-        <v>194282974.0315489</v>
+        <v>10684368.05565109</v>
       </c>
       <c r="K4">
-        <v>227137318.959349</v>
+        <v>12228804.22390357</v>
       </c>
       <c r="L4">
-        <v>259774624.7768627</v>
+        <v>13768437.09499903</v>
       </c>
       <c r="M4">
-        <v>294505311.4612381</v>
+        <v>15831304.09090042</v>
       </c>
       <c r="N4">
-        <v>332114103.3617692</v>
+        <v>17814247.11887468</v>
       </c>
       <c r="O4">
-        <v>367024691.7841939</v>
+        <v>19791680.64779235</v>
       </c>
       <c r="P4">
-        <v>405790358.1092624</v>
+        <v>29780137.19563445</v>
       </c>
       <c r="Q4">
-        <v>445865294.4713629</v>
+        <v>39803343.96738853</v>
       </c>
       <c r="R4">
-        <v>487255065.7490171</v>
+        <v>49870360.15256569</v>
       </c>
       <c r="S4">
-        <v>534538605.9540122</v>
+        <v>81216741.75334732</v>
       </c>
       <c r="T4">
-        <v>583277594.9442675</v>
+        <v>112650799.9469008</v>
       </c>
       <c r="U4">
-        <v>633471456.3088712</v>
+        <v>144181128.560106</v>
       </c>
       <c r="V4">
-        <v>685122199.266665</v>
+        <v>175819722.4721989</v>
       </c>
       <c r="W4">
-        <v>738231664.9337127</v>
+        <v>207570849.1455195</v>
       </c>
       <c r="X4">
-        <v>792313271.4319987</v>
+        <v>240275917.982238</v>
       </c>
       <c r="Y4">
-        <v>847753683.5420233</v>
+        <v>273100651.974695</v>
       </c>
       <c r="Z4">
-        <v>904559071.7243426</v>
+        <v>306055215.209296</v>
       </c>
       <c r="AA4">
-        <v>962734029.9506437</v>
+        <v>339162617.1991155</v>
       </c>
       <c r="AB4">
-        <v>1022288165.631458</v>
+        <v>372483642.967869</v>
       </c>
       <c r="AC4">
-        <v>1078075612.581717</v>
+        <v>381952527.1996804</v>
       </c>
       <c r="AD4">
-        <v>1135249971.959142</v>
+        <v>391625639.7286942</v>
       </c>
       <c r="AE4">
-        <v>1193824250.017319</v>
+        <v>401584664.4178085</v>
       </c>
       <c r="AF4">
-        <v>1253822602.010746</v>
+        <v>411948164.827138</v>
       </c>
       <c r="AG4">
-        <v>1315280328.172835</v>
+        <v>422851936.812661</v>
       </c>
       <c r="AH4">
-        <v>1377351979.727508</v>
+        <v>426389216.6362776</v>
       </c>
       <c r="AI4">
-        <v>1441000595.852519</v>
+        <v>430607332.7690438</v>
       </c>
       <c r="AJ4">
-        <v>1506285746.142722</v>
+        <v>435740136.0997069</v>
       </c>
       <c r="AK4">
-        <v>1573245331.798497</v>
+        <v>442076467.7983879</v>
       </c>
       <c r="AL4">
-        <v>1641907741.83218</v>
+        <v>449735226.4721965</v>
       </c>
       <c r="AM4">
-        <v>1712330029.561531</v>
+        <v>462310379.7609478</v>
       </c>
       <c r="AN4">
-        <v>1784532338.269327</v>
+        <v>476547231.6287866</v>
       </c>
       <c r="AO4">
-        <v>1858352988.713411</v>
+        <v>491939500.1911314</v>
       </c>
       <c r="AP4">
-        <v>1933683848.655052</v>
+        <v>508137164.9035748</v>
       </c>
       <c r="AQ4">
-        <v>2010475751.858145</v>
+        <v>524961829.2422212</v>
       </c>
       <c r="AR4">
-        <v>2088653678.33604</v>
+        <v>547206915.4126383</v>
       </c>
       <c r="AS4">
-        <v>2168161312.328654</v>
+        <v>569633832.7449009</v>
       </c>
       <c r="AT4">
-        <v>2248961964.098054</v>
+        <v>592066324.1004786</v>
       </c>
       <c r="AU4">
-        <v>2330992998.441217</v>
+        <v>614236901.8148401</v>
       </c>
       <c r="AV4">
-        <v>2414646630.77073</v>
+        <v>635716956.3269726</v>
       </c>
       <c r="AW4">
-        <v>2499507776.09951</v>
+        <v>657303516.783076</v>
       </c>
       <c r="AX4">
-        <v>2585592825.751369</v>
+        <v>677452083.0191116</v>
       </c>
       <c r="AY4">
-        <v>2672850009.654541</v>
+        <v>696699301.7157189</v>
       </c>
       <c r="AZ4">
-        <v>2761374558.344427</v>
+        <v>715368344.5808212</v>
       </c>
       <c r="BA4">
-        <v>2851189728.720356</v>
+        <v>733504407.7480717</v>
       </c>
       <c r="BB4">
-        <v>2942316370.299457</v>
+        <v>750198374.833755</v>
       </c>
       <c r="BC4">
-        <v>3034905544.069366</v>
+        <v>766556810.2511829</v>
       </c>
       <c r="BD4">
-        <v>3129044627.72435</v>
+        <v>782968187.0952026</v>
       </c>
       <c r="BE4">
-        <v>3224809868.422501</v>
+        <v>799828063.7587638</v>
       </c>
       <c r="BF4">
-        <v>3322259695.199318</v>
+        <v>817456838.139581</v>
       </c>
       <c r="BG4">
-        <v>3421424756.525399</v>
+        <v>835593335.716614</v>
       </c>
       <c r="BH4">
-        <v>3522427970.477372</v>
+        <v>854931272.0070238</v>
       </c>
       <c r="BI4">
-        <v>3625240651.800966</v>
+        <v>875357559.1708667</v>
       </c>
       <c r="BJ4">
-        <v>3729793028.845268</v>
+        <v>896671125.2281466</v>
       </c>
       <c r="BK4">
-        <v>3836030184.768111</v>
+        <v>918775659.1181822</v>
       </c>
       <c r="BL4">
-        <v>3943900442.229911</v>
+        <v>941545037.740549</v>
       </c>
       <c r="BM4">
-        <v>4053452095.070057</v>
+        <v>965030297.7257134</v>
       </c>
       <c r="BN4">
-        <v>4164659882.885102</v>
+        <v>988969267.995993</v>
       </c>
       <c r="BO4">
-        <v>4277489082.392784</v>
+        <v>1013117088.16759</v>
       </c>
       <c r="BP4">
-        <v>4391885989.371776</v>
+        <v>1037223879.336756</v>
       </c>
       <c r="BQ4">
-        <v>4507850648.496149</v>
+        <v>1060990952.522996</v>
       </c>
       <c r="BR4">
-        <v>4625410498.464729</v>
+        <v>1084246575.743826</v>
       </c>
       <c r="BS4">
-        <v>4744594141.280353</v>
+        <v>1107007473.453744</v>
       </c>
       <c r="BT4">
-        <v>4865439963.568808</v>
+        <v>1129520916.196026</v>
       </c>
       <c r="BU4">
-        <v>4987977558.47326</v>
+        <v>1151872364.782862</v>
       </c>
       <c r="BV4">
-        <v>5112251115.82892</v>
+        <v>1173893192.136606</v>
       </c>
       <c r="BW4">
-        <v>5238328604.340627</v>
+        <v>1195722928.008746</v>
       </c>
       <c r="BX4">
-        <v>5366247914.692958</v>
+        <v>1217454780.740642</v>
       </c>
       <c r="BY4">
-        <v>5496054461.627233</v>
+        <v>1239333141.065393</v>
       </c>
       <c r="BZ4">
-        <v>5627787232.520452</v>
+        <v>1261646700.630932</v>
       </c>
       <c r="CA4">
-        <v>5761507183.519763</v>
+        <v>1284337601.988332</v>
       </c>
       <c r="CB4">
-        <v>5897279512.339746</v>
+        <v>1307721972.546954</v>
       </c>
       <c r="CC4">
-        <v>6035097672.208645</v>
+        <v>1331815788.599806</v>
       </c>
       <c r="CD4">
-        <v>6174928987.74488</v>
+        <v>1356536751.763534</v>
       </c>
       <c r="CE4">
-        <v>6316730742.312407</v>
+        <v>1381785955.875713</v>
       </c>
       <c r="CF4">
-        <v>6460501918.360004</v>
+        <v>1407148070.631776</v>
       </c>
       <c r="CG4">
-        <v>6606281352.050657</v>
+        <v>1432947139.309844</v>
       </c>
       <c r="CH4">
-        <v>6754055280.719604</v>
+        <v>1459099609.27467</v>
       </c>
       <c r="CI4">
-        <v>6903803590.447803</v>
+        <v>1485454647.156588</v>
       </c>
       <c r="CJ4">
-        <v>7055496851.5392</v>
+        <v>1511840207.471674</v>
       </c>
       <c r="CK4">
-        <v>7209107969.739797</v>
+        <v>1537528510.362791</v>
       </c>
       <c r="CL4">
-        <v>7364698349.980463</v>
+        <v>1562974408.814521</v>
       </c>
       <c r="CM4">
-        <v>7522276922.920872</v>
+        <v>1588178483.450593</v>
       </c>
       <c r="CN4">
-        <v>7681871635.356473</v>
+        <v>1613419063.93235</v>
       </c>
       <c r="CO4">
-        <v>7843512170.919233</v>
+        <v>1638682830.602578</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1695270.008317868</v>
+        <v>2150342.287831458</v>
       </c>
       <c r="E5">
-        <v>2692058.400363186</v>
+        <v>3590984.262102496</v>
       </c>
       <c r="F5">
-        <v>3192757.878724928</v>
+        <v>4938489.558795185</v>
       </c>
       <c r="G5">
-        <v>3502192.517782744</v>
+        <v>6238543.719591172</v>
       </c>
       <c r="H5">
-        <v>3793543.419826355</v>
+        <v>7487241.310548611</v>
       </c>
       <c r="I5">
-        <v>4003803.467169333</v>
+        <v>9048796.649043821</v>
       </c>
       <c r="J5">
-        <v>4180949.298098055</v>
+        <v>10769951.72880552</v>
       </c>
       <c r="K5">
-        <v>4412994.937021624</v>
+        <v>12274775.16954443</v>
       </c>
       <c r="L5">
-        <v>4827544.31949858</v>
+        <v>13674514.85271305</v>
       </c>
       <c r="M5">
-        <v>5204001.464034162</v>
+        <v>15247895.54903147</v>
       </c>
       <c r="N5">
-        <v>5684320.465330939</v>
+        <v>16913838.04290495</v>
       </c>
       <c r="O5">
-        <v>6284232.749130246</v>
+        <v>19078680.27961173</v>
       </c>
       <c r="P5">
-        <v>9904719.784117164</v>
+        <v>35457271.52544351</v>
       </c>
       <c r="Q5">
-        <v>13553859.8137522</v>
+        <v>51881319.91744582</v>
       </c>
       <c r="R5">
-        <v>17236130.44728909</v>
+        <v>68360498.55672473</v>
       </c>
       <c r="S5">
-        <v>28669790.34987761</v>
+        <v>122707471.4747665</v>
       </c>
       <c r="T5">
-        <v>40144104.27619005</v>
+        <v>177132077.328893</v>
       </c>
       <c r="U5">
-        <v>51661621.05407507</v>
+        <v>231648000.4687905</v>
       </c>
       <c r="V5">
-        <v>63224057.08373553</v>
+        <v>286272376.0224867</v>
       </c>
       <c r="W5">
-        <v>74832662.99921158</v>
+        <v>341028436.9300435</v>
       </c>
       <c r="X5">
-        <v>85981098.93532553</v>
+        <v>398746992.3786656</v>
       </c>
       <c r="Y5">
-        <v>97180381.12940769</v>
+        <v>456677905.3121305</v>
       </c>
       <c r="Z5">
-        <v>108436932.3546853</v>
+        <v>514889201.1002046</v>
       </c>
       <c r="AA5">
-        <v>119762682.3656053</v>
+        <v>573476053.7415509</v>
       </c>
       <c r="AB5">
-        <v>131177549.2463656</v>
+        <v>632568114.1070848</v>
       </c>
       <c r="AC5">
-        <v>133700974.5840271</v>
+        <v>650619100.3333588</v>
       </c>
       <c r="AD5">
-        <v>136386788.3344752</v>
+        <v>669566257.2556864</v>
       </c>
       <c r="AE5">
-        <v>139291527.3959019</v>
+        <v>689681248.5304974</v>
       </c>
       <c r="AF5">
-        <v>142485053.8941202</v>
+        <v>711287665.8540616</v>
       </c>
       <c r="AG5">
-        <v>146048474.9541995</v>
+        <v>734755181.9482658</v>
       </c>
       <c r="AH5">
-        <v>148365735.6060855</v>
+        <v>746057530.9570005</v>
       </c>
       <c r="AI5">
-        <v>151231495.1514673</v>
+        <v>760040694.2878187</v>
       </c>
       <c r="AJ5">
-        <v>154730624.1704558</v>
+        <v>777107041.9140394</v>
       </c>
       <c r="AK5">
-        <v>158934732.8080382</v>
+        <v>797610375.4053199</v>
       </c>
       <c r="AL5">
-        <v>163893853.324226</v>
+        <v>821817123.1202314</v>
       </c>
       <c r="AM5">
-        <v>169628556.7324247</v>
+        <v>855771574.7792501</v>
       </c>
       <c r="AN5">
-        <v>176123429.6476856</v>
+        <v>893547062.1758324</v>
       </c>
       <c r="AO5">
-        <v>183323016.1148472</v>
+        <v>934935450.3298366</v>
       </c>
       <c r="AP5">
-        <v>191131274.6249261</v>
+        <v>979534391.0800085</v>
       </c>
       <c r="AQ5">
-        <v>199415223.0359111</v>
+        <v>1026759270.189894</v>
       </c>
       <c r="AR5">
-        <v>208012938.8528917</v>
+        <v>1084079437.656301</v>
       </c>
       <c r="AS5">
-        <v>216745302.4104952</v>
+        <v>1142460577.747474</v>
       </c>
       <c r="AT5">
-        <v>225430201.1706707</v>
+        <v>1201038535.759017</v>
       </c>
       <c r="AU5">
-        <v>233897364.1182212</v>
+        <v>1258985366.729454</v>
       </c>
       <c r="AV5">
-        <v>243151539.3388096</v>
+        <v>1315574757.857614</v>
       </c>
       <c r="AW5">
-        <v>252259880.6105684</v>
+        <v>1372635842.588105</v>
       </c>
       <c r="AX5">
-        <v>260831995.4768955</v>
+        <v>1427395604.019021</v>
       </c>
       <c r="AY5">
-        <v>268849271.8510633</v>
+        <v>1479698888.406208</v>
       </c>
       <c r="AZ5">
-        <v>276338862.8056471</v>
+        <v>1529614980.400489</v>
       </c>
       <c r="BA5">
-        <v>283369305.8914266</v>
+        <v>1577426510.542795</v>
       </c>
       <c r="BB5">
-        <v>289875866.9432653</v>
+        <v>1622205095.356887</v>
       </c>
       <c r="BC5">
-        <v>296151190.8924221</v>
+        <v>1665958773.780459</v>
       </c>
       <c r="BD5">
-        <v>302331870.7054542</v>
+        <v>1709386344.541885</v>
       </c>
       <c r="BE5">
-        <v>308552627.94584</v>
+        <v>1753212656.498062</v>
       </c>
       <c r="BF5">
-        <v>314934648.9905807</v>
+        <v>1798128407.832464</v>
       </c>
       <c r="BG5">
-        <v>321411910.7857504</v>
+        <v>1843967639.835282</v>
       </c>
       <c r="BH5">
-        <v>328220214.4751627</v>
+        <v>1891982866.404148</v>
       </c>
       <c r="BI5">
-        <v>335401263.0185188</v>
+        <v>1942508851.161861</v>
       </c>
       <c r="BJ5">
-        <v>342968738.8272822</v>
+        <v>1995724126.523383</v>
       </c>
       <c r="BK5">
-        <v>350911492.9459249</v>
+        <v>2051652610.535528</v>
       </c>
       <c r="BL5">
-        <v>359073820.9181018</v>
+        <v>2110069102.791947</v>
       </c>
       <c r="BM5">
-        <v>367531813.4743761</v>
+        <v>2170834390.605282</v>
       </c>
       <c r="BN5">
-        <v>376226445.0343797</v>
+        <v>2233605181.678184</v>
       </c>
       <c r="BO5">
-        <v>385092314.2983446</v>
+        <v>2297970936.215168</v>
       </c>
       <c r="BP5">
-        <v>394062292.7482952</v>
+        <v>2363488115.04203</v>
       </c>
       <c r="BQ5">
-        <v>402985370.0630699</v>
+        <v>2429738599.082193</v>
       </c>
       <c r="BR5">
-        <v>411889576.5309514</v>
+        <v>2496288932.794456</v>
       </c>
       <c r="BS5">
-        <v>420725755.5714151</v>
+        <v>2562790113.503436</v>
       </c>
       <c r="BT5">
-        <v>429456313.5179808</v>
+        <v>2628974855.530534</v>
       </c>
       <c r="BU5">
-        <v>438056873.4786294</v>
+        <v>2694671888.044943</v>
       </c>
       <c r="BV5">
-        <v>446432906.5287081</v>
+        <v>2759592769.331662</v>
       </c>
       <c r="BW5">
-        <v>454672877.2403947</v>
+        <v>2823988737.985063</v>
       </c>
       <c r="BX5">
-        <v>462794528.4619945</v>
+        <v>2887982363.179764</v>
       </c>
       <c r="BY5">
-        <v>470827467.9493674</v>
+        <v>2951771068.425478</v>
       </c>
       <c r="BZ5">
-        <v>478810406.9718523</v>
+        <v>3015606444.215543</v>
       </c>
       <c r="CA5">
-        <v>486699026.0694172</v>
+        <v>3079379980.08349</v>
       </c>
       <c r="CB5">
-        <v>494627443.4594657</v>
+        <v>3143771782.892961</v>
       </c>
       <c r="CC5">
-        <v>502638505.3895</v>
+        <v>3209054912.63969</v>
       </c>
       <c r="CD5">
-        <v>510768695.9932156</v>
+        <v>3275466271.142034</v>
       </c>
       <c r="CE5">
-        <v>519045414.2364442</v>
+        <v>3343190867.182305</v>
       </c>
       <c r="CF5">
-        <v>527385544.5236456</v>
+        <v>3411680958.667377</v>
       </c>
       <c r="CG5">
-        <v>535894497.6153712</v>
+        <v>3481662893.143968</v>
       </c>
       <c r="CH5">
-        <v>544567265.8103569</v>
+        <v>3553126672.795613</v>
       </c>
       <c r="CI5">
-        <v>553389643.3467022</v>
+        <v>3626002491.952925</v>
       </c>
       <c r="CJ5">
-        <v>562340176.2113463</v>
+        <v>3700170762.96347</v>
       </c>
       <c r="CK5">
-        <v>571256004.9523993</v>
+        <v>3774422639.900125</v>
       </c>
       <c r="CL5">
-        <v>580244614.1679671</v>
+        <v>3849631615.915441</v>
       </c>
       <c r="CM5">
-        <v>589276810.6182642</v>
+        <v>3925611351.090847</v>
       </c>
       <c r="CN5">
-        <v>598325292.6275817</v>
+        <v>4002182332.903447</v>
       </c>
       <c r="CO5">
-        <v>607366416.3642324</v>
+        <v>4079184397.34267</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/Lifetime/Results_world_base_life_Min.xlsx
+++ b/Results/Baseline/Lifetime/Results_world_base_life_Min.xlsx
@@ -679,31 +679,31 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1072.373874491149</v>
+        <v>1072.37387449115</v>
       </c>
       <c r="E2">
-        <v>1397.73011970385</v>
+        <v>1397.730119703851</v>
       </c>
       <c r="F2">
-        <v>1397.031627798344</v>
+        <v>1397.031627798345</v>
       </c>
       <c r="G2">
         <v>1327.590969412265</v>
       </c>
       <c r="H2">
-        <v>1780.597773721523</v>
+        <v>1780.597773721524</v>
       </c>
       <c r="I2">
-        <v>1284.725912258199</v>
+        <v>1284.7259122582</v>
       </c>
       <c r="J2">
         <v>2324.625080083905</v>
       </c>
       <c r="K2">
-        <v>2311.609606929499</v>
+        <v>2311.6096069295</v>
       </c>
       <c r="L2">
-        <v>2058.411181797298</v>
+        <v>2058.411181797299</v>
       </c>
       <c r="M2">
         <v>1901.455711851288</v>
@@ -712,16 +712,16 @@
         <v>4070.010987434653</v>
       </c>
       <c r="O2">
-        <v>2490.436145986909</v>
+        <v>2490.436145986911</v>
       </c>
       <c r="P2">
-        <v>4975.54675684899</v>
+        <v>4975.546756848992</v>
       </c>
       <c r="Q2">
         <v>5356.238079114935</v>
       </c>
       <c r="R2">
-        <v>5726.937853245291</v>
+        <v>5726.937853245292</v>
       </c>
       <c r="S2">
         <v>12512.08236678371</v>
@@ -736,28 +736,28 @@
         <v>15310.38161680337</v>
       </c>
       <c r="W2">
-        <v>16285.53220692</v>
+        <v>16285.53220692001</v>
       </c>
       <c r="X2">
-        <v>16397.08394224583</v>
+        <v>16397.08394224584</v>
       </c>
       <c r="Y2">
-        <v>17320.12292895656</v>
+        <v>17320.12292895657</v>
       </c>
       <c r="Z2">
-        <v>18258.56367421243</v>
+        <v>18258.56367421244</v>
       </c>
       <c r="AA2">
-        <v>19166.01462993056</v>
+        <v>19166.01462993057</v>
       </c>
       <c r="AB2">
-        <v>20123.35243165829</v>
+        <v>20123.3524316583</v>
       </c>
       <c r="AC2">
-        <v>9663.057042433004</v>
+        <v>9663.057042433007</v>
       </c>
       <c r="AD2">
-        <v>9991.49481271195</v>
+        <v>9991.494812711951</v>
       </c>
       <c r="AE2">
         <v>10374.09756956074</v>
@@ -769,16 +769,16 @@
         <v>10975.96016470608</v>
       </c>
       <c r="AH2">
-        <v>7514.689765459631</v>
+        <v>7514.689765459633</v>
       </c>
       <c r="AI2">
-        <v>8133.71366963574</v>
+        <v>8133.713669635741</v>
       </c>
       <c r="AJ2">
-        <v>8748.139778199013</v>
+        <v>8748.139778199014</v>
       </c>
       <c r="AK2">
-        <v>9800.763977031189</v>
+        <v>9800.763977031191</v>
       </c>
       <c r="AL2">
         <v>11204.74498363686</v>
@@ -787,166 +787,166 @@
         <v>15053.15457487533</v>
       </c>
       <c r="AN2">
-        <v>17518.08986132502</v>
+        <v>17518.08986132504</v>
       </c>
       <c r="AO2">
-        <v>19060.05398536073</v>
+        <v>19060.05398536074</v>
       </c>
       <c r="AP2">
-        <v>20045.17974835873</v>
+        <v>20045.17974835874</v>
       </c>
       <c r="AQ2">
         <v>20909.08286616235</v>
       </c>
       <c r="AR2">
-        <v>24903.16018992295</v>
+        <v>24903.16018992296</v>
       </c>
       <c r="AS2">
-        <v>25600.25593945458</v>
+        <v>25600.2559394546</v>
       </c>
       <c r="AT2">
-        <v>26300.82205184953</v>
+        <v>26300.82205184955</v>
       </c>
       <c r="AU2">
-        <v>26660.6553759644</v>
+        <v>26660.65537596442</v>
       </c>
       <c r="AV2">
-        <v>26076.6911099267</v>
+        <v>26076.69110992671</v>
       </c>
       <c r="AW2">
-        <v>24686.74149987378</v>
+        <v>24686.74149987379</v>
       </c>
       <c r="AX2">
-        <v>22017.97669553811</v>
+        <v>22017.97669553812</v>
       </c>
       <c r="AY2">
-        <v>21200.67582481223</v>
+        <v>21200.67582481224</v>
       </c>
       <c r="AZ2">
-        <v>21307.18519446514</v>
+        <v>21307.18519446515</v>
       </c>
       <c r="BA2">
-        <v>21160.76913727244</v>
+        <v>21160.76913727245</v>
       </c>
       <c r="BB2">
-        <v>19693.38985203286</v>
+        <v>19693.38985203287</v>
       </c>
       <c r="BC2">
-        <v>19132.43988275844</v>
+        <v>19132.43988275845</v>
       </c>
       <c r="BD2">
-        <v>19503.40766641527</v>
+        <v>19503.40766641529</v>
       </c>
       <c r="BE2">
-        <v>20583.45892257623</v>
+        <v>20583.45892257624</v>
       </c>
       <c r="BF2">
         <v>22194.66141449579</v>
       </c>
       <c r="BG2">
-        <v>23758.39924256544</v>
+        <v>23758.39924256545</v>
       </c>
       <c r="BH2">
         <v>26250.97185823477</v>
       </c>
       <c r="BI2">
-        <v>28308.65310447558</v>
+        <v>28308.65310447559</v>
       </c>
       <c r="BJ2">
-        <v>29867.67819708808</v>
+        <v>29867.6781970881</v>
       </c>
       <c r="BK2">
-        <v>31348.07298804109</v>
+        <v>31348.07298804111</v>
       </c>
       <c r="BL2">
-        <v>32733.55852676531</v>
+        <v>32733.55852676533</v>
       </c>
       <c r="BM2">
-        <v>34493.91599636365</v>
+        <v>34493.91599636366</v>
       </c>
       <c r="BN2">
-        <v>35505.535283206</v>
+        <v>35505.53528320602</v>
       </c>
       <c r="BO2">
-        <v>35883.81691142748</v>
+        <v>35883.81691142749</v>
       </c>
       <c r="BP2">
-        <v>35691.72625755112</v>
+        <v>35691.72625755114</v>
       </c>
       <c r="BQ2">
-        <v>34627.67682837267</v>
+        <v>34627.67682837269</v>
       </c>
       <c r="BR2">
-        <v>33297.54749183558</v>
+        <v>33297.5474918356</v>
       </c>
       <c r="BS2">
-        <v>32107.32794683842</v>
+        <v>32107.32794683844</v>
       </c>
       <c r="BT2">
-        <v>31561.6070794988</v>
+        <v>31561.60707949882</v>
       </c>
       <c r="BU2">
-        <v>31331.25254896398</v>
+        <v>31331.252548964</v>
       </c>
       <c r="BV2">
-        <v>30717.26757958199</v>
+        <v>30717.26757958201</v>
       </c>
       <c r="BW2">
-        <v>30311.16249037089</v>
+        <v>30311.16249037091</v>
       </c>
       <c r="BX2">
-        <v>30442.19335836857</v>
+        <v>30442.19335836858</v>
       </c>
       <c r="BY2">
-        <v>31269.30307931092</v>
+        <v>31269.30307931094</v>
       </c>
       <c r="BZ2">
-        <v>32630.56462613314</v>
+        <v>32630.56462613315</v>
       </c>
       <c r="CA2">
-        <v>34132.00870267345</v>
+        <v>34132.00870267347</v>
       </c>
       <c r="CB2">
-        <v>36053.97470648385</v>
+        <v>36053.97470648387</v>
       </c>
       <c r="CC2">
-        <v>38054.55202523863</v>
+        <v>38054.55202523865</v>
       </c>
       <c r="CD2">
-        <v>39861.01736833101</v>
+        <v>39861.01736833103</v>
       </c>
       <c r="CE2">
-        <v>41446.69170639732</v>
+        <v>41446.69170639735</v>
       </c>
       <c r="CF2">
-        <v>42675.74019383219</v>
+        <v>42675.74019383221</v>
       </c>
       <c r="CG2">
-        <v>44070.13912861065</v>
+        <v>44070.13912861068</v>
       </c>
       <c r="CH2">
-        <v>45206.06613414158</v>
+        <v>45206.0661341416</v>
       </c>
       <c r="CI2">
-        <v>45805.24189583262</v>
+        <v>45805.24189583265</v>
       </c>
       <c r="CJ2">
-        <v>45794.70966571696</v>
+        <v>45794.70966571698</v>
       </c>
       <c r="CK2">
-        <v>44834.91029193866</v>
+        <v>44834.91029193868</v>
       </c>
       <c r="CL2">
-        <v>43895.15184659533</v>
+        <v>43895.15184659536</v>
       </c>
       <c r="CM2">
-        <v>42917.90311027105</v>
+        <v>42917.90311027108</v>
       </c>
       <c r="CN2">
-        <v>42184.0380882688</v>
+        <v>42184.03808826883</v>
       </c>
       <c r="CO2">
-        <v>41748.54603022619</v>
+        <v>41748.54603022621</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,28 +956,28 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.91124739014649</v>
+        <v>70.91124739014651</v>
       </c>
       <c r="E3">
-        <v>92.70500158204401</v>
+        <v>92.70500158204406</v>
       </c>
       <c r="F3">
-        <v>92.53982554733052</v>
+        <v>92.53982554733057</v>
       </c>
       <c r="G3">
-        <v>87.87484380016343</v>
+        <v>87.87484380016348</v>
       </c>
       <c r="H3">
-        <v>118.398417739643</v>
+        <v>118.3984177396431</v>
       </c>
       <c r="I3">
-        <v>85.08204867090255</v>
+        <v>85.08204867090259</v>
       </c>
       <c r="J3">
-        <v>154.8130776054375</v>
+        <v>154.8130776054376</v>
       </c>
       <c r="K3">
-        <v>153.7869514538161</v>
+        <v>153.7869514538162</v>
       </c>
       <c r="L3">
         <v>136.8280362575191</v>
@@ -998,16 +998,16 @@
         <v>358.1634799391416</v>
       </c>
       <c r="R3">
-        <v>383.0428350747089</v>
+        <v>383.042835074709</v>
       </c>
       <c r="S3">
         <v>838.6005569577648</v>
       </c>
       <c r="T3">
-        <v>899.9248120558132</v>
+        <v>899.9248120558134</v>
       </c>
       <c r="U3">
-        <v>962.2987289860444</v>
+        <v>962.2987289860446</v>
       </c>
       <c r="V3">
         <v>1026.522512639116</v>
@@ -1028,10 +1028,10 @@
         <v>1285.628267841386</v>
       </c>
       <c r="AB3">
-        <v>1350.037133737828</v>
+        <v>1350.037133737829</v>
       </c>
       <c r="AC3">
-        <v>647.5721933183137</v>
+        <v>647.5721933183138</v>
       </c>
       <c r="AD3">
         <v>669.526783918712</v>
@@ -1040,19 +1040,19 @@
         <v>695.2682577772957</v>
       </c>
       <c r="AF3">
-        <v>713.210029492169</v>
+        <v>713.2100294921692</v>
       </c>
       <c r="AG3">
-        <v>735.752032137933</v>
+        <v>735.7520321379332</v>
       </c>
       <c r="AH3">
-        <v>503.4660975158289</v>
+        <v>503.4660975158288</v>
       </c>
       <c r="AI3">
         <v>545.2712455528898</v>
       </c>
       <c r="AJ3">
-        <v>586.9684537731002</v>
+        <v>586.9684537731005</v>
       </c>
       <c r="AK3">
         <v>658.3459520437536</v>
@@ -1079,19 +1079,19 @@
         <v>1678.551565381215</v>
       </c>
       <c r="AS3">
-        <v>1725.817953132386</v>
+        <v>1725.817953132387</v>
       </c>
       <c r="AT3">
         <v>1774.056384195977</v>
       </c>
       <c r="AU3">
-        <v>1799.949479940971</v>
+        <v>1799.949479940972</v>
       </c>
       <c r="AV3">
         <v>1759.482530182979</v>
       </c>
       <c r="AW3">
-        <v>1663.171188687445</v>
+        <v>1663.171188687446</v>
       </c>
       <c r="AX3">
         <v>1480.552439428979</v>
@@ -1103,7 +1103,7 @@
         <v>1431.149893651275</v>
       </c>
       <c r="BA3">
-        <v>1420.855470174374</v>
+        <v>1420.855470174375</v>
       </c>
       <c r="BB3">
         <v>1321.813330130237</v>
@@ -1127,7 +1127,7 @@
         <v>1768.475376335078</v>
       </c>
       <c r="BI3">
-        <v>1908.391340662781</v>
+        <v>1908.391340662782</v>
       </c>
       <c r="BJ3">
         <v>2014.496853834482</v>
@@ -1136,13 +1136,13 @@
         <v>2115.725203871159</v>
       </c>
       <c r="BL3">
-        <v>2211.350799830325</v>
+        <v>2211.350799830326</v>
       </c>
       <c r="BM3">
-        <v>2331.327429565635</v>
+        <v>2331.327429565636</v>
       </c>
       <c r="BN3">
-        <v>2398.85816641544</v>
+        <v>2398.858166415441</v>
       </c>
       <c r="BO3">
         <v>2422.95938669616</v>
@@ -1151,16 +1151,16 @@
         <v>2408.154928489769</v>
       </c>
       <c r="BQ3">
-        <v>2334.07409814318</v>
+        <v>2334.074098143181</v>
       </c>
       <c r="BR3">
-        <v>2241.885882562733</v>
+        <v>2241.885882562734</v>
       </c>
       <c r="BS3">
-        <v>2159.808659714262</v>
+        <v>2159.808659714263</v>
       </c>
       <c r="BT3">
-        <v>2122.156109580928</v>
+        <v>2122.156109580929</v>
       </c>
       <c r="BU3">
         <v>2106.339754630997</v>
@@ -1187,7 +1187,7 @@
         <v>2431.448595860956</v>
       </c>
       <c r="CC3">
-        <v>2569.326249763149</v>
+        <v>2569.32624976315</v>
       </c>
       <c r="CD3">
         <v>2693.54604194142</v>
@@ -1196,25 +1196,25 @@
         <v>2801.21414216088</v>
       </c>
       <c r="CF3">
-        <v>2883.753401727607</v>
+        <v>2883.753401727608</v>
       </c>
       <c r="CG3">
-        <v>2976.900893939906</v>
+        <v>2976.900893939907</v>
       </c>
       <c r="CH3">
         <v>3052.161771546927</v>
       </c>
       <c r="CI3">
-        <v>3090.72540504576</v>
+        <v>3090.725405045761</v>
       </c>
       <c r="CJ3">
         <v>3087.985073013786</v>
       </c>
       <c r="CK3">
-        <v>3021.466675259153</v>
+        <v>3021.466675259154</v>
       </c>
       <c r="CL3">
-        <v>2956.431608188964</v>
+        <v>2956.431608188965</v>
       </c>
       <c r="CM3">
         <v>2889.212592497669</v>
@@ -1223,7 +1223,7 @@
         <v>2838.892662785518</v>
       </c>
       <c r="CO3">
-        <v>2809.195503291899</v>
+        <v>2809.1955032919</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1248,13 +1248,13 @@
         <v>1624319.753844372</v>
       </c>
       <c r="I4">
-        <v>1544497.383707435</v>
+        <v>1544497.383707436</v>
       </c>
       <c r="J4">
-        <v>1680352.060849322</v>
+        <v>1680352.060849323</v>
       </c>
       <c r="K4">
-        <v>1544436.16825248</v>
+        <v>1544436.168252481</v>
       </c>
       <c r="L4">
         <v>1539632.871095464</v>
@@ -1263,7 +1263,7 @@
         <v>2062866.995901393</v>
       </c>
       <c r="N4">
-        <v>1982943.027974252</v>
+        <v>1982943.027974251</v>
       </c>
       <c r="O4">
         <v>1977433.52891767</v>
@@ -1281,10 +1281,10 @@
         <v>31346381.60078163</v>
       </c>
       <c r="T4">
-        <v>31434058.19355349</v>
+        <v>31434058.1935535</v>
       </c>
       <c r="U4">
-        <v>31530328.61320518</v>
+        <v>31530328.61320517</v>
       </c>
       <c r="V4">
         <v>31638593.91209295</v>
@@ -1293,13 +1293,13 @@
         <v>31751126.67332055</v>
       </c>
       <c r="X4">
-        <v>32705068.83671846</v>
+        <v>32705068.83671845</v>
       </c>
       <c r="Y4">
         <v>32824733.992457</v>
       </c>
       <c r="Z4">
-        <v>32954563.23460107</v>
+        <v>32954563.23460106</v>
       </c>
       <c r="AA4">
         <v>33107401.98981949</v>
@@ -1323,16 +1323,16 @@
         <v>10903771.98552297</v>
       </c>
       <c r="AH4">
-        <v>3537279.823616583</v>
+        <v>3537279.823616582</v>
       </c>
       <c r="AI4">
-        <v>4218116.132766244</v>
+        <v>4218116.132766243</v>
       </c>
       <c r="AJ4">
         <v>5132803.330663079</v>
       </c>
       <c r="AK4">
-        <v>6336331.69868101</v>
+        <v>6336331.698681012</v>
       </c>
       <c r="AL4">
         <v>7658758.673808551</v>
@@ -1353,10 +1353,10 @@
         <v>16824664.33864639</v>
       </c>
       <c r="AR4">
-        <v>22245086.17041712</v>
+        <v>22245086.17041711</v>
       </c>
       <c r="AS4">
-        <v>22426917.33226267</v>
+        <v>22426917.33226266</v>
       </c>
       <c r="AT4">
         <v>22432491.35557772</v>
@@ -1368,10 +1368,10 @@
         <v>21480054.51213252</v>
       </c>
       <c r="AW4">
-        <v>21586560.45610342</v>
+        <v>21586560.45610341</v>
       </c>
       <c r="AX4">
-        <v>20148566.23603553</v>
+        <v>20148566.23603554</v>
       </c>
       <c r="AY4">
         <v>19247218.69660724</v>
@@ -1410,25 +1410,25 @@
         <v>21313566.05727978</v>
       </c>
       <c r="BK4">
-        <v>22104533.8900356</v>
+        <v>22104533.89003559</v>
       </c>
       <c r="BL4">
         <v>22769378.62236677</v>
       </c>
       <c r="BM4">
-        <v>23485259.98516439</v>
+        <v>23485259.98516438</v>
       </c>
       <c r="BN4">
         <v>23938970.27027962</v>
       </c>
       <c r="BO4">
-        <v>24147820.17159694</v>
+        <v>24147820.17159695</v>
       </c>
       <c r="BP4">
         <v>24106791.16916629</v>
       </c>
       <c r="BQ4">
-        <v>23767073.18623966</v>
+        <v>23767073.18623965</v>
       </c>
       <c r="BR4">
         <v>23255623.22083038</v>
@@ -1440,16 +1440,16 @@
         <v>22513442.74228181</v>
       </c>
       <c r="BU4">
-        <v>22351448.58683594</v>
+        <v>22351448.58683593</v>
       </c>
       <c r="BV4">
-        <v>22020827.35374447</v>
+        <v>22020827.35374446</v>
       </c>
       <c r="BW4">
-        <v>21829735.87213953</v>
+        <v>21829735.87213952</v>
       </c>
       <c r="BX4">
-        <v>21731852.73189611</v>
+        <v>21731852.7318961</v>
       </c>
       <c r="BY4">
         <v>21878360.32475173</v>
@@ -1464,31 +1464,31 @@
         <v>23384370.55862211</v>
       </c>
       <c r="CC4">
-        <v>24093816.05285225</v>
+        <v>24093816.05285224</v>
       </c>
       <c r="CD4">
-        <v>24720963.16372762</v>
+        <v>24720963.16372761</v>
       </c>
       <c r="CE4">
-        <v>25249204.11217924</v>
+        <v>25249204.11217923</v>
       </c>
       <c r="CF4">
-        <v>25362114.75606243</v>
+        <v>25362114.75606242</v>
       </c>
       <c r="CG4">
-        <v>25799068.67806806</v>
+        <v>25799068.67806805</v>
       </c>
       <c r="CH4">
         <v>26152469.96482579</v>
       </c>
       <c r="CI4">
-        <v>26355037.88191808</v>
+        <v>26355037.88191809</v>
       </c>
       <c r="CJ4">
         <v>26385560.31508645</v>
       </c>
       <c r="CK4">
-        <v>25688302.89111708</v>
+        <v>25688302.89111707</v>
       </c>
       <c r="CL4">
         <v>25445898.45172931</v>
@@ -1500,7 +1500,7 @@
         <v>25240580.48175715</v>
       </c>
       <c r="CO4">
-        <v>25263766.67022805</v>
+        <v>25263766.67022804</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2150342.287831458</v>
+        <v>2150342.287831459</v>
       </c>
       <c r="E5">
         <v>1440641.974271039</v>
@@ -1540,10 +1540,10 @@
         <v>1573380.696318417</v>
       </c>
       <c r="N5">
-        <v>1665942.493873482</v>
+        <v>1665942.493873483</v>
       </c>
       <c r="O5">
-        <v>2164842.236706774</v>
+        <v>2164842.236706775</v>
       </c>
       <c r="P5">
         <v>16378591.24583179</v>
@@ -1558,7 +1558,7 @@
         <v>54346972.91804177</v>
       </c>
       <c r="T5">
-        <v>54424605.85412651</v>
+        <v>54424605.85412652</v>
       </c>
       <c r="U5">
         <v>54515923.13989751</v>
@@ -1567,7 +1567,7 @@
         <v>54624375.55369617</v>
       </c>
       <c r="W5">
-        <v>54756060.90755674</v>
+        <v>54756060.90755673</v>
       </c>
       <c r="X5">
         <v>57718555.44862213</v>
@@ -1579,13 +1579,13 @@
         <v>58211295.78807408</v>
       </c>
       <c r="AA5">
-        <v>58586852.64134628</v>
+        <v>58586852.64134627</v>
       </c>
       <c r="AB5">
         <v>59092060.36553384</v>
       </c>
       <c r="AC5">
-        <v>18050986.226274</v>
+        <v>18050986.22627399</v>
       </c>
       <c r="AD5">
         <v>18947156.92232763</v>
@@ -1603,7 +1603,7 @@
         <v>11302349.00873467</v>
       </c>
       <c r="AI5">
-        <v>13983163.3308182</v>
+        <v>13983163.33081819</v>
       </c>
       <c r="AJ5">
         <v>17066347.62622076</v>
@@ -1618,55 +1618,55 @@
         <v>33954451.65901872</v>
       </c>
       <c r="AN5">
-        <v>37775487.39658225</v>
+        <v>37775487.39658224</v>
       </c>
       <c r="AO5">
         <v>41388388.15400425</v>
       </c>
       <c r="AP5">
-        <v>44598940.75017184</v>
+        <v>44598940.75017183</v>
       </c>
       <c r="AQ5">
         <v>47224879.10988516</v>
       </c>
       <c r="AR5">
-        <v>57320167.46640705</v>
+        <v>57320167.46640703</v>
       </c>
       <c r="AS5">
         <v>58381140.0911729</v>
       </c>
       <c r="AT5">
-        <v>58577958.01154337</v>
+        <v>58577958.01154336</v>
       </c>
       <c r="AU5">
-        <v>57946830.97043698</v>
+        <v>57946830.97043697</v>
       </c>
       <c r="AV5">
-        <v>56589391.12816014</v>
+        <v>56589391.12816013</v>
       </c>
       <c r="AW5">
-        <v>57061084.73049114</v>
+        <v>57061084.73049113</v>
       </c>
       <c r="AX5">
-        <v>54759761.43091525</v>
+        <v>54759761.43091524</v>
       </c>
       <c r="AY5">
-        <v>52303284.38718721</v>
+        <v>52303284.3871872</v>
       </c>
       <c r="AZ5">
-        <v>49916091.9942808</v>
+        <v>49916091.99428079</v>
       </c>
       <c r="BA5">
         <v>47811530.14230615</v>
       </c>
       <c r="BB5">
-        <v>44778584.81409178</v>
+        <v>44778584.81409177</v>
       </c>
       <c r="BC5">
-        <v>43753678.4235727</v>
+        <v>43753678.42357269</v>
       </c>
       <c r="BD5">
-        <v>43427570.76142555</v>
+        <v>43427570.76142553</v>
       </c>
       <c r="BE5">
         <v>43826311.95617687</v>
@@ -1675,109 +1675,109 @@
         <v>44915751.33440275</v>
       </c>
       <c r="BG5">
-        <v>45839232.00281735</v>
+        <v>45839232.00281733</v>
       </c>
       <c r="BH5">
-        <v>48015226.56886657</v>
+        <v>48015226.56886656</v>
       </c>
       <c r="BI5">
-        <v>50525984.75771311</v>
+        <v>50525984.7577131</v>
       </c>
       <c r="BJ5">
-        <v>53215275.3615213</v>
+        <v>53215275.36152128</v>
       </c>
       <c r="BK5">
         <v>55928484.01214515</v>
       </c>
       <c r="BL5">
-        <v>58416492.25641885</v>
+        <v>58416492.25641884</v>
       </c>
       <c r="BM5">
-        <v>60765287.81333553</v>
+        <v>60765287.81333552</v>
       </c>
       <c r="BN5">
-        <v>62770791.07290171</v>
+        <v>62770791.0729017</v>
       </c>
       <c r="BO5">
-        <v>64365754.53698423</v>
+        <v>64365754.53698421</v>
       </c>
       <c r="BP5">
-        <v>65517178.82686125</v>
+        <v>65517178.82686123</v>
       </c>
       <c r="BQ5">
-        <v>66250484.04016297</v>
+        <v>66250484.04016295</v>
       </c>
       <c r="BR5">
-        <v>66550333.71226293</v>
+        <v>66550333.71226291</v>
       </c>
       <c r="BS5">
-        <v>66501180.70898025</v>
+        <v>66501180.70898023</v>
       </c>
       <c r="BT5">
-        <v>66184742.02709807</v>
+        <v>66184742.02709806</v>
       </c>
       <c r="BU5">
-        <v>65697032.51440839</v>
+        <v>65697032.51440838</v>
       </c>
       <c r="BV5">
-        <v>64920881.28671881</v>
+        <v>64920881.28671879</v>
       </c>
       <c r="BW5">
-        <v>64395968.65340099</v>
+        <v>64395968.65340097</v>
       </c>
       <c r="BX5">
-        <v>63993625.19470124</v>
+        <v>63993625.19470123</v>
       </c>
       <c r="BY5">
-        <v>63788705.24571463</v>
+        <v>63788705.24571461</v>
       </c>
       <c r="BZ5">
-        <v>63835375.79006504</v>
+        <v>63835375.79006502</v>
       </c>
       <c r="CA5">
-        <v>63773535.86794692</v>
+        <v>63773535.86794691</v>
       </c>
       <c r="CB5">
-        <v>64391802.80947018</v>
+        <v>64391802.80947016</v>
       </c>
       <c r="CC5">
-        <v>65283129.74672952</v>
+        <v>65283129.74672949</v>
       </c>
       <c r="CD5">
-        <v>66411358.50234376</v>
+        <v>66411358.50234374</v>
       </c>
       <c r="CE5">
-        <v>67724596.04027189</v>
+        <v>67724596.04027188</v>
       </c>
       <c r="CF5">
-        <v>68490091.485071</v>
+        <v>68490091.48507097</v>
       </c>
       <c r="CG5">
-        <v>69981934.47659098</v>
+        <v>69981934.47659095</v>
       </c>
       <c r="CH5">
-        <v>71463779.65164584</v>
+        <v>71463779.65164581</v>
       </c>
       <c r="CI5">
-        <v>72875819.15731166</v>
+        <v>72875819.15731165</v>
       </c>
       <c r="CJ5">
-        <v>74168271.01054494</v>
+        <v>74168271.01054491</v>
       </c>
       <c r="CK5">
-        <v>74251876.93665504</v>
+        <v>74251876.93665503</v>
       </c>
       <c r="CL5">
-        <v>75208976.01531665</v>
+        <v>75208976.01531664</v>
       </c>
       <c r="CM5">
-        <v>75979735.17540646</v>
+        <v>75979735.17540643</v>
       </c>
       <c r="CN5">
-        <v>76570981.81259938</v>
+        <v>76570981.81259935</v>
       </c>
       <c r="CO5">
-        <v>77002064.43922363</v>
+        <v>77002064.43922362</v>
       </c>
     </row>
   </sheetData>
@@ -2080,61 +2080,61 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1072.373874491149</v>
+        <v>1072.37387449115</v>
       </c>
       <c r="E2">
-        <v>2470.103994194999</v>
+        <v>2470.103994195</v>
       </c>
       <c r="F2">
-        <v>3867.135621993344</v>
+        <v>3867.135621993345</v>
       </c>
       <c r="G2">
-        <v>5194.726591405608</v>
+        <v>5194.726591405611</v>
       </c>
       <c r="H2">
-        <v>6975.324365127131</v>
+        <v>6975.324365127135</v>
       </c>
       <c r="I2">
-        <v>8260.050277385331</v>
+        <v>8260.050277385335</v>
       </c>
       <c r="J2">
         <v>10584.67535746924</v>
       </c>
       <c r="K2">
-        <v>12896.28496439873</v>
+        <v>12896.28496439874</v>
       </c>
       <c r="L2">
-        <v>14954.69614619603</v>
+        <v>14954.69614619604</v>
       </c>
       <c r="M2">
-        <v>16856.15185804732</v>
+        <v>16856.15185804733</v>
       </c>
       <c r="N2">
-        <v>20926.16284548197</v>
+        <v>20926.16284548198</v>
       </c>
       <c r="O2">
-        <v>23416.59899146888</v>
+        <v>23416.59899146889</v>
       </c>
       <c r="P2">
-        <v>28392.14574831787</v>
+        <v>28392.14574831788</v>
       </c>
       <c r="Q2">
-        <v>33748.38382743281</v>
+        <v>33748.38382743282</v>
       </c>
       <c r="R2">
-        <v>39475.3216806781</v>
+        <v>39475.32168067811</v>
       </c>
       <c r="S2">
-        <v>51987.40404746181</v>
+        <v>51987.40404746182</v>
       </c>
       <c r="T2">
-        <v>65412.78698979288</v>
+        <v>65412.78698979289</v>
       </c>
       <c r="U2">
-        <v>79767.0460593833</v>
+        <v>79767.04605938331</v>
       </c>
       <c r="V2">
-        <v>95077.42767618666</v>
+        <v>95077.42767618669</v>
       </c>
       <c r="W2">
         <v>111362.9598831067</v>
@@ -2149,124 +2149,124 @@
         <v>163338.7304285215</v>
       </c>
       <c r="AA2">
-        <v>182504.745058452</v>
+        <v>182504.7450584521</v>
       </c>
       <c r="AB2">
-        <v>202628.0974901103</v>
+        <v>202628.0974901104</v>
       </c>
       <c r="AC2">
-        <v>212291.1545325433</v>
+        <v>212291.1545325434</v>
       </c>
       <c r="AD2">
-        <v>222282.6493452553</v>
+        <v>222282.6493452554</v>
       </c>
       <c r="AE2">
-        <v>232656.746914816</v>
+        <v>232656.7469148161</v>
       </c>
       <c r="AF2">
-        <v>243296.417091394</v>
+        <v>243296.4170913941</v>
       </c>
       <c r="AG2">
-        <v>254272.3772561</v>
+        <v>254272.3772561002</v>
       </c>
       <c r="AH2">
-        <v>261787.0670215597</v>
+        <v>261787.0670215598</v>
       </c>
       <c r="AI2">
-        <v>269920.7806911954</v>
+        <v>269920.7806911955</v>
       </c>
       <c r="AJ2">
-        <v>278668.9204693944</v>
+        <v>278668.9204693945</v>
       </c>
       <c r="AK2">
-        <v>288469.6844464256</v>
+        <v>288469.6844464257</v>
       </c>
       <c r="AL2">
-        <v>299674.4294300624</v>
+        <v>299674.4294300625</v>
       </c>
       <c r="AM2">
-        <v>314727.5840049377</v>
+        <v>314727.5840049378</v>
       </c>
       <c r="AN2">
-        <v>332245.6738662628</v>
+        <v>332245.6738662629</v>
       </c>
       <c r="AO2">
-        <v>351305.7278516235</v>
+        <v>351305.7278516236</v>
       </c>
       <c r="AP2">
-        <v>371350.9075999822</v>
+        <v>371350.9075999823</v>
       </c>
       <c r="AQ2">
-        <v>392259.9904661446</v>
+        <v>392259.9904661447</v>
       </c>
       <c r="AR2">
-        <v>417163.1506560675</v>
+        <v>417163.1506560676</v>
       </c>
       <c r="AS2">
-        <v>442763.4065955221</v>
+        <v>442763.4065955222</v>
       </c>
       <c r="AT2">
-        <v>469064.2286473716</v>
+        <v>469064.2286473718</v>
       </c>
       <c r="AU2">
-        <v>495724.8840233361</v>
+        <v>495724.8840233362</v>
       </c>
       <c r="AV2">
-        <v>521801.5751332627</v>
+        <v>521801.575133263</v>
       </c>
       <c r="AW2">
-        <v>546488.3166331365</v>
+        <v>546488.3166331367</v>
       </c>
       <c r="AX2">
-        <v>568506.2933286746</v>
+        <v>568506.2933286749</v>
       </c>
       <c r="AY2">
-        <v>589706.9691534869</v>
+        <v>589706.9691534871</v>
       </c>
       <c r="AZ2">
-        <v>611014.154347952</v>
+        <v>611014.1543479522</v>
       </c>
       <c r="BA2">
-        <v>632174.9234852245</v>
+        <v>632174.9234852247</v>
       </c>
       <c r="BB2">
-        <v>651868.3133372574</v>
+        <v>651868.3133372576</v>
       </c>
       <c r="BC2">
-        <v>671000.7532200158</v>
+        <v>671000.753220016</v>
       </c>
       <c r="BD2">
-        <v>690504.1608864311</v>
+        <v>690504.1608864313</v>
       </c>
       <c r="BE2">
-        <v>711087.6198090074</v>
+        <v>711087.6198090076</v>
       </c>
       <c r="BF2">
-        <v>733282.2812235032</v>
+        <v>733282.2812235034</v>
       </c>
       <c r="BG2">
-        <v>757040.6804660687</v>
+        <v>757040.6804660689</v>
       </c>
       <c r="BH2">
-        <v>783291.6523243034</v>
+        <v>783291.6523243036</v>
       </c>
       <c r="BI2">
-        <v>811600.305428779</v>
+        <v>811600.3054287792</v>
       </c>
       <c r="BJ2">
-        <v>841467.9836258671</v>
+        <v>841467.9836258673</v>
       </c>
       <c r="BK2">
-        <v>872816.0566139081</v>
+        <v>872816.0566139084</v>
       </c>
       <c r="BL2">
-        <v>905549.6151406735</v>
+        <v>905549.6151406737</v>
       </c>
       <c r="BM2">
-        <v>940043.5311370371</v>
+        <v>940043.5311370373</v>
       </c>
       <c r="BN2">
-        <v>975549.0664202431</v>
+        <v>975549.0664202434</v>
       </c>
       <c r="BO2">
         <v>1011432.883331671</v>
@@ -2275,7 +2275,7 @@
         <v>1047124.609589222</v>
       </c>
       <c r="BQ2">
-        <v>1081752.286417594</v>
+        <v>1081752.286417595</v>
       </c>
       <c r="BR2">
         <v>1115049.83390943</v>
@@ -2284,16 +2284,16 @@
         <v>1147157.161856269</v>
       </c>
       <c r="BT2">
-        <v>1178718.768935767</v>
+        <v>1178718.768935768</v>
       </c>
       <c r="BU2">
-        <v>1210050.021484731</v>
+        <v>1210050.021484732</v>
       </c>
       <c r="BV2">
-        <v>1240767.289064313</v>
+        <v>1240767.289064314</v>
       </c>
       <c r="BW2">
-        <v>1271078.451554684</v>
+        <v>1271078.451554685</v>
       </c>
       <c r="BX2">
         <v>1301520.644913053</v>
@@ -2305,10 +2305,10 @@
         <v>1365420.512618497</v>
       </c>
       <c r="CA2">
-        <v>1399552.52132117</v>
+        <v>1399552.521321171</v>
       </c>
       <c r="CB2">
-        <v>1435606.496027654</v>
+        <v>1435606.496027655</v>
       </c>
       <c r="CC2">
         <v>1473661.048052893</v>
@@ -2317,37 +2317,37 @@
         <v>1513522.065421224</v>
       </c>
       <c r="CE2">
-        <v>1554968.757127621</v>
+        <v>1554968.757127622</v>
       </c>
       <c r="CF2">
-        <v>1597644.497321453</v>
+        <v>1597644.497321454</v>
       </c>
       <c r="CG2">
-        <v>1641714.636450064</v>
+        <v>1641714.636450065</v>
       </c>
       <c r="CH2">
-        <v>1686920.702584205</v>
+        <v>1686920.702584206</v>
       </c>
       <c r="CI2">
-        <v>1732725.944480038</v>
+        <v>1732725.944480039</v>
       </c>
       <c r="CJ2">
-        <v>1778520.654145755</v>
+        <v>1778520.654145756</v>
       </c>
       <c r="CK2">
-        <v>1823355.564437693</v>
+        <v>1823355.564437694</v>
       </c>
       <c r="CL2">
-        <v>1867250.716284289</v>
+        <v>1867250.71628429</v>
       </c>
       <c r="CM2">
-        <v>1910168.61939456</v>
+        <v>1910168.619394561</v>
       </c>
       <c r="CN2">
-        <v>1952352.657482829</v>
+        <v>1952352.65748283</v>
       </c>
       <c r="CO2">
-        <v>1994101.203513055</v>
+        <v>1994101.203513056</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,70 +2357,70 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.91124739014649</v>
+        <v>70.91124739014651</v>
       </c>
       <c r="E3">
-        <v>163.6162489721905</v>
+        <v>163.6162489721906</v>
       </c>
       <c r="F3">
-        <v>256.156074519521</v>
+        <v>256.1560745195212</v>
       </c>
       <c r="G3">
-        <v>344.0309183196844</v>
+        <v>344.0309183196846</v>
       </c>
       <c r="H3">
-        <v>462.4293360593274</v>
+        <v>462.4293360593277</v>
       </c>
       <c r="I3">
-        <v>547.5113847302299</v>
+        <v>547.5113847302304</v>
       </c>
       <c r="J3">
-        <v>702.3244623356675</v>
+        <v>702.3244623356679</v>
       </c>
       <c r="K3">
-        <v>856.1114137894835</v>
+        <v>856.1114137894841</v>
       </c>
       <c r="L3">
-        <v>992.9394500470027</v>
+        <v>992.9394500470032</v>
       </c>
       <c r="M3">
-        <v>1119.154640653569</v>
+        <v>1119.15464065357</v>
       </c>
       <c r="N3">
         <v>1390.937251561466</v>
       </c>
       <c r="O3">
-        <v>1556.767226332242</v>
+        <v>1556.767226332243</v>
       </c>
       <c r="P3">
         <v>1889.389467981471</v>
       </c>
       <c r="Q3">
-        <v>2247.552947920612</v>
+        <v>2247.552947920613</v>
       </c>
       <c r="R3">
-        <v>2630.595782995321</v>
+        <v>2630.595782995322</v>
       </c>
       <c r="S3">
         <v>3469.196339953086</v>
       </c>
       <c r="T3">
-        <v>4369.121152008899</v>
+        <v>4369.1211520089</v>
       </c>
       <c r="U3">
-        <v>5331.419880994943</v>
+        <v>5331.419880994945</v>
       </c>
       <c r="V3">
-        <v>6357.942393634059</v>
+        <v>6357.942393634061</v>
       </c>
       <c r="W3">
-        <v>7449.969790487917</v>
+        <v>7449.969790487919</v>
       </c>
       <c r="X3">
-        <v>8549.468628304066</v>
+        <v>8549.468628304068</v>
       </c>
       <c r="Y3">
-        <v>9710.980073660396</v>
+        <v>9710.980073660397</v>
       </c>
       <c r="Z3">
         <v>10935.55941774367</v>
@@ -2429,7 +2429,7 @@
         <v>12221.18768558506</v>
       </c>
       <c r="AB3">
-        <v>13571.22481932288</v>
+        <v>13571.22481932289</v>
       </c>
       <c r="AC3">
         <v>14218.7970126412</v>
@@ -2456,7 +2456,7 @@
         <v>18668.25991280913</v>
       </c>
       <c r="AK3">
-        <v>19326.60586485288</v>
+        <v>19326.60586485289</v>
       </c>
       <c r="AL3">
         <v>20080.09925460645</v>
@@ -2468,13 +2468,13 @@
         <v>22273.82257513293</v>
       </c>
       <c r="AO3">
-        <v>23558.73503072971</v>
+        <v>23558.73503072972</v>
       </c>
       <c r="AP3">
         <v>24910.26837180374</v>
       </c>
       <c r="AQ3">
-        <v>26320.22378109023</v>
+        <v>26320.22378109024</v>
       </c>
       <c r="AR3">
         <v>27998.77534647145</v>
@@ -2483,7 +2483,7 @@
         <v>29724.59329960384</v>
       </c>
       <c r="AT3">
-        <v>31498.64968379981</v>
+        <v>31498.64968379982</v>
       </c>
       <c r="AU3">
         <v>33298.59916374079</v>
@@ -2510,7 +2510,7 @@
         <v>43799.98419064362</v>
       </c>
       <c r="BC3">
-        <v>45083.81723666328</v>
+        <v>45083.81723666329</v>
       </c>
       <c r="BD3">
         <v>46392.92528734513</v>
@@ -2519,76 +2519,76 @@
         <v>47775.51598313372</v>
       </c>
       <c r="BF3">
-        <v>49267.70254846253</v>
+        <v>49267.70254846254</v>
       </c>
       <c r="BG3">
-        <v>50866.73064919841</v>
+        <v>50866.73064919842</v>
       </c>
       <c r="BH3">
         <v>52635.20602553349</v>
       </c>
       <c r="BI3">
-        <v>54543.59736619627</v>
+        <v>54543.59736619628</v>
       </c>
       <c r="BJ3">
-        <v>56558.09422003075</v>
+        <v>56558.09422003076</v>
       </c>
       <c r="BK3">
-        <v>58673.81942390191</v>
+        <v>58673.81942390192</v>
       </c>
       <c r="BL3">
-        <v>60885.17022373224</v>
+        <v>60885.17022373225</v>
       </c>
       <c r="BM3">
         <v>63216.49765329788</v>
       </c>
       <c r="BN3">
-        <v>65615.35581971331</v>
+        <v>65615.35581971332</v>
       </c>
       <c r="BO3">
-        <v>68038.31520640948</v>
+        <v>68038.31520640949</v>
       </c>
       <c r="BP3">
-        <v>70446.47013489924</v>
+        <v>70446.47013489925</v>
       </c>
       <c r="BQ3">
-        <v>72780.54423304241</v>
+        <v>72780.54423304243</v>
       </c>
       <c r="BR3">
-        <v>75022.43011560515</v>
+        <v>75022.43011560517</v>
       </c>
       <c r="BS3">
-        <v>77182.23877531942</v>
+        <v>77182.23877531943</v>
       </c>
       <c r="BT3">
-        <v>79304.39488490035</v>
+        <v>79304.39488490036</v>
       </c>
       <c r="BU3">
-        <v>81410.73463953135</v>
+        <v>81410.73463953137</v>
       </c>
       <c r="BV3">
-        <v>83475.59668433006</v>
+        <v>83475.59668433007</v>
       </c>
       <c r="BW3">
-        <v>85513.04871479202</v>
+        <v>85513.04871479204</v>
       </c>
       <c r="BX3">
-        <v>87559.65540514109</v>
+        <v>87559.65540514111</v>
       </c>
       <c r="BY3">
-        <v>89662.84268496263</v>
+        <v>89662.84268496264</v>
       </c>
       <c r="BZ3">
-        <v>91859.12458091012</v>
+        <v>91859.12458091014</v>
       </c>
       <c r="CA3">
-        <v>94158.52106804197</v>
+        <v>94158.52106804198</v>
       </c>
       <c r="CB3">
-        <v>96589.96966390293</v>
+        <v>96589.96966390294</v>
       </c>
       <c r="CC3">
-        <v>99159.29591366608</v>
+        <v>99159.29591366609</v>
       </c>
       <c r="CD3">
         <v>101852.8419556075</v>
@@ -2640,7 +2640,7 @@
         <v>3083305.294223299</v>
       </c>
       <c r="F4">
-        <v>4357255.488227655</v>
+        <v>4357255.488227656</v>
       </c>
       <c r="G4">
         <v>5835198.857249958</v>
@@ -2679,7 +2679,7 @@
         <v>49870360.15256569</v>
       </c>
       <c r="S4">
-        <v>81216741.75334732</v>
+        <v>81216741.75334731</v>
       </c>
       <c r="T4">
         <v>112650799.9469008</v>
@@ -2694,7 +2694,7 @@
         <v>207570849.1455195</v>
       </c>
       <c r="X4">
-        <v>240275917.982238</v>
+        <v>240275917.9822379</v>
       </c>
       <c r="Y4">
         <v>273100651.974695</v>
@@ -2911,19 +2911,19 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2150342.287831458</v>
+        <v>2150342.287831459</v>
       </c>
       <c r="E5">
-        <v>3590984.262102496</v>
+        <v>3590984.262102498</v>
       </c>
       <c r="F5">
-        <v>4938489.558795185</v>
+        <v>4938489.558795187</v>
       </c>
       <c r="G5">
-        <v>6238543.719591172</v>
+        <v>6238543.719591174</v>
       </c>
       <c r="H5">
-        <v>7487241.310548611</v>
+        <v>7487241.310548613</v>
       </c>
       <c r="I5">
         <v>9048796.649043821</v>
@@ -2947,7 +2947,7 @@
         <v>19078680.27961173</v>
       </c>
       <c r="P5">
-        <v>35457271.52544351</v>
+        <v>35457271.52544352</v>
       </c>
       <c r="Q5">
         <v>51881319.91744582</v>
@@ -2968,73 +2968,73 @@
         <v>286272376.0224867</v>
       </c>
       <c r="W5">
-        <v>341028436.9300435</v>
+        <v>341028436.9300434</v>
       </c>
       <c r="X5">
-        <v>398746992.3786656</v>
+        <v>398746992.3786655</v>
       </c>
       <c r="Y5">
         <v>456677905.3121305</v>
       </c>
       <c r="Z5">
-        <v>514889201.1002046</v>
+        <v>514889201.1002045</v>
       </c>
       <c r="AA5">
-        <v>573476053.7415509</v>
+        <v>573476053.7415508</v>
       </c>
       <c r="AB5">
-        <v>632568114.1070848</v>
+        <v>632568114.1070846</v>
       </c>
       <c r="AC5">
-        <v>650619100.3333588</v>
+        <v>650619100.3333586</v>
       </c>
       <c r="AD5">
-        <v>669566257.2556864</v>
+        <v>669566257.2556863</v>
       </c>
       <c r="AE5">
-        <v>689681248.5304974</v>
+        <v>689681248.5304973</v>
       </c>
       <c r="AF5">
-        <v>711287665.8540616</v>
+        <v>711287665.8540615</v>
       </c>
       <c r="AG5">
-        <v>734755181.9482658</v>
+        <v>734755181.9482657</v>
       </c>
       <c r="AH5">
-        <v>746057530.9570005</v>
+        <v>746057530.9570004</v>
       </c>
       <c r="AI5">
-        <v>760040694.2878187</v>
+        <v>760040694.2878186</v>
       </c>
       <c r="AJ5">
-        <v>777107041.9140394</v>
+        <v>777107041.9140393</v>
       </c>
       <c r="AK5">
-        <v>797610375.4053199</v>
+        <v>797610375.4053198</v>
       </c>
       <c r="AL5">
-        <v>821817123.1202314</v>
+        <v>821817123.1202313</v>
       </c>
       <c r="AM5">
-        <v>855771574.7792501</v>
+        <v>855771574.77925</v>
       </c>
       <c r="AN5">
-        <v>893547062.1758324</v>
+        <v>893547062.1758323</v>
       </c>
       <c r="AO5">
-        <v>934935450.3298366</v>
+        <v>934935450.3298365</v>
       </c>
       <c r="AP5">
-        <v>979534391.0800085</v>
+        <v>979534391.0800083</v>
       </c>
       <c r="AQ5">
-        <v>1026759270.189894</v>
+        <v>1026759270.189893</v>
       </c>
       <c r="AR5">
         <v>1084079437.656301</v>
       </c>
       <c r="AS5">
-        <v>1142460577.747474</v>
+        <v>1142460577.747473</v>
       </c>
       <c r="AT5">
         <v>1201038535.759017</v>
@@ -3061,7 +3061,7 @@
         <v>1577426510.542795</v>
       </c>
       <c r="BB5">
-        <v>1622205095.356887</v>
+        <v>1622205095.356886</v>
       </c>
       <c r="BC5">
         <v>1665958773.780459</v>
@@ -3070,7 +3070,7 @@
         <v>1709386344.541885</v>
       </c>
       <c r="BE5">
-        <v>1753212656.498062</v>
+        <v>1753212656.498061</v>
       </c>
       <c r="BF5">
         <v>1798128407.832464</v>
@@ -3085,13 +3085,13 @@
         <v>1942508851.161861</v>
       </c>
       <c r="BJ5">
-        <v>1995724126.523383</v>
+        <v>1995724126.523382</v>
       </c>
       <c r="BK5">
-        <v>2051652610.535528</v>
+        <v>2051652610.535527</v>
       </c>
       <c r="BL5">
-        <v>2110069102.791947</v>
+        <v>2110069102.791946</v>
       </c>
       <c r="BM5">
         <v>2170834390.605282</v>
@@ -3103,10 +3103,10 @@
         <v>2297970936.215168</v>
       </c>
       <c r="BP5">
-        <v>2363488115.04203</v>
+        <v>2363488115.042029</v>
       </c>
       <c r="BQ5">
-        <v>2429738599.082193</v>
+        <v>2429738599.082192</v>
       </c>
       <c r="BR5">
         <v>2496288932.794456</v>
@@ -3118,16 +3118,16 @@
         <v>2628974855.530534</v>
       </c>
       <c r="BU5">
-        <v>2694671888.044943</v>
+        <v>2694671888.044942</v>
       </c>
       <c r="BV5">
-        <v>2759592769.331662</v>
+        <v>2759592769.331661</v>
       </c>
       <c r="BW5">
-        <v>2823988737.985063</v>
+        <v>2823988737.985062</v>
       </c>
       <c r="BX5">
-        <v>2887982363.179764</v>
+        <v>2887982363.179763</v>
       </c>
       <c r="BY5">
         <v>2951771068.425478</v>
@@ -3139,34 +3139,34 @@
         <v>3079379980.08349</v>
       </c>
       <c r="CB5">
-        <v>3143771782.892961</v>
+        <v>3143771782.89296</v>
       </c>
       <c r="CC5">
-        <v>3209054912.63969</v>
+        <v>3209054912.639689</v>
       </c>
       <c r="CD5">
-        <v>3275466271.142034</v>
+        <v>3275466271.142033</v>
       </c>
       <c r="CE5">
         <v>3343190867.182305</v>
       </c>
       <c r="CF5">
-        <v>3411680958.667377</v>
+        <v>3411680958.667376</v>
       </c>
       <c r="CG5">
-        <v>3481662893.143968</v>
+        <v>3481662893.143967</v>
       </c>
       <c r="CH5">
         <v>3553126672.795613</v>
       </c>
       <c r="CI5">
-        <v>3626002491.952925</v>
+        <v>3626002491.952924</v>
       </c>
       <c r="CJ5">
-        <v>3700170762.96347</v>
+        <v>3700170762.963469</v>
       </c>
       <c r="CK5">
-        <v>3774422639.900125</v>
+        <v>3774422639.900124</v>
       </c>
       <c r="CL5">
         <v>3849631615.915441</v>
@@ -3175,7 +3175,7 @@
         <v>3925611351.090847</v>
       </c>
       <c r="CN5">
-        <v>4002182332.903447</v>
+        <v>4002182332.903446</v>
       </c>
       <c r="CO5">
         <v>4079184397.34267</v>

--- a/Results/Baseline/Lifetime/Results_world_base_life_Min.xlsx
+++ b/Results/Baseline/Lifetime/Results_world_base_life_Min.xlsx
@@ -679,31 +679,31 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1072.37387449115</v>
+        <v>1072.373874491149</v>
       </c>
       <c r="E2">
-        <v>1397.730119703851</v>
+        <v>1397.73011970385</v>
       </c>
       <c r="F2">
-        <v>1397.031627798345</v>
+        <v>1397.031627798344</v>
       </c>
       <c r="G2">
         <v>1327.590969412265</v>
       </c>
       <c r="H2">
-        <v>1780.597773721524</v>
+        <v>1780.597773721523</v>
       </c>
       <c r="I2">
-        <v>1284.7259122582</v>
+        <v>1284.725912258199</v>
       </c>
       <c r="J2">
         <v>2324.625080083905</v>
       </c>
       <c r="K2">
-        <v>2311.6096069295</v>
+        <v>2311.609606929499</v>
       </c>
       <c r="L2">
-        <v>2058.411181797299</v>
+        <v>2058.411181797298</v>
       </c>
       <c r="M2">
         <v>1901.455711851288</v>
@@ -712,16 +712,16 @@
         <v>4070.010987434653</v>
       </c>
       <c r="O2">
-        <v>2490.436145986911</v>
+        <v>2490.436145986909</v>
       </c>
       <c r="P2">
-        <v>4975.546756848992</v>
+        <v>4975.54675684899</v>
       </c>
       <c r="Q2">
         <v>5356.238079114935</v>
       </c>
       <c r="R2">
-        <v>5726.937853245292</v>
+        <v>5726.937853245291</v>
       </c>
       <c r="S2">
         <v>12512.08236678371</v>
@@ -736,28 +736,28 @@
         <v>15310.38161680337</v>
       </c>
       <c r="W2">
-        <v>16285.53220692001</v>
+        <v>16285.53220692</v>
       </c>
       <c r="X2">
-        <v>16397.08394224584</v>
+        <v>16397.08394224583</v>
       </c>
       <c r="Y2">
-        <v>17320.12292895657</v>
+        <v>17320.12292895656</v>
       </c>
       <c r="Z2">
-        <v>18258.56367421244</v>
+        <v>18258.56367421243</v>
       </c>
       <c r="AA2">
-        <v>19166.01462993057</v>
+        <v>19166.01462993056</v>
       </c>
       <c r="AB2">
-        <v>20123.3524316583</v>
+        <v>20123.35243165829</v>
       </c>
       <c r="AC2">
-        <v>9663.057042433007</v>
+        <v>9663.057042433004</v>
       </c>
       <c r="AD2">
-        <v>9991.494812711951</v>
+        <v>9991.49481271195</v>
       </c>
       <c r="AE2">
         <v>10374.09756956074</v>
@@ -769,16 +769,16 @@
         <v>10975.96016470608</v>
       </c>
       <c r="AH2">
-        <v>7514.689765459633</v>
+        <v>7514.689765459631</v>
       </c>
       <c r="AI2">
-        <v>8133.713669635741</v>
+        <v>8133.71366963574</v>
       </c>
       <c r="AJ2">
-        <v>8748.139778199014</v>
+        <v>8748.139778199013</v>
       </c>
       <c r="AK2">
-        <v>9800.763977031191</v>
+        <v>9800.763977031189</v>
       </c>
       <c r="AL2">
         <v>11204.74498363686</v>
@@ -787,166 +787,166 @@
         <v>15053.15457487533</v>
       </c>
       <c r="AN2">
-        <v>17518.08986132504</v>
+        <v>17518.08986132502</v>
       </c>
       <c r="AO2">
-        <v>19060.05398536074</v>
+        <v>19060.05398536073</v>
       </c>
       <c r="AP2">
-        <v>20045.17974835874</v>
+        <v>20045.17974835873</v>
       </c>
       <c r="AQ2">
         <v>20909.08286616235</v>
       </c>
       <c r="AR2">
-        <v>24903.16018992296</v>
+        <v>24903.16018992295</v>
       </c>
       <c r="AS2">
-        <v>25600.2559394546</v>
+        <v>25600.25593945458</v>
       </c>
       <c r="AT2">
-        <v>26300.82205184955</v>
+        <v>26300.82205184953</v>
       </c>
       <c r="AU2">
-        <v>26660.65537596442</v>
+        <v>26660.6553759644</v>
       </c>
       <c r="AV2">
-        <v>26076.69110992671</v>
+        <v>26076.6911099267</v>
       </c>
       <c r="AW2">
-        <v>24686.74149987379</v>
+        <v>24686.74149987378</v>
       </c>
       <c r="AX2">
-        <v>22017.97669553812</v>
+        <v>22017.97669553811</v>
       </c>
       <c r="AY2">
-        <v>21200.67582481224</v>
+        <v>21200.67582481223</v>
       </c>
       <c r="AZ2">
-        <v>21307.18519446515</v>
+        <v>21307.18519446514</v>
       </c>
       <c r="BA2">
-        <v>21160.76913727245</v>
+        <v>21160.76913727244</v>
       </c>
       <c r="BB2">
-        <v>19693.38985203287</v>
+        <v>19693.38985203286</v>
       </c>
       <c r="BC2">
-        <v>19132.43988275845</v>
+        <v>19132.43988275844</v>
       </c>
       <c r="BD2">
-        <v>19503.40766641529</v>
+        <v>19503.40766641527</v>
       </c>
       <c r="BE2">
-        <v>20583.45892257624</v>
+        <v>20583.45892257623</v>
       </c>
       <c r="BF2">
         <v>22194.66141449579</v>
       </c>
       <c r="BG2">
-        <v>23758.39924256545</v>
+        <v>23758.39924256544</v>
       </c>
       <c r="BH2">
         <v>26250.97185823477</v>
       </c>
       <c r="BI2">
-        <v>28308.65310447559</v>
+        <v>28308.65310447558</v>
       </c>
       <c r="BJ2">
-        <v>29867.6781970881</v>
+        <v>29867.67819708808</v>
       </c>
       <c r="BK2">
-        <v>31348.07298804111</v>
+        <v>31348.07298804109</v>
       </c>
       <c r="BL2">
-        <v>32733.55852676533</v>
+        <v>32733.55852676531</v>
       </c>
       <c r="BM2">
-        <v>34493.91599636366</v>
+        <v>34493.91599636365</v>
       </c>
       <c r="BN2">
-        <v>35505.53528320602</v>
+        <v>35505.535283206</v>
       </c>
       <c r="BO2">
-        <v>35883.81691142749</v>
+        <v>35883.81691142748</v>
       </c>
       <c r="BP2">
-        <v>35691.72625755114</v>
+        <v>35691.72625755112</v>
       </c>
       <c r="BQ2">
-        <v>34627.67682837269</v>
+        <v>34627.67682837267</v>
       </c>
       <c r="BR2">
-        <v>33297.5474918356</v>
+        <v>33297.54749183558</v>
       </c>
       <c r="BS2">
-        <v>32107.32794683844</v>
+        <v>32107.32794683842</v>
       </c>
       <c r="BT2">
-        <v>31561.60707949882</v>
+        <v>31561.6070794988</v>
       </c>
       <c r="BU2">
-        <v>31331.252548964</v>
+        <v>31331.25254896398</v>
       </c>
       <c r="BV2">
-        <v>30717.26757958201</v>
+        <v>30717.26757958199</v>
       </c>
       <c r="BW2">
-        <v>30311.16249037091</v>
+        <v>30311.16249037089</v>
       </c>
       <c r="BX2">
-        <v>30442.19335836858</v>
+        <v>30442.19335836857</v>
       </c>
       <c r="BY2">
-        <v>31269.30307931094</v>
+        <v>31269.30307931092</v>
       </c>
       <c r="BZ2">
-        <v>32630.56462613315</v>
+        <v>32630.56462613314</v>
       </c>
       <c r="CA2">
-        <v>34132.00870267347</v>
+        <v>34132.00870267345</v>
       </c>
       <c r="CB2">
-        <v>36053.97470648387</v>
+        <v>36053.97470648385</v>
       </c>
       <c r="CC2">
-        <v>38054.55202523865</v>
+        <v>38054.55202523863</v>
       </c>
       <c r="CD2">
-        <v>39861.01736833103</v>
+        <v>39861.01736833101</v>
       </c>
       <c r="CE2">
-        <v>41446.69170639735</v>
+        <v>41446.69170639732</v>
       </c>
       <c r="CF2">
-        <v>42675.74019383221</v>
+        <v>42675.74019383219</v>
       </c>
       <c r="CG2">
-        <v>44070.13912861068</v>
+        <v>44070.13912861065</v>
       </c>
       <c r="CH2">
-        <v>45206.0661341416</v>
+        <v>45206.06613414158</v>
       </c>
       <c r="CI2">
-        <v>45805.24189583265</v>
+        <v>45805.24189583262</v>
       </c>
       <c r="CJ2">
-        <v>45794.70966571698</v>
+        <v>45794.70966571696</v>
       </c>
       <c r="CK2">
-        <v>44834.91029193868</v>
+        <v>44834.91029193866</v>
       </c>
       <c r="CL2">
-        <v>43895.15184659536</v>
+        <v>43895.15184659533</v>
       </c>
       <c r="CM2">
-        <v>42917.90311027108</v>
+        <v>42917.90311027105</v>
       </c>
       <c r="CN2">
-        <v>42184.03808826883</v>
+        <v>42184.0380882688</v>
       </c>
       <c r="CO2">
-        <v>41748.54603022621</v>
+        <v>41748.54603022619</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,28 +956,28 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.91124739014651</v>
+        <v>70.91124739014649</v>
       </c>
       <c r="E3">
-        <v>92.70500158204406</v>
+        <v>92.70500158204401</v>
       </c>
       <c r="F3">
-        <v>92.53982554733057</v>
+        <v>92.53982554733052</v>
       </c>
       <c r="G3">
-        <v>87.87484380016348</v>
+        <v>87.87484380016343</v>
       </c>
       <c r="H3">
-        <v>118.3984177396431</v>
+        <v>118.398417739643</v>
       </c>
       <c r="I3">
-        <v>85.08204867090259</v>
+        <v>85.08204867090255</v>
       </c>
       <c r="J3">
-        <v>154.8130776054376</v>
+        <v>154.8130776054375</v>
       </c>
       <c r="K3">
-        <v>153.7869514538162</v>
+        <v>153.7869514538161</v>
       </c>
       <c r="L3">
         <v>136.8280362575191</v>
@@ -998,16 +998,16 @@
         <v>358.1634799391416</v>
       </c>
       <c r="R3">
-        <v>383.042835074709</v>
+        <v>383.0428350747089</v>
       </c>
       <c r="S3">
         <v>838.6005569577648</v>
       </c>
       <c r="T3">
-        <v>899.9248120558134</v>
+        <v>899.9248120558132</v>
       </c>
       <c r="U3">
-        <v>962.2987289860446</v>
+        <v>962.2987289860444</v>
       </c>
       <c r="V3">
         <v>1026.522512639116</v>
@@ -1028,10 +1028,10 @@
         <v>1285.628267841386</v>
       </c>
       <c r="AB3">
-        <v>1350.037133737829</v>
+        <v>1350.037133737828</v>
       </c>
       <c r="AC3">
-        <v>647.5721933183138</v>
+        <v>647.5721933183137</v>
       </c>
       <c r="AD3">
         <v>669.526783918712</v>
@@ -1040,19 +1040,19 @@
         <v>695.2682577772957</v>
       </c>
       <c r="AF3">
-        <v>713.2100294921692</v>
+        <v>713.210029492169</v>
       </c>
       <c r="AG3">
-        <v>735.7520321379332</v>
+        <v>735.752032137933</v>
       </c>
       <c r="AH3">
-        <v>503.4660975158288</v>
+        <v>503.4660975158289</v>
       </c>
       <c r="AI3">
         <v>545.2712455528898</v>
       </c>
       <c r="AJ3">
-        <v>586.9684537731005</v>
+        <v>586.9684537731002</v>
       </c>
       <c r="AK3">
         <v>658.3459520437536</v>
@@ -1079,19 +1079,19 @@
         <v>1678.551565381215</v>
       </c>
       <c r="AS3">
-        <v>1725.817953132387</v>
+        <v>1725.817953132386</v>
       </c>
       <c r="AT3">
         <v>1774.056384195977</v>
       </c>
       <c r="AU3">
-        <v>1799.949479940972</v>
+        <v>1799.949479940971</v>
       </c>
       <c r="AV3">
         <v>1759.482530182979</v>
       </c>
       <c r="AW3">
-        <v>1663.171188687446</v>
+        <v>1663.171188687445</v>
       </c>
       <c r="AX3">
         <v>1480.552439428979</v>
@@ -1103,7 +1103,7 @@
         <v>1431.149893651275</v>
       </c>
       <c r="BA3">
-        <v>1420.855470174375</v>
+        <v>1420.855470174374</v>
       </c>
       <c r="BB3">
         <v>1321.813330130237</v>
@@ -1127,7 +1127,7 @@
         <v>1768.475376335078</v>
       </c>
       <c r="BI3">
-        <v>1908.391340662782</v>
+        <v>1908.391340662781</v>
       </c>
       <c r="BJ3">
         <v>2014.496853834482</v>
@@ -1136,13 +1136,13 @@
         <v>2115.725203871159</v>
       </c>
       <c r="BL3">
-        <v>2211.350799830326</v>
+        <v>2211.350799830325</v>
       </c>
       <c r="BM3">
-        <v>2331.327429565636</v>
+        <v>2331.327429565635</v>
       </c>
       <c r="BN3">
-        <v>2398.858166415441</v>
+        <v>2398.85816641544</v>
       </c>
       <c r="BO3">
         <v>2422.95938669616</v>
@@ -1151,16 +1151,16 @@
         <v>2408.154928489769</v>
       </c>
       <c r="BQ3">
-        <v>2334.074098143181</v>
+        <v>2334.07409814318</v>
       </c>
       <c r="BR3">
-        <v>2241.885882562734</v>
+        <v>2241.885882562733</v>
       </c>
       <c r="BS3">
-        <v>2159.808659714263</v>
+        <v>2159.808659714262</v>
       </c>
       <c r="BT3">
-        <v>2122.156109580929</v>
+        <v>2122.156109580928</v>
       </c>
       <c r="BU3">
         <v>2106.339754630997</v>
@@ -1187,7 +1187,7 @@
         <v>2431.448595860956</v>
       </c>
       <c r="CC3">
-        <v>2569.32624976315</v>
+        <v>2569.326249763149</v>
       </c>
       <c r="CD3">
         <v>2693.54604194142</v>
@@ -1196,25 +1196,25 @@
         <v>2801.21414216088</v>
       </c>
       <c r="CF3">
-        <v>2883.753401727608</v>
+        <v>2883.753401727607</v>
       </c>
       <c r="CG3">
-        <v>2976.900893939907</v>
+        <v>2976.900893939906</v>
       </c>
       <c r="CH3">
         <v>3052.161771546927</v>
       </c>
       <c r="CI3">
-        <v>3090.725405045761</v>
+        <v>3090.72540504576</v>
       </c>
       <c r="CJ3">
         <v>3087.985073013786</v>
       </c>
       <c r="CK3">
-        <v>3021.466675259154</v>
+        <v>3021.466675259153</v>
       </c>
       <c r="CL3">
-        <v>2956.431608188965</v>
+        <v>2956.431608188964</v>
       </c>
       <c r="CM3">
         <v>2889.212592497669</v>
@@ -1223,7 +1223,7 @@
         <v>2838.892662785518</v>
       </c>
       <c r="CO3">
-        <v>2809.1955032919</v>
+        <v>2809.195503291899</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1248,13 +1248,13 @@
         <v>1624319.753844372</v>
       </c>
       <c r="I4">
-        <v>1544497.383707436</v>
+        <v>1544497.383707435</v>
       </c>
       <c r="J4">
-        <v>1680352.060849323</v>
+        <v>1680352.060849322</v>
       </c>
       <c r="K4">
-        <v>1544436.168252481</v>
+        <v>1544436.16825248</v>
       </c>
       <c r="L4">
         <v>1539632.871095464</v>
@@ -1263,7 +1263,7 @@
         <v>2062866.995901393</v>
       </c>
       <c r="N4">
-        <v>1982943.027974251</v>
+        <v>1982943.027974252</v>
       </c>
       <c r="O4">
         <v>1977433.52891767</v>
@@ -1281,10 +1281,10 @@
         <v>31346381.60078163</v>
       </c>
       <c r="T4">
-        <v>31434058.1935535</v>
+        <v>31434058.19355349</v>
       </c>
       <c r="U4">
-        <v>31530328.61320517</v>
+        <v>31530328.61320518</v>
       </c>
       <c r="V4">
         <v>31638593.91209295</v>
@@ -1293,13 +1293,13 @@
         <v>31751126.67332055</v>
       </c>
       <c r="X4">
-        <v>32705068.83671845</v>
+        <v>32705068.83671846</v>
       </c>
       <c r="Y4">
         <v>32824733.992457</v>
       </c>
       <c r="Z4">
-        <v>32954563.23460106</v>
+        <v>32954563.23460107</v>
       </c>
       <c r="AA4">
         <v>33107401.98981949</v>
@@ -1323,16 +1323,16 @@
         <v>10903771.98552297</v>
       </c>
       <c r="AH4">
-        <v>3537279.823616582</v>
+        <v>3537279.823616583</v>
       </c>
       <c r="AI4">
-        <v>4218116.132766243</v>
+        <v>4218116.132766244</v>
       </c>
       <c r="AJ4">
         <v>5132803.330663079</v>
       </c>
       <c r="AK4">
-        <v>6336331.698681012</v>
+        <v>6336331.69868101</v>
       </c>
       <c r="AL4">
         <v>7658758.673808551</v>
@@ -1353,10 +1353,10 @@
         <v>16824664.33864639</v>
       </c>
       <c r="AR4">
-        <v>22245086.17041711</v>
+        <v>22245086.17041712</v>
       </c>
       <c r="AS4">
-        <v>22426917.33226266</v>
+        <v>22426917.33226267</v>
       </c>
       <c r="AT4">
         <v>22432491.35557772</v>
@@ -1368,10 +1368,10 @@
         <v>21480054.51213252</v>
       </c>
       <c r="AW4">
-        <v>21586560.45610341</v>
+        <v>21586560.45610342</v>
       </c>
       <c r="AX4">
-        <v>20148566.23603554</v>
+        <v>20148566.23603553</v>
       </c>
       <c r="AY4">
         <v>19247218.69660724</v>
@@ -1410,25 +1410,25 @@
         <v>21313566.05727978</v>
       </c>
       <c r="BK4">
-        <v>22104533.89003559</v>
+        <v>22104533.8900356</v>
       </c>
       <c r="BL4">
         <v>22769378.62236677</v>
       </c>
       <c r="BM4">
-        <v>23485259.98516438</v>
+        <v>23485259.98516439</v>
       </c>
       <c r="BN4">
         <v>23938970.27027962</v>
       </c>
       <c r="BO4">
-        <v>24147820.17159695</v>
+        <v>24147820.17159694</v>
       </c>
       <c r="BP4">
         <v>24106791.16916629</v>
       </c>
       <c r="BQ4">
-        <v>23767073.18623965</v>
+        <v>23767073.18623966</v>
       </c>
       <c r="BR4">
         <v>23255623.22083038</v>
@@ -1440,16 +1440,16 @@
         <v>22513442.74228181</v>
       </c>
       <c r="BU4">
-        <v>22351448.58683593</v>
+        <v>22351448.58683594</v>
       </c>
       <c r="BV4">
-        <v>22020827.35374446</v>
+        <v>22020827.35374447</v>
       </c>
       <c r="BW4">
-        <v>21829735.87213952</v>
+        <v>21829735.87213953</v>
       </c>
       <c r="BX4">
-        <v>21731852.7318961</v>
+        <v>21731852.73189611</v>
       </c>
       <c r="BY4">
         <v>21878360.32475173</v>
@@ -1464,31 +1464,31 @@
         <v>23384370.55862211</v>
       </c>
       <c r="CC4">
-        <v>24093816.05285224</v>
+        <v>24093816.05285225</v>
       </c>
       <c r="CD4">
-        <v>24720963.16372761</v>
+        <v>24720963.16372762</v>
       </c>
       <c r="CE4">
-        <v>25249204.11217923</v>
+        <v>25249204.11217924</v>
       </c>
       <c r="CF4">
-        <v>25362114.75606242</v>
+        <v>25362114.75606243</v>
       </c>
       <c r="CG4">
-        <v>25799068.67806805</v>
+        <v>25799068.67806806</v>
       </c>
       <c r="CH4">
         <v>26152469.96482579</v>
       </c>
       <c r="CI4">
-        <v>26355037.88191809</v>
+        <v>26355037.88191808</v>
       </c>
       <c r="CJ4">
         <v>26385560.31508645</v>
       </c>
       <c r="CK4">
-        <v>25688302.89111707</v>
+        <v>25688302.89111708</v>
       </c>
       <c r="CL4">
         <v>25445898.45172931</v>
@@ -1500,7 +1500,7 @@
         <v>25240580.48175715</v>
       </c>
       <c r="CO4">
-        <v>25263766.67022804</v>
+        <v>25263766.67022805</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2150342.287831459</v>
+        <v>2150342.287831458</v>
       </c>
       <c r="E5">
         <v>1440641.974271039</v>
@@ -1540,10 +1540,10 @@
         <v>1573380.696318417</v>
       </c>
       <c r="N5">
-        <v>1665942.493873483</v>
+        <v>1665942.493873482</v>
       </c>
       <c r="O5">
-        <v>2164842.236706775</v>
+        <v>2164842.236706774</v>
       </c>
       <c r="P5">
         <v>16378591.24583179</v>
@@ -1558,7 +1558,7 @@
         <v>54346972.91804177</v>
       </c>
       <c r="T5">
-        <v>54424605.85412652</v>
+        <v>54424605.85412651</v>
       </c>
       <c r="U5">
         <v>54515923.13989751</v>
@@ -1567,7 +1567,7 @@
         <v>54624375.55369617</v>
       </c>
       <c r="W5">
-        <v>54756060.90755673</v>
+        <v>54756060.90755674</v>
       </c>
       <c r="X5">
         <v>57718555.44862213</v>
@@ -1579,13 +1579,13 @@
         <v>58211295.78807408</v>
       </c>
       <c r="AA5">
-        <v>58586852.64134627</v>
+        <v>58586852.64134628</v>
       </c>
       <c r="AB5">
         <v>59092060.36553384</v>
       </c>
       <c r="AC5">
-        <v>18050986.22627399</v>
+        <v>18050986.226274</v>
       </c>
       <c r="AD5">
         <v>18947156.92232763</v>
@@ -1603,7 +1603,7 @@
         <v>11302349.00873467</v>
       </c>
       <c r="AI5">
-        <v>13983163.33081819</v>
+        <v>13983163.3308182</v>
       </c>
       <c r="AJ5">
         <v>17066347.62622076</v>
@@ -1618,55 +1618,55 @@
         <v>33954451.65901872</v>
       </c>
       <c r="AN5">
-        <v>37775487.39658224</v>
+        <v>37775487.39658225</v>
       </c>
       <c r="AO5">
         <v>41388388.15400425</v>
       </c>
       <c r="AP5">
-        <v>44598940.75017183</v>
+        <v>44598940.75017184</v>
       </c>
       <c r="AQ5">
         <v>47224879.10988516</v>
       </c>
       <c r="AR5">
-        <v>57320167.46640703</v>
+        <v>57320167.46640705</v>
       </c>
       <c r="AS5">
         <v>58381140.0911729</v>
       </c>
       <c r="AT5">
-        <v>58577958.01154336</v>
+        <v>58577958.01154337</v>
       </c>
       <c r="AU5">
-        <v>57946830.97043697</v>
+        <v>57946830.97043698</v>
       </c>
       <c r="AV5">
-        <v>56589391.12816013</v>
+        <v>56589391.12816014</v>
       </c>
       <c r="AW5">
-        <v>57061084.73049113</v>
+        <v>57061084.73049114</v>
       </c>
       <c r="AX5">
-        <v>54759761.43091524</v>
+        <v>54759761.43091525</v>
       </c>
       <c r="AY5">
-        <v>52303284.3871872</v>
+        <v>52303284.38718721</v>
       </c>
       <c r="AZ5">
-        <v>49916091.99428079</v>
+        <v>49916091.9942808</v>
       </c>
       <c r="BA5">
         <v>47811530.14230615</v>
       </c>
       <c r="BB5">
-        <v>44778584.81409177</v>
+        <v>44778584.81409178</v>
       </c>
       <c r="BC5">
-        <v>43753678.42357269</v>
+        <v>43753678.4235727</v>
       </c>
       <c r="BD5">
-        <v>43427570.76142553</v>
+        <v>43427570.76142555</v>
       </c>
       <c r="BE5">
         <v>43826311.95617687</v>
@@ -1675,109 +1675,109 @@
         <v>44915751.33440275</v>
       </c>
       <c r="BG5">
-        <v>45839232.00281733</v>
+        <v>45839232.00281735</v>
       </c>
       <c r="BH5">
-        <v>48015226.56886656</v>
+        <v>48015226.56886657</v>
       </c>
       <c r="BI5">
-        <v>50525984.7577131</v>
+        <v>50525984.75771311</v>
       </c>
       <c r="BJ5">
-        <v>53215275.36152128</v>
+        <v>53215275.3615213</v>
       </c>
       <c r="BK5">
         <v>55928484.01214515</v>
       </c>
       <c r="BL5">
-        <v>58416492.25641884</v>
+        <v>58416492.25641885</v>
       </c>
       <c r="BM5">
-        <v>60765287.81333552</v>
+        <v>60765287.81333553</v>
       </c>
       <c r="BN5">
-        <v>62770791.0729017</v>
+        <v>62770791.07290171</v>
       </c>
       <c r="BO5">
-        <v>64365754.53698421</v>
+        <v>64365754.53698423</v>
       </c>
       <c r="BP5">
-        <v>65517178.82686123</v>
+        <v>65517178.82686125</v>
       </c>
       <c r="BQ5">
-        <v>66250484.04016295</v>
+        <v>66250484.04016297</v>
       </c>
       <c r="BR5">
-        <v>66550333.71226291</v>
+        <v>66550333.71226293</v>
       </c>
       <c r="BS5">
-        <v>66501180.70898023</v>
+        <v>66501180.70898025</v>
       </c>
       <c r="BT5">
-        <v>66184742.02709806</v>
+        <v>66184742.02709807</v>
       </c>
       <c r="BU5">
-        <v>65697032.51440838</v>
+        <v>65697032.51440839</v>
       </c>
       <c r="BV5">
-        <v>64920881.28671879</v>
+        <v>64920881.28671881</v>
       </c>
       <c r="BW5">
-        <v>64395968.65340097</v>
+        <v>64395968.65340099</v>
       </c>
       <c r="BX5">
-        <v>63993625.19470123</v>
+        <v>63993625.19470124</v>
       </c>
       <c r="BY5">
-        <v>63788705.24571461</v>
+        <v>63788705.24571463</v>
       </c>
       <c r="BZ5">
-        <v>63835375.79006502</v>
+        <v>63835375.79006504</v>
       </c>
       <c r="CA5">
-        <v>63773535.86794691</v>
+        <v>63773535.86794692</v>
       </c>
       <c r="CB5">
-        <v>64391802.80947016</v>
+        <v>64391802.80947018</v>
       </c>
       <c r="CC5">
-        <v>65283129.74672949</v>
+        <v>65283129.74672952</v>
       </c>
       <c r="CD5">
-        <v>66411358.50234374</v>
+        <v>66411358.50234376</v>
       </c>
       <c r="CE5">
-        <v>67724596.04027188</v>
+        <v>67724596.04027189</v>
       </c>
       <c r="CF5">
-        <v>68490091.48507097</v>
+        <v>68490091.485071</v>
       </c>
       <c r="CG5">
-        <v>69981934.47659095</v>
+        <v>69981934.47659098</v>
       </c>
       <c r="CH5">
-        <v>71463779.65164581</v>
+        <v>71463779.65164584</v>
       </c>
       <c r="CI5">
-        <v>72875819.15731165</v>
+        <v>72875819.15731166</v>
       </c>
       <c r="CJ5">
-        <v>74168271.01054491</v>
+        <v>74168271.01054494</v>
       </c>
       <c r="CK5">
-        <v>74251876.93665503</v>
+        <v>74251876.93665504</v>
       </c>
       <c r="CL5">
-        <v>75208976.01531664</v>
+        <v>75208976.01531665</v>
       </c>
       <c r="CM5">
-        <v>75979735.17540643</v>
+        <v>75979735.17540646</v>
       </c>
       <c r="CN5">
-        <v>76570981.81259935</v>
+        <v>76570981.81259938</v>
       </c>
       <c r="CO5">
-        <v>77002064.43922362</v>
+        <v>77002064.43922363</v>
       </c>
     </row>
   </sheetData>
@@ -2080,61 +2080,61 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1072.37387449115</v>
+        <v>1072.373874491149</v>
       </c>
       <c r="E2">
-        <v>2470.103994195</v>
+        <v>2470.103994194999</v>
       </c>
       <c r="F2">
-        <v>3867.135621993345</v>
+        <v>3867.135621993344</v>
       </c>
       <c r="G2">
-        <v>5194.726591405611</v>
+        <v>5194.726591405608</v>
       </c>
       <c r="H2">
-        <v>6975.324365127135</v>
+        <v>6975.324365127131</v>
       </c>
       <c r="I2">
-        <v>8260.050277385335</v>
+        <v>8260.050277385331</v>
       </c>
       <c r="J2">
         <v>10584.67535746924</v>
       </c>
       <c r="K2">
-        <v>12896.28496439874</v>
+        <v>12896.28496439873</v>
       </c>
       <c r="L2">
-        <v>14954.69614619604</v>
+        <v>14954.69614619603</v>
       </c>
       <c r="M2">
-        <v>16856.15185804733</v>
+        <v>16856.15185804732</v>
       </c>
       <c r="N2">
-        <v>20926.16284548198</v>
+        <v>20926.16284548197</v>
       </c>
       <c r="O2">
-        <v>23416.59899146889</v>
+        <v>23416.59899146888</v>
       </c>
       <c r="P2">
-        <v>28392.14574831788</v>
+        <v>28392.14574831787</v>
       </c>
       <c r="Q2">
-        <v>33748.38382743282</v>
+        <v>33748.38382743281</v>
       </c>
       <c r="R2">
-        <v>39475.32168067811</v>
+        <v>39475.3216806781</v>
       </c>
       <c r="S2">
-        <v>51987.40404746182</v>
+        <v>51987.40404746181</v>
       </c>
       <c r="T2">
-        <v>65412.78698979289</v>
+        <v>65412.78698979288</v>
       </c>
       <c r="U2">
-        <v>79767.04605938331</v>
+        <v>79767.0460593833</v>
       </c>
       <c r="V2">
-        <v>95077.42767618669</v>
+        <v>95077.42767618666</v>
       </c>
       <c r="W2">
         <v>111362.9598831067</v>
@@ -2149,124 +2149,124 @@
         <v>163338.7304285215</v>
       </c>
       <c r="AA2">
-        <v>182504.7450584521</v>
+        <v>182504.745058452</v>
       </c>
       <c r="AB2">
-        <v>202628.0974901104</v>
+        <v>202628.0974901103</v>
       </c>
       <c r="AC2">
-        <v>212291.1545325434</v>
+        <v>212291.1545325433</v>
       </c>
       <c r="AD2">
-        <v>222282.6493452554</v>
+        <v>222282.6493452553</v>
       </c>
       <c r="AE2">
-        <v>232656.7469148161</v>
+        <v>232656.746914816</v>
       </c>
       <c r="AF2">
-        <v>243296.4170913941</v>
+        <v>243296.417091394</v>
       </c>
       <c r="AG2">
-        <v>254272.3772561002</v>
+        <v>254272.3772561</v>
       </c>
       <c r="AH2">
-        <v>261787.0670215598</v>
+        <v>261787.0670215597</v>
       </c>
       <c r="AI2">
-        <v>269920.7806911955</v>
+        <v>269920.7806911954</v>
       </c>
       <c r="AJ2">
-        <v>278668.9204693945</v>
+        <v>278668.9204693944</v>
       </c>
       <c r="AK2">
-        <v>288469.6844464257</v>
+        <v>288469.6844464256</v>
       </c>
       <c r="AL2">
-        <v>299674.4294300625</v>
+        <v>299674.4294300624</v>
       </c>
       <c r="AM2">
-        <v>314727.5840049378</v>
+        <v>314727.5840049377</v>
       </c>
       <c r="AN2">
-        <v>332245.6738662629</v>
+        <v>332245.6738662628</v>
       </c>
       <c r="AO2">
-        <v>351305.7278516236</v>
+        <v>351305.7278516235</v>
       </c>
       <c r="AP2">
-        <v>371350.9075999823</v>
+        <v>371350.9075999822</v>
       </c>
       <c r="AQ2">
-        <v>392259.9904661447</v>
+        <v>392259.9904661446</v>
       </c>
       <c r="AR2">
-        <v>417163.1506560676</v>
+        <v>417163.1506560675</v>
       </c>
       <c r="AS2">
-        <v>442763.4065955222</v>
+        <v>442763.4065955221</v>
       </c>
       <c r="AT2">
-        <v>469064.2286473718</v>
+        <v>469064.2286473716</v>
       </c>
       <c r="AU2">
-        <v>495724.8840233362</v>
+        <v>495724.8840233361</v>
       </c>
       <c r="AV2">
-        <v>521801.575133263</v>
+        <v>521801.5751332627</v>
       </c>
       <c r="AW2">
-        <v>546488.3166331367</v>
+        <v>546488.3166331365</v>
       </c>
       <c r="AX2">
-        <v>568506.2933286749</v>
+        <v>568506.2933286746</v>
       </c>
       <c r="AY2">
-        <v>589706.9691534871</v>
+        <v>589706.9691534869</v>
       </c>
       <c r="AZ2">
-        <v>611014.1543479522</v>
+        <v>611014.154347952</v>
       </c>
       <c r="BA2">
-        <v>632174.9234852247</v>
+        <v>632174.9234852245</v>
       </c>
       <c r="BB2">
-        <v>651868.3133372576</v>
+        <v>651868.3133372574</v>
       </c>
       <c r="BC2">
-        <v>671000.753220016</v>
+        <v>671000.7532200158</v>
       </c>
       <c r="BD2">
-        <v>690504.1608864313</v>
+        <v>690504.1608864311</v>
       </c>
       <c r="BE2">
-        <v>711087.6198090076</v>
+        <v>711087.6198090074</v>
       </c>
       <c r="BF2">
-        <v>733282.2812235034</v>
+        <v>733282.2812235032</v>
       </c>
       <c r="BG2">
-        <v>757040.6804660689</v>
+        <v>757040.6804660687</v>
       </c>
       <c r="BH2">
-        <v>783291.6523243036</v>
+        <v>783291.6523243034</v>
       </c>
       <c r="BI2">
-        <v>811600.3054287792</v>
+        <v>811600.305428779</v>
       </c>
       <c r="BJ2">
-        <v>841467.9836258673</v>
+        <v>841467.9836258671</v>
       </c>
       <c r="BK2">
-        <v>872816.0566139084</v>
+        <v>872816.0566139081</v>
       </c>
       <c r="BL2">
-        <v>905549.6151406737</v>
+        <v>905549.6151406735</v>
       </c>
       <c r="BM2">
-        <v>940043.5311370373</v>
+        <v>940043.5311370371</v>
       </c>
       <c r="BN2">
-        <v>975549.0664202434</v>
+        <v>975549.0664202431</v>
       </c>
       <c r="BO2">
         <v>1011432.883331671</v>
@@ -2275,7 +2275,7 @@
         <v>1047124.609589222</v>
       </c>
       <c r="BQ2">
-        <v>1081752.286417595</v>
+        <v>1081752.286417594</v>
       </c>
       <c r="BR2">
         <v>1115049.83390943</v>
@@ -2284,16 +2284,16 @@
         <v>1147157.161856269</v>
       </c>
       <c r="BT2">
-        <v>1178718.768935768</v>
+        <v>1178718.768935767</v>
       </c>
       <c r="BU2">
-        <v>1210050.021484732</v>
+        <v>1210050.021484731</v>
       </c>
       <c r="BV2">
-        <v>1240767.289064314</v>
+        <v>1240767.289064313</v>
       </c>
       <c r="BW2">
-        <v>1271078.451554685</v>
+        <v>1271078.451554684</v>
       </c>
       <c r="BX2">
         <v>1301520.644913053</v>
@@ -2305,10 +2305,10 @@
         <v>1365420.512618497</v>
       </c>
       <c r="CA2">
-        <v>1399552.521321171</v>
+        <v>1399552.52132117</v>
       </c>
       <c r="CB2">
-        <v>1435606.496027655</v>
+        <v>1435606.496027654</v>
       </c>
       <c r="CC2">
         <v>1473661.048052893</v>
@@ -2317,37 +2317,37 @@
         <v>1513522.065421224</v>
       </c>
       <c r="CE2">
-        <v>1554968.757127622</v>
+        <v>1554968.757127621</v>
       </c>
       <c r="CF2">
-        <v>1597644.497321454</v>
+        <v>1597644.497321453</v>
       </c>
       <c r="CG2">
-        <v>1641714.636450065</v>
+        <v>1641714.636450064</v>
       </c>
       <c r="CH2">
-        <v>1686920.702584206</v>
+        <v>1686920.702584205</v>
       </c>
       <c r="CI2">
-        <v>1732725.944480039</v>
+        <v>1732725.944480038</v>
       </c>
       <c r="CJ2">
-        <v>1778520.654145756</v>
+        <v>1778520.654145755</v>
       </c>
       <c r="CK2">
-        <v>1823355.564437694</v>
+        <v>1823355.564437693</v>
       </c>
       <c r="CL2">
-        <v>1867250.71628429</v>
+        <v>1867250.716284289</v>
       </c>
       <c r="CM2">
-        <v>1910168.619394561</v>
+        <v>1910168.61939456</v>
       </c>
       <c r="CN2">
-        <v>1952352.65748283</v>
+        <v>1952352.657482829</v>
       </c>
       <c r="CO2">
-        <v>1994101.203513056</v>
+        <v>1994101.203513055</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,70 +2357,70 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.91124739014651</v>
+        <v>70.91124739014649</v>
       </c>
       <c r="E3">
-        <v>163.6162489721906</v>
+        <v>163.6162489721905</v>
       </c>
       <c r="F3">
-        <v>256.1560745195212</v>
+        <v>256.156074519521</v>
       </c>
       <c r="G3">
-        <v>344.0309183196846</v>
+        <v>344.0309183196844</v>
       </c>
       <c r="H3">
-        <v>462.4293360593277</v>
+        <v>462.4293360593274</v>
       </c>
       <c r="I3">
-        <v>547.5113847302304</v>
+        <v>547.5113847302299</v>
       </c>
       <c r="J3">
-        <v>702.3244623356679</v>
+        <v>702.3244623356675</v>
       </c>
       <c r="K3">
-        <v>856.1114137894841</v>
+        <v>856.1114137894835</v>
       </c>
       <c r="L3">
-        <v>992.9394500470032</v>
+        <v>992.9394500470027</v>
       </c>
       <c r="M3">
-        <v>1119.15464065357</v>
+        <v>1119.154640653569</v>
       </c>
       <c r="N3">
         <v>1390.937251561466</v>
       </c>
       <c r="O3">
-        <v>1556.767226332243</v>
+        <v>1556.767226332242</v>
       </c>
       <c r="P3">
         <v>1889.389467981471</v>
       </c>
       <c r="Q3">
-        <v>2247.552947920613</v>
+        <v>2247.552947920612</v>
       </c>
       <c r="R3">
-        <v>2630.595782995322</v>
+        <v>2630.595782995321</v>
       </c>
       <c r="S3">
         <v>3469.196339953086</v>
       </c>
       <c r="T3">
-        <v>4369.1211520089</v>
+        <v>4369.121152008899</v>
       </c>
       <c r="U3">
-        <v>5331.419880994945</v>
+        <v>5331.419880994943</v>
       </c>
       <c r="V3">
-        <v>6357.942393634061</v>
+        <v>6357.942393634059</v>
       </c>
       <c r="W3">
-        <v>7449.969790487919</v>
+        <v>7449.969790487917</v>
       </c>
       <c r="X3">
-        <v>8549.468628304068</v>
+        <v>8549.468628304066</v>
       </c>
       <c r="Y3">
-        <v>9710.980073660397</v>
+        <v>9710.980073660396</v>
       </c>
       <c r="Z3">
         <v>10935.55941774367</v>
@@ -2429,7 +2429,7 @@
         <v>12221.18768558506</v>
       </c>
       <c r="AB3">
-        <v>13571.22481932289</v>
+        <v>13571.22481932288</v>
       </c>
       <c r="AC3">
         <v>14218.7970126412</v>
@@ -2456,7 +2456,7 @@
         <v>18668.25991280913</v>
       </c>
       <c r="AK3">
-        <v>19326.60586485289</v>
+        <v>19326.60586485288</v>
       </c>
       <c r="AL3">
         <v>20080.09925460645</v>
@@ -2468,13 +2468,13 @@
         <v>22273.82257513293</v>
       </c>
       <c r="AO3">
-        <v>23558.73503072972</v>
+        <v>23558.73503072971</v>
       </c>
       <c r="AP3">
         <v>24910.26837180374</v>
       </c>
       <c r="AQ3">
-        <v>26320.22378109024</v>
+        <v>26320.22378109023</v>
       </c>
       <c r="AR3">
         <v>27998.77534647145</v>
@@ -2483,7 +2483,7 @@
         <v>29724.59329960384</v>
       </c>
       <c r="AT3">
-        <v>31498.64968379982</v>
+        <v>31498.64968379981</v>
       </c>
       <c r="AU3">
         <v>33298.59916374079</v>
@@ -2510,7 +2510,7 @@
         <v>43799.98419064362</v>
       </c>
       <c r="BC3">
-        <v>45083.81723666329</v>
+        <v>45083.81723666328</v>
       </c>
       <c r="BD3">
         <v>46392.92528734513</v>
@@ -2519,76 +2519,76 @@
         <v>47775.51598313372</v>
       </c>
       <c r="BF3">
-        <v>49267.70254846254</v>
+        <v>49267.70254846253</v>
       </c>
       <c r="BG3">
-        <v>50866.73064919842</v>
+        <v>50866.73064919841</v>
       </c>
       <c r="BH3">
         <v>52635.20602553349</v>
       </c>
       <c r="BI3">
-        <v>54543.59736619628</v>
+        <v>54543.59736619627</v>
       </c>
       <c r="BJ3">
-        <v>56558.09422003076</v>
+        <v>56558.09422003075</v>
       </c>
       <c r="BK3">
-        <v>58673.81942390192</v>
+        <v>58673.81942390191</v>
       </c>
       <c r="BL3">
-        <v>60885.17022373225</v>
+        <v>60885.17022373224</v>
       </c>
       <c r="BM3">
         <v>63216.49765329788</v>
       </c>
       <c r="BN3">
-        <v>65615.35581971332</v>
+        <v>65615.35581971331</v>
       </c>
       <c r="BO3">
-        <v>68038.31520640949</v>
+        <v>68038.31520640948</v>
       </c>
       <c r="BP3">
-        <v>70446.47013489925</v>
+        <v>70446.47013489924</v>
       </c>
       <c r="BQ3">
-        <v>72780.54423304243</v>
+        <v>72780.54423304241</v>
       </c>
       <c r="BR3">
-        <v>75022.43011560517</v>
+        <v>75022.43011560515</v>
       </c>
       <c r="BS3">
-        <v>77182.23877531943</v>
+        <v>77182.23877531942</v>
       </c>
       <c r="BT3">
-        <v>79304.39488490036</v>
+        <v>79304.39488490035</v>
       </c>
       <c r="BU3">
-        <v>81410.73463953137</v>
+        <v>81410.73463953135</v>
       </c>
       <c r="BV3">
-        <v>83475.59668433007</v>
+        <v>83475.59668433006</v>
       </c>
       <c r="BW3">
-        <v>85513.04871479204</v>
+        <v>85513.04871479202</v>
       </c>
       <c r="BX3">
-        <v>87559.65540514111</v>
+        <v>87559.65540514109</v>
       </c>
       <c r="BY3">
-        <v>89662.84268496264</v>
+        <v>89662.84268496263</v>
       </c>
       <c r="BZ3">
-        <v>91859.12458091014</v>
+        <v>91859.12458091012</v>
       </c>
       <c r="CA3">
-        <v>94158.52106804198</v>
+        <v>94158.52106804197</v>
       </c>
       <c r="CB3">
-        <v>96589.96966390294</v>
+        <v>96589.96966390293</v>
       </c>
       <c r="CC3">
-        <v>99159.29591366609</v>
+        <v>99159.29591366608</v>
       </c>
       <c r="CD3">
         <v>101852.8419556075</v>
@@ -2640,7 +2640,7 @@
         <v>3083305.294223299</v>
       </c>
       <c r="F4">
-        <v>4357255.488227656</v>
+        <v>4357255.488227655</v>
       </c>
       <c r="G4">
         <v>5835198.857249958</v>
@@ -2679,7 +2679,7 @@
         <v>49870360.15256569</v>
       </c>
       <c r="S4">
-        <v>81216741.75334731</v>
+        <v>81216741.75334732</v>
       </c>
       <c r="T4">
         <v>112650799.9469008</v>
@@ -2694,7 +2694,7 @@
         <v>207570849.1455195</v>
       </c>
       <c r="X4">
-        <v>240275917.9822379</v>
+        <v>240275917.982238</v>
       </c>
       <c r="Y4">
         <v>273100651.974695</v>
@@ -2911,19 +2911,19 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2150342.287831459</v>
+        <v>2150342.287831458</v>
       </c>
       <c r="E5">
-        <v>3590984.262102498</v>
+        <v>3590984.262102496</v>
       </c>
       <c r="F5">
-        <v>4938489.558795187</v>
+        <v>4938489.558795185</v>
       </c>
       <c r="G5">
-        <v>6238543.719591174</v>
+        <v>6238543.719591172</v>
       </c>
       <c r="H5">
-        <v>7487241.310548613</v>
+        <v>7487241.310548611</v>
       </c>
       <c r="I5">
         <v>9048796.649043821</v>
@@ -2947,7 +2947,7 @@
         <v>19078680.27961173</v>
       </c>
       <c r="P5">
-        <v>35457271.52544352</v>
+        <v>35457271.52544351</v>
       </c>
       <c r="Q5">
         <v>51881319.91744582</v>
@@ -2968,73 +2968,73 @@
         <v>286272376.0224867</v>
       </c>
       <c r="W5">
-        <v>341028436.9300434</v>
+        <v>341028436.9300435</v>
       </c>
       <c r="X5">
-        <v>398746992.3786655</v>
+        <v>398746992.3786656</v>
       </c>
       <c r="Y5">
         <v>456677905.3121305</v>
       </c>
       <c r="Z5">
-        <v>514889201.1002045</v>
+        <v>514889201.1002046</v>
       </c>
       <c r="AA5">
-        <v>573476053.7415508</v>
+        <v>573476053.7415509</v>
       </c>
       <c r="AB5">
-        <v>632568114.1070846</v>
+        <v>632568114.1070848</v>
       </c>
       <c r="AC5">
-        <v>650619100.3333586</v>
+        <v>650619100.3333588</v>
       </c>
       <c r="AD5">
-        <v>669566257.2556863</v>
+        <v>669566257.2556864</v>
       </c>
       <c r="AE5">
-        <v>689681248.5304973</v>
+        <v>689681248.5304974</v>
       </c>
       <c r="AF5">
-        <v>711287665.8540615</v>
+        <v>711287665.8540616</v>
       </c>
       <c r="AG5">
-        <v>734755181.9482657</v>
+        <v>734755181.9482658</v>
       </c>
       <c r="AH5">
-        <v>746057530.9570004</v>
+        <v>746057530.9570005</v>
       </c>
       <c r="AI5">
-        <v>760040694.2878186</v>
+        <v>760040694.2878187</v>
       </c>
       <c r="AJ5">
-        <v>777107041.9140393</v>
+        <v>777107041.9140394</v>
       </c>
       <c r="AK5">
-        <v>797610375.4053198</v>
+        <v>797610375.4053199</v>
       </c>
       <c r="AL5">
-        <v>821817123.1202313</v>
+        <v>821817123.1202314</v>
       </c>
       <c r="AM5">
-        <v>855771574.77925</v>
+        <v>855771574.7792501</v>
       </c>
       <c r="AN5">
-        <v>893547062.1758323</v>
+        <v>893547062.1758324</v>
       </c>
       <c r="AO5">
-        <v>934935450.3298365</v>
+        <v>934935450.3298366</v>
       </c>
       <c r="AP5">
-        <v>979534391.0800083</v>
+        <v>979534391.0800085</v>
       </c>
       <c r="AQ5">
-        <v>1026759270.189893</v>
+        <v>1026759270.189894</v>
       </c>
       <c r="AR5">
         <v>1084079437.656301</v>
       </c>
       <c r="AS5">
-        <v>1142460577.747473</v>
+        <v>1142460577.747474</v>
       </c>
       <c r="AT5">
         <v>1201038535.759017</v>
@@ -3061,7 +3061,7 @@
         <v>1577426510.542795</v>
       </c>
       <c r="BB5">
-        <v>1622205095.356886</v>
+        <v>1622205095.356887</v>
       </c>
       <c r="BC5">
         <v>1665958773.780459</v>
@@ -3070,7 +3070,7 @@
         <v>1709386344.541885</v>
       </c>
       <c r="BE5">
-        <v>1753212656.498061</v>
+        <v>1753212656.498062</v>
       </c>
       <c r="BF5">
         <v>1798128407.832464</v>
@@ -3085,13 +3085,13 @@
         <v>1942508851.161861</v>
       </c>
       <c r="BJ5">
-        <v>1995724126.523382</v>
+        <v>1995724126.523383</v>
       </c>
       <c r="BK5">
-        <v>2051652610.535527</v>
+        <v>2051652610.535528</v>
       </c>
       <c r="BL5">
-        <v>2110069102.791946</v>
+        <v>2110069102.791947</v>
       </c>
       <c r="BM5">
         <v>2170834390.605282</v>
@@ -3103,10 +3103,10 @@
         <v>2297970936.215168</v>
       </c>
       <c r="BP5">
-        <v>2363488115.042029</v>
+        <v>2363488115.04203</v>
       </c>
       <c r="BQ5">
-        <v>2429738599.082192</v>
+        <v>2429738599.082193</v>
       </c>
       <c r="BR5">
         <v>2496288932.794456</v>
@@ -3118,16 +3118,16 @@
         <v>2628974855.530534</v>
       </c>
       <c r="BU5">
-        <v>2694671888.044942</v>
+        <v>2694671888.044943</v>
       </c>
       <c r="BV5">
-        <v>2759592769.331661</v>
+        <v>2759592769.331662</v>
       </c>
       <c r="BW5">
-        <v>2823988737.985062</v>
+        <v>2823988737.985063</v>
       </c>
       <c r="BX5">
-        <v>2887982363.179763</v>
+        <v>2887982363.179764</v>
       </c>
       <c r="BY5">
         <v>2951771068.425478</v>
@@ -3139,34 +3139,34 @@
         <v>3079379980.08349</v>
       </c>
       <c r="CB5">
-        <v>3143771782.89296</v>
+        <v>3143771782.892961</v>
       </c>
       <c r="CC5">
-        <v>3209054912.639689</v>
+        <v>3209054912.63969</v>
       </c>
       <c r="CD5">
-        <v>3275466271.142033</v>
+        <v>3275466271.142034</v>
       </c>
       <c r="CE5">
         <v>3343190867.182305</v>
       </c>
       <c r="CF5">
-        <v>3411680958.667376</v>
+        <v>3411680958.667377</v>
       </c>
       <c r="CG5">
-        <v>3481662893.143967</v>
+        <v>3481662893.143968</v>
       </c>
       <c r="CH5">
         <v>3553126672.795613</v>
       </c>
       <c r="CI5">
-        <v>3626002491.952924</v>
+        <v>3626002491.952925</v>
       </c>
       <c r="CJ5">
-        <v>3700170762.963469</v>
+        <v>3700170762.96347</v>
       </c>
       <c r="CK5">
-        <v>3774422639.900124</v>
+        <v>3774422639.900125</v>
       </c>
       <c r="CL5">
         <v>3849631615.915441</v>
@@ -3175,7 +3175,7 @@
         <v>3925611351.090847</v>
       </c>
       <c r="CN5">
-        <v>4002182332.903446</v>
+        <v>4002182332.903447</v>
       </c>
       <c r="CO5">
         <v>4079184397.34267</v>
